--- a/template/Localization.xlsx
+++ b/template/Localization.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyan/Projects/Dunkleosteus/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="267">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LK_StartGame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,12 +74,874 @@
   <si>
     <t>Tap to Start</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Star Painter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星空画家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星空画家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星空画家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKStartGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水瓶座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aquarius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水瓶座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みずがめ座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白羊座</t>
+  </si>
+  <si>
+    <t>白羊座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おひつじ座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨蟹座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かに座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩羯座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やぎ座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capricornus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙子座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双子座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gemini</t>
+  </si>
+  <si>
+    <t>ふたご座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しし座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獅子座</t>
+  </si>
+  <si>
+    <t>Leo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天秤座</t>
+  </si>
+  <si>
+    <t>Libra</t>
+  </si>
+  <si>
+    <t>てんびん座</t>
+  </si>
+  <si>
+    <t>蛇夫座</t>
+  </si>
+  <si>
+    <t>へびつかい座</t>
+  </si>
+  <si>
+    <t>Ophiuchus</t>
+  </si>
+  <si>
+    <t>雙魚座</t>
+  </si>
+  <si>
+    <t>双鱼座</t>
+  </si>
+  <si>
+    <t>うお座</t>
+  </si>
+  <si>
+    <t>Pisces</t>
+  </si>
+  <si>
+    <t>人馬座</t>
+  </si>
+  <si>
+    <t>射手座</t>
+  </si>
+  <si>
+    <t>いて座</t>
+  </si>
+  <si>
+    <t>Sagittarius</t>
+  </si>
+  <si>
+    <t>天蝎座</t>
+  </si>
+  <si>
+    <t>金牛座</t>
+  </si>
+  <si>
+    <t>处女座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天蠍座</t>
+  </si>
+  <si>
+    <t>室女座</t>
+  </si>
+  <si>
+    <t>さそり座</t>
+  </si>
+  <si>
+    <t>Scorpius</t>
+  </si>
+  <si>
+    <t>おうし座</t>
+  </si>
+  <si>
+    <t>Taurus</t>
+  </si>
+  <si>
+    <t>Virgo</t>
+  </si>
+  <si>
+    <t>おとめ座</t>
+  </si>
+  <si>
+    <t>LKAquariusTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKAriesTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKCancerTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKCapricornusTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKGeminiTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKLeoTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKLibraTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKOphiuchusTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKPiscesTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKSagittariusTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKScorpiusTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKTaurusTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKVirgoTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御夫座</t>
+  </si>
+  <si>
+    <t>牧夫座</t>
+  </si>
+  <si>
+    <t>Boötes</t>
+  </si>
+  <si>
+    <t>うしかい座</t>
+  </si>
+  <si>
+    <t>LKBootes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿豹座</t>
+  </si>
+  <si>
+    <t>Camelopardalis</t>
+  </si>
+  <si>
+    <t>LKCamelopardalis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きりん座</t>
+  </si>
+  <si>
+    <t>猎犬座</t>
+  </si>
+  <si>
+    <t>獵犬座</t>
+  </si>
+  <si>
+    <t>Canes Venatici</t>
+  </si>
+  <si>
+    <t>LKCanesVenatici</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>りょうけん座</t>
+  </si>
+  <si>
+    <t>后发座</t>
+  </si>
+  <si>
+    <t>后髮座</t>
+  </si>
+  <si>
+    <t>かみのけ座</t>
+  </si>
+  <si>
+    <t>Coma Berenices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKComaBerenices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北冕座</t>
+  </si>
+  <si>
+    <t>Corona Borealis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKCoronaBorealis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北冕座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんむり座</t>
+  </si>
+  <si>
+    <t>天龙座</t>
+  </si>
+  <si>
+    <t>天龍座</t>
+  </si>
+  <si>
+    <t>りゅう座</t>
+  </si>
+  <si>
+    <t>Draco</t>
+  </si>
+  <si>
+    <t>LKDraco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小狮座</t>
+  </si>
+  <si>
+    <t>小獅座</t>
+  </si>
+  <si>
+    <t>Leo Minor</t>
+  </si>
+  <si>
+    <t>LKLeoMinor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こじし座</t>
+  </si>
+  <si>
+    <t>天猫座</t>
+  </si>
+  <si>
+    <t>天貓座</t>
+  </si>
+  <si>
+    <t>Lynx</t>
+  </si>
+  <si>
+    <t>LKLynx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やまねこ座</t>
+  </si>
+  <si>
+    <t>大熊座</t>
+  </si>
+  <si>
+    <t>小熊座</t>
+  </si>
+  <si>
+    <t>Ursa Major</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKUrsaMajor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おおぐま座</t>
+  </si>
+  <si>
+    <t>LKUrsaMinor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ursa Minor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こぐま座</t>
+  </si>
+  <si>
+    <t>船底座</t>
+  </si>
+  <si>
+    <t>Carina</t>
+  </si>
+  <si>
+    <t>LKCarina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>りゅうこつ座</t>
+  </si>
+  <si>
+    <t>天鸽座</t>
+  </si>
+  <si>
+    <t>天鴿座</t>
+  </si>
+  <si>
+    <t>はと座</t>
+  </si>
+  <si>
+    <t>Columba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKColumba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海豚座</t>
+  </si>
+  <si>
+    <t>いるか座</t>
+  </si>
+  <si>
+    <t>Delphinus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKDelphinus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小马座</t>
+  </si>
+  <si>
+    <t>小馬座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equuleus</t>
+  </si>
+  <si>
+    <t>LKEquuleus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうま座</t>
+  </si>
+  <si>
+    <t>波江座</t>
+  </si>
+  <si>
+    <t>Eridanus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKEridanus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>エリダヌス座</t>
+  </si>
+  <si>
+    <t>南魚座</t>
+  </si>
+  <si>
+    <t>南鱼座</t>
+  </si>
+  <si>
+    <t>Piscis Austrinus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKPiscisAustrinus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みなみのうお座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船尾座</t>
+  </si>
+  <si>
+    <t>Puppis</t>
+  </si>
+  <si>
+    <t>LKPuppis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とも座</t>
+  </si>
+  <si>
+    <t>羅盤座</t>
+  </si>
+  <si>
+    <t>罗盘座</t>
+  </si>
+  <si>
+    <t>Pyxis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKPyxis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>らしんばん座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船帆座</t>
+  </si>
+  <si>
+    <t>Vela</t>
+  </si>
+  <si>
+    <t>LKVela</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほ座</t>
+  </si>
+  <si>
+    <t>唧筒座</t>
+  </si>
+  <si>
+    <t>Antlia</t>
+  </si>
+  <si>
+    <t>LKAntlia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ポンプ座</t>
+  </si>
+  <si>
+    <t>雕具座</t>
+  </si>
+  <si>
+    <t>圓規座</t>
+  </si>
+  <si>
+    <t>雕具座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天爐座</t>
+  </si>
+  <si>
+    <t>時鐘座</t>
+  </si>
+  <si>
+    <t>山案座</t>
+  </si>
+  <si>
+    <t>顯微鏡座</t>
+  </si>
+  <si>
+    <t>矩尺座</t>
+  </si>
+  <si>
+    <t>南極座</t>
+  </si>
+  <si>
+    <t>繪架座</t>
+  </si>
+  <si>
+    <t>網罟座</t>
+  </si>
+  <si>
+    <t>玉夫座</t>
+  </si>
+  <si>
+    <t>望遠鏡座</t>
+  </si>
+  <si>
+    <t>天燕座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝘蜓座</t>
+  </si>
+  <si>
+    <t>劍魚座</t>
+  </si>
+  <si>
+    <t>天鶴座</t>
+  </si>
+  <si>
+    <t>水蛇座</t>
+  </si>
+  <si>
+    <t>印第安座</t>
+  </si>
+  <si>
+    <t>蒼蠅座</t>
+  </si>
+  <si>
+    <t>孔雀座</t>
+  </si>
+  <si>
+    <t>鳳凰座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜鵑座</t>
+  </si>
+  <si>
+    <t>飛魚座</t>
+  </si>
+  <si>
+    <t>天鷹座</t>
+  </si>
+  <si>
+    <t>天壇座</t>
+  </si>
+  <si>
+    <t>半人馬座</t>
+  </si>
+  <si>
+    <t>南冕座</t>
+  </si>
+  <si>
+    <t>烏鴉座</t>
+  </si>
+  <si>
+    <t>巨爵座</t>
+  </si>
+  <si>
+    <t>南十字座</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天鵝座 </t>
+  </si>
+  <si>
+    <t>武仙座</t>
+  </si>
+  <si>
+    <t>長蛇座</t>
+  </si>
+  <si>
+    <t>豺狼座</t>
+  </si>
+  <si>
+    <t>天琴座</t>
+  </si>
+  <si>
+    <t>天箭座</t>
+  </si>
+  <si>
+    <t>盾牌座</t>
+  </si>
+  <si>
+    <t>巨蛇座</t>
+  </si>
+  <si>
+    <t>六分儀座</t>
+  </si>
+  <si>
+    <t>南三角座</t>
+  </si>
+  <si>
+    <t>狐狸座</t>
+  </si>
+  <si>
+    <t>大犬座</t>
+  </si>
+  <si>
+    <t>小犬座</t>
+  </si>
+  <si>
+    <t>天兔座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獵戶座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麒麟座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙女座</t>
+  </si>
+  <si>
+    <t>仙后座</t>
+  </si>
+  <si>
+    <t>仙王座</t>
+  </si>
+  <si>
+    <t>鯨魚座</t>
+  </si>
+  <si>
+    <t>蠍虎座</t>
+  </si>
+  <si>
+    <t>飛馬座</t>
+  </si>
+  <si>
+    <t>英仙座</t>
+  </si>
+  <si>
+    <t>三角座</t>
+  </si>
+  <si>
+    <t>Caelum</t>
+  </si>
+  <si>
+    <t>LKCaelum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょうこくぐ座</t>
+  </si>
+  <si>
+    <t>圆规座</t>
+  </si>
+  <si>
+    <t>Circinus</t>
+  </si>
+  <si>
+    <t>LKCircinus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コンパス座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天炉座</t>
+  </si>
+  <si>
+    <t>LKFornax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fornax</t>
+  </si>
+  <si>
+    <t>ろ座</t>
+  </si>
+  <si>
+    <t>时钟座</t>
+  </si>
+  <si>
+    <t>Horologium</t>
+  </si>
+  <si>
+    <t>LKHorologium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とけい座</t>
+  </si>
+  <si>
+    <t>Mensa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKMensa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テーブルさん座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显微镜座</t>
+  </si>
+  <si>
+    <t>Microscopium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKMicroscopium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けんびきょう座</t>
+  </si>
+  <si>
+    <t>Norma</t>
+  </si>
+  <si>
+    <t>LKNorma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じょうぎ座</t>
+  </si>
+  <si>
+    <t>南极座</t>
+  </si>
+  <si>
+    <t>LKOctans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Octans</t>
+  </si>
+  <si>
+    <t>はちぶんぎ座</t>
+  </si>
+  <si>
+    <t>绘架座</t>
+  </si>
+  <si>
+    <t>Pictor</t>
+  </si>
+  <si>
+    <t>LKPictor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がか座</t>
+  </si>
+  <si>
+    <t>网罟座</t>
+  </si>
+  <si>
+    <t>Reticulum</t>
+  </si>
+  <si>
+    <t>LKReticulum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>レチクル座</t>
+  </si>
+  <si>
+    <t>Sculptor</t>
+  </si>
+  <si>
+    <t>LKSculptor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょうこくしつ座</t>
+  </si>
+  <si>
+    <t>望远镜座</t>
+  </si>
+  <si>
+    <t>Telescopium</t>
+  </si>
+  <si>
+    <t>LKTelescopium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぼうえんきょう座</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,18 +1294,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="3" width="27.125" customWidth="1"/>
+    <col min="2" max="3" width="27.1640625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -475,19 +1344,1016 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>224</v>
+      </c>
+      <c r="B38" t="s">
+        <v>223</v>
+      </c>
+      <c r="C38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" t="s">
+        <v>227</v>
+      </c>
+      <c r="C39" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B40" t="s">
+        <v>232</v>
+      </c>
+      <c r="C40" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>236</v>
+      </c>
+      <c r="B41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>239</v>
+      </c>
+      <c r="B42" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" t="s">
+        <v>242</v>
+      </c>
+      <c r="C43" t="s">
+        <v>241</v>
+      </c>
+      <c r="D43" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>246</v>
+      </c>
+      <c r="B44" t="s">
+        <v>245</v>
+      </c>
+      <c r="C44" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>249</v>
+      </c>
+      <c r="B45" t="s">
+        <v>250</v>
+      </c>
+      <c r="C45" t="s">
+        <v>248</v>
+      </c>
+      <c r="D45" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>254</v>
+      </c>
+      <c r="B46" t="s">
+        <v>253</v>
+      </c>
+      <c r="C46" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>258</v>
+      </c>
+      <c r="B47" t="s">
+        <v>257</v>
+      </c>
+      <c r="C47" t="s">
+        <v>256</v>
+      </c>
+      <c r="D47" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>261</v>
+      </c>
+      <c r="B48" t="s">
+        <v>260</v>
+      </c>
+      <c r="C48" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>265</v>
+      </c>
+      <c r="B49" t="s">
+        <v>264</v>
+      </c>
+      <c r="C49" t="s">
+        <v>263</v>
+      </c>
+      <c r="D49" t="s">
+        <v>180</v>
+      </c>
+      <c r="E49" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/template/Localization.xlsx
+++ b/template/Localization.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyan/Projects/Dunkleosteus/template/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,18 +14,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="427">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -663,102 +658,709 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>劍魚座</t>
+  </si>
+  <si>
+    <t>天鶴座</t>
+  </si>
+  <si>
+    <t>水蛇座</t>
+  </si>
+  <si>
+    <t>印第安座</t>
+  </si>
+  <si>
+    <t>蒼蠅座</t>
+  </si>
+  <si>
+    <t>孔雀座</t>
+  </si>
+  <si>
+    <t>鳳凰座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜鵑座</t>
+  </si>
+  <si>
+    <t>飛魚座</t>
+  </si>
+  <si>
+    <t>天鷹座</t>
+  </si>
+  <si>
+    <t>天壇座</t>
+  </si>
+  <si>
+    <t>半人馬座</t>
+  </si>
+  <si>
+    <t>南冕座</t>
+  </si>
+  <si>
+    <t>烏鴉座</t>
+  </si>
+  <si>
+    <t>南十字座</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天鵝座 </t>
+  </si>
+  <si>
+    <t>武仙座</t>
+  </si>
+  <si>
+    <t>長蛇座</t>
+  </si>
+  <si>
+    <t>豺狼座</t>
+  </si>
+  <si>
+    <t>天琴座</t>
+  </si>
+  <si>
+    <t>天箭座</t>
+  </si>
+  <si>
+    <t>盾牌座</t>
+  </si>
+  <si>
+    <t>巨蛇座</t>
+  </si>
+  <si>
+    <t>六分儀座</t>
+  </si>
+  <si>
+    <t>南三角座</t>
+  </si>
+  <si>
+    <t>狐狸座</t>
+  </si>
+  <si>
+    <t>大犬座</t>
+  </si>
+  <si>
+    <t>小犬座</t>
+  </si>
+  <si>
+    <t>天兔座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獵戶座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麒麟座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙女座</t>
+  </si>
+  <si>
+    <t>仙后座</t>
+  </si>
+  <si>
+    <t>仙王座</t>
+  </si>
+  <si>
+    <t>鯨魚座</t>
+  </si>
+  <si>
+    <t>蠍虎座</t>
+  </si>
+  <si>
+    <t>飛馬座</t>
+  </si>
+  <si>
+    <t>英仙座</t>
+  </si>
+  <si>
+    <t>三角座</t>
+  </si>
+  <si>
+    <t>Caelum</t>
+  </si>
+  <si>
+    <t>LKCaelum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょうこくぐ座</t>
+  </si>
+  <si>
+    <t>圆规座</t>
+  </si>
+  <si>
+    <t>Circinus</t>
+  </si>
+  <si>
+    <t>LKCircinus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コンパス座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天炉座</t>
+  </si>
+  <si>
+    <t>LKFornax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fornax</t>
+  </si>
+  <si>
+    <t>ろ座</t>
+  </si>
+  <si>
+    <t>时钟座</t>
+  </si>
+  <si>
+    <t>Horologium</t>
+  </si>
+  <si>
+    <t>LKHorologium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とけい座</t>
+  </si>
+  <si>
+    <t>Mensa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKMensa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テーブルさん座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显微镜座</t>
+  </si>
+  <si>
+    <t>Microscopium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKMicroscopium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けんびきょう座</t>
+  </si>
+  <si>
+    <t>Norma</t>
+  </si>
+  <si>
+    <t>LKNorma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じょうぎ座</t>
+  </si>
+  <si>
+    <t>南极座</t>
+  </si>
+  <si>
+    <t>LKOctans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Octans</t>
+  </si>
+  <si>
+    <t>はちぶんぎ座</t>
+  </si>
+  <si>
+    <t>绘架座</t>
+  </si>
+  <si>
+    <t>Pictor</t>
+  </si>
+  <si>
+    <t>LKPictor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がか座</t>
+  </si>
+  <si>
+    <t>网罟座</t>
+  </si>
+  <si>
+    <t>Reticulum</t>
+  </si>
+  <si>
+    <t>LKReticulum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>レチクル座</t>
+  </si>
+  <si>
+    <t>Sculptor</t>
+  </si>
+  <si>
+    <t>LKSculptor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょうこくしつ座</t>
+  </si>
+  <si>
+    <t>望远镜座</t>
+  </si>
+  <si>
+    <t>Telescopium</t>
+  </si>
+  <si>
+    <t>LKTelescopium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぼうえんきょう座</t>
+  </si>
+  <si>
+    <t>天燕座</t>
+  </si>
+  <si>
+    <t>Apus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKApus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふうちょう座</t>
+  </si>
+  <si>
     <t>蝘蜓座</t>
-  </si>
-  <si>
-    <t>劍魚座</t>
-  </si>
-  <si>
-    <t>天鶴座</t>
-  </si>
-  <si>
-    <t>水蛇座</t>
-  </si>
-  <si>
-    <t>印第安座</t>
-  </si>
-  <si>
-    <t>蒼蠅座</t>
-  </si>
-  <si>
-    <t>孔雀座</t>
-  </si>
-  <si>
-    <t>鳳凰座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杜鵑座</t>
-  </si>
-  <si>
-    <t>飛魚座</t>
-  </si>
-  <si>
-    <t>天鷹座</t>
-  </si>
-  <si>
-    <t>天壇座</t>
-  </si>
-  <si>
-    <t>半人馬座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝘蜓座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chamaeleon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKChamaeleon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>カメレオン座</t>
+  </si>
+  <si>
+    <t>剑鱼座</t>
+  </si>
+  <si>
+    <t>Dorado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKDorado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かじき座</t>
+  </si>
+  <si>
+    <t>天鹤座</t>
+  </si>
+  <si>
+    <t>Grus</t>
+  </si>
+  <si>
+    <t>LKGrus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つる座</t>
+  </si>
+  <si>
+    <t>Hydrus</t>
+  </si>
+  <si>
+    <t>LKHydrus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みずへび座</t>
+  </si>
+  <si>
+    <t>インディアン座</t>
+  </si>
+  <si>
+    <t>Indus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKIndus</t>
+  </si>
+  <si>
+    <t>苍蝇座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Musca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKMusca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はえ座</t>
+  </si>
+  <si>
+    <t>Pavo</t>
+  </si>
+  <si>
+    <t>LKPavo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くじゃく座</t>
+  </si>
+  <si>
+    <t>凤凰座</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>LKPhoenix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほうおう座</t>
+  </si>
+  <si>
+    <t>Tucana</t>
+  </si>
+  <si>
+    <t>LKTucana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょしちょう座</t>
+  </si>
+  <si>
+    <t>杜鹃座</t>
+  </si>
+  <si>
+    <t>飞鱼座</t>
+  </si>
+  <si>
+    <t>Volans</t>
+  </si>
+  <si>
+    <t>LKVolans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とびうお座</t>
+  </si>
+  <si>
+    <t>天鹰座</t>
+  </si>
+  <si>
+    <t>Aquila</t>
+  </si>
+  <si>
+    <t>LKAquila</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わし座</t>
+  </si>
+  <si>
+    <t>天坛座</t>
+  </si>
+  <si>
+    <t>Ara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKAra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さいだん座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半人马座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Centaurus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKCentaurus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ケンタウルス座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corona Australis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKCoronaAustralis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>南冕座</t>
-  </si>
-  <si>
-    <t>烏鴉座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みなみのかんむり座</t>
+  </si>
+  <si>
+    <t>乌鸦座</t>
+  </si>
+  <si>
+    <t>Corvus</t>
+  </si>
+  <si>
+    <t>LKCorvus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>からす座</t>
   </si>
   <si>
     <t>巨爵座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKCrater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コップ座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKCrux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>南十字座</t>
-  </si>
-  <si>
-    <t xml:space="preserve">天鵝座 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みなみじゅうじ座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天鹅座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はくちょう座</t>
+  </si>
+  <si>
+    <t>Cygnus</t>
+  </si>
+  <si>
+    <t>LKCygnus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>武仙座</t>
-  </si>
-  <si>
-    <t>長蛇座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヘルクレス座</t>
+  </si>
+  <si>
+    <t>LKHercules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hercules</t>
+  </si>
+  <si>
+    <t>长蛇座</t>
+  </si>
+  <si>
+    <t>Hydra</t>
+  </si>
+  <si>
+    <t>LKHydra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うみへび座</t>
   </si>
   <si>
     <t>豺狼座</t>
-  </si>
-  <si>
-    <t>天琴座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lupus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKLupus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おおかみ座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lyra</t>
+  </si>
+  <si>
+    <t>LKLyra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こと座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>天箭座</t>
-  </si>
-  <si>
-    <t>盾牌座</t>
-  </si>
-  <si>
-    <t>巨蛇座</t>
-  </si>
-  <si>
-    <t>六分儀座</t>
-  </si>
-  <si>
-    <t>南三角座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sagitta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKSagitta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>や座</t>
+  </si>
+  <si>
+    <t>たて座</t>
+  </si>
+  <si>
+    <t>Scutum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKScutum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serpens</t>
+  </si>
+  <si>
+    <t>LKSerpens</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へび座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六分仪座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sextans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKSextans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろくぶんぎ座</t>
+  </si>
+  <si>
+    <t>Triangulum Australe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKTriangulumAustrale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みなみのさんかく座</t>
   </si>
   <si>
     <t>狐狸座</t>
-  </si>
-  <si>
-    <t>大犬座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vulpecula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKVulpecula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こぎつね座</t>
+  </si>
+  <si>
+    <t>Canis Major</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKCanisMajor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おおいぬ座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小犬座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKCanisMinor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canis Minor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こいぬ座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>天兔座</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>獵戶座</t>
+    <t>Lepus</t>
+  </si>
+  <si>
+    <t>うさぎ座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKLepus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -766,182 +1368,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Monoceros</t>
+  </si>
+  <si>
+    <t>LKMonoceros</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっかくじゅう座</t>
+  </si>
+  <si>
+    <t>猎户座</t>
+  </si>
+  <si>
+    <t>Orion</t>
+  </si>
+  <si>
+    <t>LKOrion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>オリオン座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>仙女座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andromeda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKAndromeda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アンドロメダ座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auriga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKAuriga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぎょしゃ座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>仙后座</t>
-  </si>
-  <si>
-    <t>仙王座</t>
-  </si>
-  <si>
-    <t>鯨魚座</t>
-  </si>
-  <si>
-    <t>蠍虎座</t>
-  </si>
-  <si>
-    <t>飛馬座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cassiopeia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKCassiopeia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>カシオペヤ座</t>
+  </si>
+  <si>
+    <t>Cepheus</t>
+  </si>
+  <si>
+    <t>LKCepheus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ケフェウス座</t>
+  </si>
+  <si>
+    <t>鲸鱼座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cetus</t>
+  </si>
+  <si>
+    <t>LKCetus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くじら座</t>
+  </si>
+  <si>
+    <t>蝎虎座</t>
+  </si>
+  <si>
+    <t>Lacerta</t>
+  </si>
+  <si>
+    <t>LKLacerta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とかげ座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞马座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pegasus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKPegasus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ペガスス座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>英仙座</t>
-  </si>
-  <si>
-    <t>三角座</t>
-  </si>
-  <si>
-    <t>Caelum</t>
-  </si>
-  <si>
-    <t>LKCaelum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ちょうこくぐ座</t>
-  </si>
-  <si>
-    <t>圆规座</t>
-  </si>
-  <si>
-    <t>Circinus</t>
-  </si>
-  <si>
-    <t>LKCircinus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>コンパス座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天炉座</t>
-  </si>
-  <si>
-    <t>LKFornax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fornax</t>
-  </si>
-  <si>
-    <t>ろ座</t>
-  </si>
-  <si>
-    <t>时钟座</t>
-  </si>
-  <si>
-    <t>Horologium</t>
-  </si>
-  <si>
-    <t>LKHorologium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>とけい座</t>
-  </si>
-  <si>
-    <t>Mensa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LKMensa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>テーブルさん座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显微镜座</t>
-  </si>
-  <si>
-    <t>Microscopium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LKMicroscopium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>けんびきょう座</t>
-  </si>
-  <si>
-    <t>Norma</t>
-  </si>
-  <si>
-    <t>LKNorma</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>じょうぎ座</t>
-  </si>
-  <si>
-    <t>南极座</t>
-  </si>
-  <si>
-    <t>LKOctans</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Octans</t>
-  </si>
-  <si>
-    <t>はちぶんぎ座</t>
-  </si>
-  <si>
-    <t>绘架座</t>
-  </si>
-  <si>
-    <t>Pictor</t>
-  </si>
-  <si>
-    <t>LKPictor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>がか座</t>
-  </si>
-  <si>
-    <t>网罟座</t>
-  </si>
-  <si>
-    <t>Reticulum</t>
-  </si>
-  <si>
-    <t>LKReticulum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>レチクル座</t>
-  </si>
-  <si>
-    <t>Sculptor</t>
-  </si>
-  <si>
-    <t>LKSculptor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ちょうこくしつ座</t>
-  </si>
-  <si>
-    <t>望远镜座</t>
-  </si>
-  <si>
-    <t>Telescopium</t>
-  </si>
-  <si>
-    <t>LKTelescopium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ぼうえんきょう座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perseus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKPerseus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ペルセウス座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triangulum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKTriangulum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんかく座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1296,19 +1875,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="3" width="27.1640625" customWidth="1"/>
+    <col min="2" max="3" width="27.125" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1325,7 +1904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1342,7 +1921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1359,7 +1938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1376,7 +1955,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -1393,7 +1972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -1410,7 +1989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -1427,7 +2006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -1444,7 +2023,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -1461,7 +2040,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -1478,7 +2057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -1495,7 +2074,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -1512,7 +2091,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -1529,7 +2108,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -1546,7 +2125,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -1563,7 +2142,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -1580,7 +2159,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -1597,7 +2176,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -1614,7 +2193,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -1631,7 +2210,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -1648,7 +2227,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -1665,7 +2244,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>98</v>
       </c>
@@ -1682,7 +2261,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>105</v>
       </c>
@@ -1699,7 +2278,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>109</v>
       </c>
@@ -1716,7 +2295,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -1733,7 +2312,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>119</v>
       </c>
@@ -1750,7 +2329,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>121</v>
       </c>
@@ -1767,7 +2346,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -1784,7 +2363,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>132</v>
       </c>
@@ -1801,7 +2380,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>136</v>
       </c>
@@ -1818,7 +2397,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -1835,7 +2414,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>144</v>
       </c>
@@ -1852,7 +2431,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -1869,7 +2448,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>153</v>
       </c>
@@ -1886,7 +2465,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>158</v>
       </c>
@@ -1903,7 +2482,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>162</v>
       </c>
@@ -1920,7 +2499,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>166</v>
       </c>
@@ -1937,12 +2516,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B38" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C38" t="s">
         <v>170</v>
@@ -1951,66 +2530,66 @@
         <v>168</v>
       </c>
       <c r="E38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>226</v>
+      </c>
+      <c r="B39" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>228</v>
-      </c>
-      <c r="B39" t="s">
-        <v>227</v>
-      </c>
       <c r="C39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D39" t="s">
         <v>169</v>
       </c>
       <c r="E39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>231</v>
-      </c>
       <c r="B40" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C40" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D40" t="s">
         <v>171</v>
       </c>
       <c r="E40" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>236</v>
-      </c>
-      <c r="B41" t="s">
-        <v>235</v>
-      </c>
       <c r="C41" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D41" t="s">
         <v>172</v>
       </c>
       <c r="E41" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>239</v>
-      </c>
       <c r="B42" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C42" t="s">
         <v>173</v>
@@ -2019,32 +2598,32 @@
         <v>173</v>
       </c>
       <c r="E42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>243</v>
-      </c>
-      <c r="B43" t="s">
-        <v>242</v>
-      </c>
       <c r="C43" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D43" t="s">
         <v>174</v>
       </c>
       <c r="E43" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>246</v>
-      </c>
       <c r="B44" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C44" t="s">
         <v>175</v>
@@ -2053,66 +2632,66 @@
         <v>175</v>
       </c>
       <c r="E44" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>249</v>
-      </c>
       <c r="B45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D45" t="s">
         <v>176</v>
       </c>
       <c r="E45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>252</v>
+      </c>
+      <c r="B46" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>254</v>
-      </c>
-      <c r="B46" t="s">
-        <v>253</v>
-      </c>
       <c r="C46" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D46" t="s">
         <v>177</v>
       </c>
       <c r="E46" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>256</v>
+      </c>
+      <c r="B47" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>258</v>
-      </c>
-      <c r="B47" t="s">
-        <v>257</v>
-      </c>
       <c r="C47" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D47" t="s">
         <v>178</v>
       </c>
       <c r="E47" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>261</v>
-      </c>
       <c r="B48" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C48" t="s">
         <v>179</v>
@@ -2121,239 +2700,755 @@
         <v>179</v>
       </c>
       <c r="E48" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>263</v>
+      </c>
+      <c r="B49" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>265</v>
-      </c>
-      <c r="B49" t="s">
-        <v>264</v>
-      </c>
       <c r="C49" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D49" t="s">
         <v>180</v>
       </c>
       <c r="E49" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>267</v>
+      </c>
+      <c r="B50" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>265</v>
+      </c>
       <c r="D50" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>272</v>
+      </c>
+      <c r="B51" t="s">
+        <v>271</v>
+      </c>
+      <c r="C51" t="s">
+        <v>270</v>
+      </c>
       <c r="D51" t="s">
+        <v>269</v>
+      </c>
+      <c r="E51" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>276</v>
+      </c>
+      <c r="B52" t="s">
+        <v>275</v>
+      </c>
+      <c r="C52" t="s">
+        <v>274</v>
+      </c>
+      <c r="D52" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D52" t="s">
+      <c r="E52" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>280</v>
+      </c>
+      <c r="B53" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53" t="s">
+        <v>278</v>
+      </c>
+      <c r="D53" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D53" t="s">
+      <c r="E53" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>283</v>
+      </c>
+      <c r="B54" t="s">
+        <v>282</v>
+      </c>
+      <c r="C54" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>287</v>
+      </c>
+      <c r="B55" t="s">
+        <v>286</v>
+      </c>
+      <c r="C55" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
+        <v>185</v>
+      </c>
+      <c r="E55" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>290</v>
+      </c>
+      <c r="B56" t="s">
+        <v>289</v>
+      </c>
+      <c r="C56" t="s">
+        <v>288</v>
+      </c>
+      <c r="D56" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D56" t="s">
+      <c r="E56" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>293</v>
+      </c>
+      <c r="B57" t="s">
+        <v>292</v>
+      </c>
+      <c r="C57" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
+        <v>187</v>
+      </c>
+      <c r="E57" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>297</v>
+      </c>
+      <c r="B58" t="s">
+        <v>296</v>
+      </c>
+      <c r="C58" t="s">
+        <v>295</v>
+      </c>
+      <c r="D58" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D58" t="s">
+      <c r="E58" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>300</v>
+      </c>
+      <c r="B59" t="s">
+        <v>299</v>
+      </c>
+      <c r="C59" t="s">
+        <v>302</v>
+      </c>
+      <c r="D59" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D59" t="s">
+      <c r="E59" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>305</v>
+      </c>
+      <c r="B60" t="s">
+        <v>304</v>
+      </c>
+      <c r="C60" t="s">
+        <v>303</v>
+      </c>
+      <c r="D60" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D60" t="s">
+      <c r="E60" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>309</v>
+      </c>
+      <c r="B61" t="s">
+        <v>308</v>
+      </c>
+      <c r="C61" t="s">
+        <v>307</v>
+      </c>
+      <c r="D61" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D61" t="s">
+      <c r="E61" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>313</v>
+      </c>
+      <c r="B62" t="s">
+        <v>312</v>
+      </c>
+      <c r="C62" t="s">
+        <v>311</v>
+      </c>
+      <c r="D62" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D62" t="s">
+      <c r="E62" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>317</v>
+      </c>
+      <c r="B63" t="s">
+        <v>316</v>
+      </c>
+      <c r="C63" t="s">
+        <v>315</v>
+      </c>
+      <c r="D63" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D63" t="s">
+      <c r="E63" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>320</v>
+      </c>
+      <c r="B64" t="s">
+        <v>319</v>
+      </c>
+      <c r="C64" t="s">
+        <v>321</v>
+      </c>
+      <c r="D64" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D64" t="s">
+      <c r="E64" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>325</v>
+      </c>
+      <c r="B65" t="s">
+        <v>324</v>
+      </c>
+      <c r="C65" t="s">
+        <v>323</v>
+      </c>
+      <c r="D65" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D65" t="s">
+      <c r="E65" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>329</v>
+      </c>
+      <c r="B66" t="s">
+        <v>328</v>
+      </c>
+      <c r="C66" t="s">
+        <v>327</v>
+      </c>
+      <c r="D66" t="s">
+        <v>327</v>
+      </c>
+      <c r="E66" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>332</v>
+      </c>
+      <c r="B67" t="s">
+        <v>331</v>
+      </c>
+      <c r="C67" t="s">
+        <v>333</v>
+      </c>
+      <c r="D67" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D66" t="s">
+      <c r="E67" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>338</v>
+      </c>
+      <c r="B68" t="s">
+        <v>337</v>
+      </c>
+      <c r="C68" t="s">
+        <v>335</v>
+      </c>
+      <c r="D68" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D67" t="s">
+      <c r="E68" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>341</v>
+      </c>
+      <c r="B69" t="s">
+        <v>342</v>
+      </c>
+      <c r="C69" t="s">
+        <v>339</v>
+      </c>
+      <c r="D69" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D68" t="s">
+      <c r="E69" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>345</v>
+      </c>
+      <c r="B70" t="s">
+        <v>344</v>
+      </c>
+      <c r="C70" t="s">
+        <v>343</v>
+      </c>
+      <c r="D70" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D69" t="s">
+      <c r="E70" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>349</v>
+      </c>
+      <c r="B71" t="s">
+        <v>348</v>
+      </c>
+      <c r="C71" t="s">
+        <v>347</v>
+      </c>
+      <c r="D71" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D70" t="s">
+      <c r="E71" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>352</v>
+      </c>
+      <c r="B72" t="s">
+        <v>351</v>
+      </c>
+      <c r="C72" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D71" t="s">
+      <c r="D72" t="s">
+        <v>201</v>
+      </c>
+      <c r="E72" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>356</v>
+      </c>
+      <c r="B73" t="s">
+        <v>355</v>
+      </c>
+      <c r="C73" t="s">
+        <v>354</v>
+      </c>
+      <c r="D73" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D72" t="s">
+      <c r="E73" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>360</v>
+      </c>
+      <c r="B74" t="s">
+        <v>359</v>
+      </c>
+      <c r="C74" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D73" t="s">
+      <c r="D74" t="s">
+        <v>203</v>
+      </c>
+      <c r="E74" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>362</v>
+      </c>
+      <c r="B75" t="s">
+        <v>361</v>
+      </c>
+      <c r="C75" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D74" t="s">
+      <c r="D75" t="s">
+        <v>204</v>
+      </c>
+      <c r="E75" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>366</v>
+      </c>
+      <c r="B76" t="s">
+        <v>365</v>
+      </c>
+      <c r="C76" t="s">
+        <v>364</v>
+      </c>
+      <c r="D76" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D75" t="s">
+      <c r="E76" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>369</v>
+      </c>
+      <c r="B77" t="s">
+        <v>368</v>
+      </c>
+      <c r="C77" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D76" t="s">
+      <c r="D77" t="s">
+        <v>206</v>
+      </c>
+      <c r="E77" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>373</v>
+      </c>
+      <c r="B78" t="s">
+        <v>372</v>
+      </c>
+      <c r="C78" t="s">
+        <v>371</v>
+      </c>
+      <c r="D78" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D77" t="s">
+      <c r="E78" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>376</v>
+      </c>
+      <c r="B79" t="s">
+        <v>375</v>
+      </c>
+      <c r="C79" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D78" t="s">
+      <c r="D79" t="s">
+        <v>208</v>
+      </c>
+      <c r="E79" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>379</v>
+      </c>
+      <c r="B80" t="s">
+        <v>380</v>
+      </c>
+      <c r="C80" t="s">
+        <v>378</v>
+      </c>
+      <c r="D80" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D79" t="s">
+      <c r="E80" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>385</v>
+      </c>
+      <c r="B81" t="s">
+        <v>383</v>
+      </c>
+      <c r="C81" t="s">
+        <v>382</v>
+      </c>
+      <c r="D81" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D80" t="s">
+      <c r="E81" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>388</v>
+      </c>
+      <c r="B82" t="s">
+        <v>387</v>
+      </c>
+      <c r="C82" t="s">
+        <v>386</v>
+      </c>
+      <c r="D82" t="s">
+        <v>212</v>
+      </c>
+      <c r="E82" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>392</v>
+      </c>
+      <c r="B83" t="s">
+        <v>391</v>
+      </c>
+      <c r="C83" t="s">
+        <v>390</v>
+      </c>
+      <c r="D83" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D81" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D82" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D83" t="s">
+      <c r="E83" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>396</v>
+      </c>
+      <c r="B84" t="s">
+        <v>395</v>
+      </c>
+      <c r="C84" t="s">
+        <v>394</v>
+      </c>
+      <c r="D84" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D84" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>399</v>
+      </c>
+      <c r="B85" t="s">
+        <v>398</v>
+      </c>
+      <c r="C85" t="s">
+        <v>77</v>
+      </c>
       <c r="D85" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E85" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>403</v>
+      </c>
+      <c r="B86" t="s">
+        <v>402</v>
+      </c>
+      <c r="C86" t="s">
+        <v>401</v>
+      </c>
       <c r="D86" t="s">
+        <v>214</v>
+      </c>
+      <c r="E86" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>406</v>
+      </c>
+      <c r="B87" t="s">
+        <v>405</v>
+      </c>
+      <c r="C87" t="s">
+        <v>215</v>
+      </c>
+      <c r="D87" t="s">
+        <v>215</v>
+      </c>
+      <c r="E87" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>410</v>
+      </c>
+      <c r="B88" t="s">
+        <v>409</v>
+      </c>
+      <c r="C88" t="s">
+        <v>408</v>
+      </c>
+      <c r="D88" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D87" t="s">
+      <c r="E88" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>414</v>
+      </c>
+      <c r="B89" t="s">
+        <v>413</v>
+      </c>
+      <c r="C89" t="s">
+        <v>412</v>
+      </c>
+      <c r="D89" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D88" t="s">
+      <c r="E89" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>418</v>
+      </c>
+      <c r="B90" t="s">
+        <v>417</v>
+      </c>
+      <c r="C90" t="s">
+        <v>416</v>
+      </c>
+      <c r="D90" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D89" t="s">
+      <c r="E90" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>422</v>
+      </c>
+      <c r="B91" t="s">
+        <v>421</v>
+      </c>
+      <c r="C91" t="s">
+        <v>420</v>
+      </c>
+      <c r="D91" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D90" t="s">
+      <c r="E91" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>425</v>
+      </c>
+      <c r="B92" t="s">
+        <v>424</v>
+      </c>
+      <c r="C92" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D91" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+      <c r="E92" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/template/Localization.xlsx
+++ b/template/Localization.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="1097">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3845,6 +3845,26 @@
   </si>
   <si>
     <t>ペルセウス（ペルセウス座）は、怪物メドゥーサを倒し、また海の怪物ケートス（くじら座）の生贄にされようとしていたアンドロメダー姫（アンドロメダ座）を救って結婚した。天上のペルセウスは、右手に剣、左手にはメドゥーサの首を持っている。メドゥーサの首はあまりに恐ろしく、見たものは石になってしまうという。</t>
+  </si>
+  <si>
+    <t>LKNotifyTapCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击卡片继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press the Card to Continue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>タップ　ザ　カッド</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>點擊卡片繼續</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4210,10 +4230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E275"/>
+  <dimension ref="A1:E276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="139" workbookViewId="0">
-      <selection activeCell="E265" sqref="E265"/>
+    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="139" workbookViewId="0">
+      <selection activeCell="D276" sqref="D276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8899,6 +8919,23 @@
         <v>652</v>
       </c>
     </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E276" t="s">
+        <v>1095</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/Localization.xlsx
+++ b/template/Localization.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyan/Projects/Dunkleosteus/template/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +14,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1409,10 +1404,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LKPostion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Position</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2380,17 +2371,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LKScorpiusInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天蝎座位于天秤座与人马座之间，为黄道十二宫第八星座。希腊神话中，天蝎座是赫拉克勒斯在山涧中杀死的一只大毒蝎子。还有神话故事提到，猎人俄里翁过于傲慢，夸口说天下没有一个动物是他的对手，天后赫拉就派毒蝎子咬伤了他的脚，使他中毒而死。所以它们到了天上以后也互相为敌，远居天空的两边，每当天蝎座从东方地平线上升起时，猎户俄里翁便从西方匆匆离去。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天蠍座位於天秤座與人馬座之間，為黃道十二宮第八星座。希臘神話中，天蠍座是赫拉克勒斯在山澗中殺死的壹只大毒蠍子。還有神話故事提到，獵人俄裏翁過於傲慢，誇口說天下沒有壹個動物是他的對手，天後赫拉就派毒蠍子咬傷了他的腳，使他中毒而死。所以它們到了天上以後也互相為敵，遠居天空的兩邊，每當天蠍座從東方地平線上升起時，獵戶俄裏翁便從西方匆匆離去。</t>
-  </si>
-  <si>
     <t>さそり座</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2408,10 +2392,6 @@
   </si>
   <si>
     <t>や座のギリシャ神話は、毎日鷲(わし座)に肝臓をついばまれているプロメーテウスを見たヘーラクレース(ヘルクレス座)が、鷲を殺した矢であるとした。ゲルマニクスは、ゼウスをガニュメーデースに夢中にさせた、愛の神エロースの矢であるとした。エロースの矢は、当たった者を恋の虜にさせる力があるという。</t>
-  </si>
-  <si>
-    <t>天箭座是全天第三小的星座。傳說普羅米修斯從天界盜火授人，觸怒主神宙斯，遂把他以鎖鏈綁於高加索山懸崖上，每天都派壹只鷹來啄食他的肝臟，又讓他的肝臟重新愈合，天天如是。直至赫拉克勒斯用箭射死那頭鷹，將普羅米修斯釋放。也有神話故事提到，它是小愛神邱比特的箭，或是人馬座射向天蠍座的箭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>天箭座是全天第三小的星座。传说普罗米修斯从天界盗火授人，触怒主神宙斯，遂把他以锁链绑于高加索山悬崖上，每天都派一只鹰来啄食他的肝脏，又让他的肝脏重新愈合，天天如是。直至赫拉克勒斯用箭射死那头鹰，将普罗米修斯释放。也有神话故事提到，它是小爱神邱比特的箭，或是人马座射向天蝎座的箭。</t>
@@ -2430,9 +2410,6 @@
     <t>水瓶座的形像是一个持着瓶子在斟酒的美少年伽倪墨得斯，据说他是特洛伊的王子。有一天，他替父亲看羊时，宙斯在天空经过，一见伽倪墨得斯即对他迷恋，就变身成一只老鹰掳走掳走伽倪墨得斯到奥林匹斯山，而伽倪墨得斯从此成为宙斯身旁的倒酒僮。也有说法称宝瓶座为雅典创立者刻克罗普斯（Cecrops），他曾以水对诸神作出献祭。</t>
   </si>
   <si>
-    <t>水瓶座的形像是壹個持著瓶子在斟酒的美少年伽倪墨得斯，據說他是特洛伊的王子。有壹天，他替父親看羊時，宙斯在天空經過，壹見伽倪墨得斯即對他迷戀，就變身成壹只老鷹擄走擄走伽倪墨得斯到奧林匹斯山，而伽倪墨得斯從此成為宙斯身旁的倒酒童。也有說法稱寶瓶座為雅典創立者刻克羅普斯（Cecrops），他曾以水對諸神作出獻祭。</t>
-  </si>
-  <si>
     <t>メソポタミアではアッカドの英雄とエンキが結びついたグラ（Gulla、偉大なるもの）が原型と考えられている。ギリシア神話では、ガニュメーデース（わし座を参照）の持つ水がめであるとされる。星図には、水を流す水がめとそれを持つ男性の姿として描かれ、流れ出した水はみなみのうお座の口に注ぎ込んでいる</t>
   </si>
   <si>
@@ -2446,9 +2423,6 @@
     <t>国王阿塔玛斯和妻子涅斐勒有一段不愉快的婚姻，于是另娶底比斯国王卡德摩斯之女伊诺为妻，可是伊诺虐待阿塔玛斯的孩子弗里克索斯。涅斐勒差遣金羊克律索马罗斯救弗里克索斯，弗里克索斯逃脱并带着妹妹赫勒骑上羊身飞向东面的科尔基斯，弗里克索斯把金羊送给科尔基斯国王埃厄忒斯，埃厄忒斯也礼尚往来把女儿卡尔基奥佩赐予弗里克索斯。后来宙斯将金羊提升到天上，便成为了白羊星座。</t>
   </si>
   <si>
-    <t>國王阿塔瑪斯和妻子涅斐勒有壹段不愉快的婚姻，於是另娶底比斯國王卡德摩斯之女伊諾為妻，可是伊諾虐待阿塔瑪斯的孩子弗裏克索斯。涅斐勒差遣金羊克律索馬羅斯救弗裏克索斯，弗裏克索斯逃脫並帶著妹妹赫勒騎上羊身飛向東面的科爾基斯，弗裏克索斯把金羊送給科爾基斯國王埃厄忒斯，埃厄忒斯也禮尚往來把女兒卡爾基奧佩賜予弗裏克索斯。後來宙斯將金羊提升到天上，便成為了白羊星座。</t>
-  </si>
-  <si>
     <t>ギリシア神話によると、ボイオティア王アタマスの息子プリクソスと双子の妹ヘレが、継母イノの悪巧みによって生贄にされそうになったときに、ゼウスが遣わして二人を乗せて逃げた金の皮を持つ羊だという。プリクソスは逃亡先のコルキスでこの羊を生贄に捧げ、皮を当地の王アイエテスに贈った。（現代の観点からすると恩知らずな行為に見えるが、古代においては神の遣わした獣は生贄として神に返す風習だった）</t>
   </si>
   <si>
@@ -2462,9 +2436,6 @@
     <t>巨蟹座位于双子座和狮子座之间, 北方是天猫座、南面则是小犬座和长蛇座。在希腊神话中，当宙斯的私生子海格力斯迎战勒拿湖的九头大蛇（长蛇座）时，海格力斯的死敌赫拉派出巨蟹从沼泽窜出并偷偷攻击海格力斯的脚，海格力斯一怒之下将其踩成碎片，事后赫拉拾起巨蟹，升上天空，成为巨蟹座。</t>
   </si>
   <si>
-    <t>巨蟹座位於雙子座和獅子座之間, 北方是天貓座、南面則是小犬座和長蛇座。在希臘神話中，當宙斯的私生子海格力斯迎戰勒拿湖的九頭大蛇（長蛇座）時，海格力斯的死敵赫拉派出巨蟹從沼澤竄出並偷偷攻擊海格力斯的腳，海格力斯壹怒之下將其踩成碎片，事後赫拉拾起巨蟹，升上天空，成為巨蟹座。</t>
-  </si>
-  <si>
     <t>In Greek mythology, Cancer is identified with the crab that appeared while Hercules was fighting the many-headed Hydra. The crab bit Hercules on the foot, Hercules crushed it and then the goddess Hera, a sworn enemy of Hercules, placed the crab among the stars.</t>
   </si>
   <si>
@@ -2479,9 +2450,6 @@
     <t>希腊神话中，有位有着山羊角、羊蹄和山羊胡子的神潘恩。有一次潘恩在尼罗河畔参加诸神的宴会，并在宴会上为诸神演奏，不料演奏中，他的笛声居然将上古时代的怪物给引来了。此时诸神纷纷化身逃走，而潘恩在慌张中跳入尼罗河中，想化身为鱼逃走，不过实在是太匆忙了，以致于变身并不完全，结果泡在水中的下半身变成了鱼尾巴，而上半身仍维持原有的山羊模样。宙斯在天界看到之后，便将这半羊半鱼的样子化做天上的星座。</t>
   </si>
   <si>
-    <t>希臘神話中，有位有著山羊角、羊蹄和山羊胡子的神潘恩。有壹次潘恩在尼羅河畔參加諸神的宴會，並在宴會上為諸神演奏，不料演奏中，他的笛聲居然將上古時代的怪物給引來了。此時諸神紛紛化身逃走，而潘恩在慌張中跳入尼羅河中，想化身為魚逃走，不過實在是太匆忙了，以致於變身並不完全，結果泡在水中的下半身變成了魚尾巴，而上半身仍維持原有的山羊模樣。宙斯在天界看到之後，便將這半羊半魚的樣子化做天上的星座。</t>
-  </si>
-  <si>
     <t>In Greek mythology, Capricornus is sometimes identified as Amalthea, the goat that suckled the infant Zeus after his mother, Rhea, saved him from being devoured by his father, Cronos. The goat's broken horn was transformed into the cornucopia or horn of plenty. Capricornus is also sometimes identified as Pan, the god with a goat's head, who saved himself from the monster Typhon by giving himself a fish's tail and diving into a river.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2496,9 +2464,6 @@
     <t>双子座代表的是希腊神话中的天神宙斯与斯巴达王后勒达所生的孪生子卡斯托耳和波鲁克斯（合称狄俄斯库里兄弟），两人一生充满无数的英雄壮举。但他们因和伊达斯和林叩斯分配战利品时产生矛盾，互相反目成仇并开始决斗，结果林叩斯被卡斯托耳杀死，卡斯托耳被伊达斯杀死，伊达斯又被波鲁克斯杀死。波鲁克斯向宙斯哀求如果能让卡斯托耳复活，他宁愿放弃自己的不死之身。宙斯将他们提升到天界，成为双子座。</t>
   </si>
   <si>
-    <t>雙子座代表的是希臘神話中的天神宙斯與斯巴達王後勒達所生的孿生子卡斯托耳和波魯克斯（合稱狄俄斯庫裏兄弟），兩人壹生充滿無數的英雄壯舉。但他們因和伊達斯和林叩斯分配戰利品時產生矛盾，互相反目成仇並開始決鬥，結果林叩斯被卡斯托耳殺死，卡斯托耳被伊達斯殺死，伊達斯又被波魯克斯殺死。波魯克斯向宙斯哀求如果能讓卡斯托耳復活，他寧願放棄自己的不死之身。宙斯將他們提升到天界，成為雙子座。</t>
-  </si>
-  <si>
     <t>In Greek mythology, Gemini was associated with the myth of Castor and Pollux, the children of Leda and Argonauts both. Castor and Pollux were also mythologically associated with St. Elmo's fire in their role as the protectors of sailors. When Castor died, because he was mortal, Pollux begged his father Zeus to give Castor immortality, and he did, by uniting them together in the heavens.</t>
   </si>
   <si>
@@ -2513,9 +2478,6 @@
     <t>希腊神话中，赫拉克勒斯在十二年中完成了十二项英勇业绩，其中有一项任务就是要杀死涅墨亚狮子。涅墨亚狮子是半人半蛇的妖怪厄喀德娜生下的，到处吞食生灵。并且刀枪不入。于是赫拉克勒斯和狮子肉搏，最后徒手将那狮子给活活掐死。之后赫拉克勒斯将狮子的皮剥下，狮头戴在头上作为头盔，狮皮则披在身上作为盔甲。后来宙斯为纪念赫拉克勒斯的丰功伟绩，将被他杀死的涅墨亚狮子升到空中，变成了狮子座。</t>
   </si>
   <si>
-    <t>希臘神話中，赫拉克勒斯在十二年中完成了十二項英勇業績，其中有壹項任務就是要殺死涅墨亞獅子。涅墨亞獅子是半人半蛇的妖怪厄喀德娜生下的，到處吞食生靈。並且刀槍不入。於是赫拉克勒斯和獅子肉搏，最後徒手將那獅子給活活掐死。之後赫拉克勒斯將獅子的皮剝下，獅頭戴在頭上作為頭盔，獅皮則披在身上作為盔甲。後來宙斯為紀念赫拉克勒斯的豐功偉績，將被他殺死的涅墨亞獅子升到空中，變成了獅子座。</t>
-  </si>
-  <si>
     <t>In Greek mythology, Leo was identified as the Nemean Lion which was killed by Heracles during the first of his twelve labours.The Nemean Lion was impervious to any weaponry. Hercules realized that he must defeat the Lion with his bare hands, Hercules slipped into the Lion's cave and engaged it at close quarters. Zeus commemorated this labor by placing the Lion in the sky.</t>
   </si>
   <si>
@@ -2533,9 +2495,6 @@
     <t>天秤座是希腊神话中的正义女神阿斯特莉亚在为人类所做善恶裁判时所用的天平，阿斯特莉亚一只手持天平，一只手握斩除邪恶的剑。为求公正，所以眼睛皆蒙著。从前的众神和人类是和平共处于大地上，然而那时的人好争斗，恶业横行，众神在对人类失望之余回到天上。只有阿斯特莉亚女神舍不得回去而留在世界上，教人为善。尽管如此，人类仍继续堕落。最后连阿斯特莉亚也放弃人类而回到天上。而天空就高挂着钟爱正义和平公正的天秤座。</t>
   </si>
   <si>
-    <t>天秤座是希臘神話中的正義女神阿斯特莉亞在為人類所做善惡裁判時所用的天平，阿斯特莉亞壹只手持天平，壹只手握斬除邪惡的劍。為求公正，所以眼睛皆蒙著。從前的眾神和人類是和平共處於大地上，然而那時的人好爭鬥，惡業橫行，眾神在對人類失望之余回到天上。只有阿斯特莉亞女神舍不得回去而留在世界上，教人為善。盡管如此，人類仍繼續墮落。最後連阿斯特莉亞也放棄人類而回到天上。而天空就高掛著鐘愛正義和平公正的天秤座。</t>
-  </si>
-  <si>
     <t>Libra is a constellation not mentioned by Eudoxus or Aratus. Libra is mentioned by Manetho (3rd century B.C.) and Geminus (1st century B.C.), and included by Ptolemy in his 48 asterisms. Ptolemy catalogued 17 stars, Tycho Brahe 10, and Johannes Hevelius 20. It only became a constellation in ancient Rome, when it began to represent the scales held by Astraea, the goddess of justice, associated with Virgo.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2550,9 +2509,6 @@
     <t>在希腊神话中，阿斯克勒庇俄斯是人马喀戎的学生。喀戎将自己掌握的医学知识毫无保留的传授给他。这激怒了冥王哈得斯，于是在阿斯克勒庇俄斯使俄里翁复苏时（参见猎户座神话），让宙斯用雷劈死了阿斯克勒庇俄斯和俄里翁。由于阿斯克勒庇俄斯是著名的医者，手中拥有阿斯克勒庇俄斯之杖，杖上卷有一条灵蛇，以其蜕皮重生象征医学的治疗概念，因此阿斯克勒庇俄斯死后宙斯将其变为蛇夫座。</t>
   </si>
   <si>
-    <t>在希臘神話中，阿斯克勒庇俄斯是人馬喀戎的學生。喀戎將自己掌握的醫學知識毫無保留的傳授給他。這激怒了冥王哈得斯，於是在阿斯克勒庇俄斯使俄裏翁復蘇時（參見獵戶座神話），讓宙斯用雷劈死了阿斯克勒庇俄斯和俄裏翁。由於阿斯克勒庇俄斯是著名的醫者，手中擁有阿斯克勒庇俄斯之杖，杖上卷有壹條靈蛇，以其蛻皮重生象征醫學的治療概念，因此阿斯克勒庇俄斯死後宙斯將其變為蛇夫座。</t>
-  </si>
-  <si>
     <t>Ophiuchus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2571,9 +2527,6 @@
     <t>希腊神话中双鱼座代表的是阿佛洛狄忒和厄洛斯在水中的化身。阿佛洛狄忒为了逃避大地女神盖亚之子巨神提丰攻击而变成鱼躲在尼罗河（一说幼发拉底河）。之后她发现忘记带上自己的儿子厄洛斯一起逃走，于是又上岸找到厄洛斯。为防止与儿子失散，她将两人脚绑在一起，随后两人化为鱼形，潜进河中。事后宙斯将阿佛洛狄忒首先化身的鱼提升到空中成为南鱼座，而她和厄洛斯化身的绑在一起的两条鱼则称为双鱼座。</t>
   </si>
   <si>
-    <t>希臘神話中雙魚座代表的是阿佛洛狄忒和厄洛斯在水中的化身。阿佛洛狄忒為了逃避大地女神蓋亞之子巨神提豐攻擊而變成魚躲在尼羅河（壹說幼發拉底河）。之後她發現忘記帶上自己的兒子厄洛斯壹起逃走，於是又上岸找到厄洛斯。為防止與兒子失散，她將兩人腳綁在壹起，隨後兩人化為魚形，潛進河中。事後宙斯將阿佛洛狄忒首先化身的魚提升到空中成為南魚座，而她和厄洛斯化身的綁在壹起的兩條魚則稱為雙魚座。</t>
-  </si>
-  <si>
     <t>Pisces is associated with Aphrodite and Eros, who escaped from the monster Typhon by leaping into the sea and transforming themselves into fish. In order not to lose each other, they tied themselves together with rope. The Romans adopted the Greek legend, with Venus and Cupid acting as the counterparts for Aphrodite and Eros.</t>
   </si>
   <si>
@@ -2641,9 +2594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>傳說，宙斯垂涎卡莉斯托的美色，對其施暴，後來卡莉斯托誕下兒子Arcas，宙斯之妻赫拉要懲罰卡莉斯托勾搭其夫，扠著卡莉斯托之頸按她在地，把她變為壹只黑熊。十五年來卡莉斯托壹直隱居森林，有壹天，她重遇兒子Arcas，可是Arcas並不知道眼前的黑熊就是其生母，準備舉矛自衛。電光火石間，宙斯以壹陣旋風卷他們上天，卡莉斯托變成大熊座，而Arcas則變成牧夫座。</t>
-  </si>
-  <si>
     <t>一説には、ギリシア神話に登場する天を支える巨人アトラスであるという。また別の説では、ディオニューソスからブドウとブドウ酒の製法を教わったアッティカの王イーカリオスであるという。その他、兄弟によって財産を奪われて追放され、世界中をさまよった男という説もある。この男は2頭の雄牛でひく鋤を発明したと伝わっている。メソポタミア文明以前の羊飼いが考案した現存する最古の星座だという説もある。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2656,10 +2606,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鹿豹座，是北天球壹大片昏暗的星群，1612年（或1613年）始由普朗修斯（Plancius）定義星座。因這個天區沒有高於四等的光星，因此壹直被希臘人所忽略。1613年（或1613年），荷籍神學家Petrus Plancius以駱駝代表此天區，它是聖經中利百加進入迦南地嫁予以撒的座騎。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鹿豹座，是北天球一大片昏暗的星群，1612年（或1613年）始由普朗修斯（Plancius）定义星座。因这个天区没有高于四等的光星，因此一直被希腊人所忽略。1613年（或1613年），荷籍神学家Petrus Plancius以骆驼代表此天区，它是圣经中利百加进入迦南地嫁予以撒的座骑。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2677,9 +2623,6 @@
     <t>猎犬座是北天的一个小星座，17世纪由波兰天文学家波兰天学家约翰·赫维留（Johannes Hevelius）创立。在古代希腊文献中，猎犬座的星被描绘为牧夫扛的棒子。后来被阿拉伯人翻译为钩子，或牧人的带钩牧杖。再翻译到西欧文字误成了狗，最终被赫维留定成一个独立的星座。猎犬座包含中国古代的星座“常陈”。《晋书·天文志》记载：“常陈七星如毕状，在帝座北，天子宿卫武贲之士，以设疆御。”</t>
   </si>
   <si>
-    <t>獵犬座是北天的壹個小星座，17世紀由波蘭天文學家波蘭天學家約翰·赫維留（Johannes Hevelius）創立。在古代希臘文獻中，獵犬座的星被描繪為牧夫扛的棒子。後來被阿拉伯人翻譯為鉤子，或牧人的帶鉤牧杖。再翻譯到西歐文字誤成了狗，最終被赫維留定成壹個獨立的星座。獵犬座包含中國古代的星座“常陳”。《晉書·天文誌》記載：“常陳七星如畢狀，在帝座北，天子宿衛武賁之士，以設疆禦。”</t>
-  </si>
-  <si>
     <t>Canes Venatici is one of the 88 official modern constellations. It is a small northern constellation that was created by Johannes Hevelius in the 17th century. Its name is Latin for "hunting dogs", and the constellation is often depicted in illustrations as representing the dogs of Boötes the Herdsman, a neighboring constellation.</t>
   </si>
   <si>
@@ -2694,10 +2637,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>壹般認為后發座是由第谷·布拉赫在他1602年的星表中最先提出，1603年出現在拜耳命名法中。傳說，歷史上的貝勒尼基二世是古代昔蘭尼的公主，埃及法老托勒密三世的王後。約在公元前243年的時候，托勒密三世遠征敘利亞。她向神祈禱保佑丈夫平安歸來，把頭發剪下來奉獻在女神阿佛羅狄忒的神廟。傳說第二天，她的頭發不見了。宮廷裏的人說是被女神攝到了天上，成為后發座。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Berenice legendarily swore to the goddess Aphrodite to sacrifice her long hair, if her husband returned safely from a battle during the Third Syrian War. After Ptolemy's safe return to Alexandria, she cut her hair and placed it in the Aphrodite's temple at Zephyrium. By the next morning the hair had disappeared. Conon proposed that Aphrodite had interceded to place the hair in the sky as an acknowledgement of Berenice's sacrifice.</t>
   </si>
   <si>
@@ -2740,9 +2679,6 @@
     <t>小狮座是一个比较暗淡的星座，位于大熊座和狮子座之间的三角形地带。在1687年为约翰·赫维留所创立。没有对应的古代神话。不含著名的深空天体。最亮的一个是NGC 3003，为视星等11.7的星系，大小为5.9角分，侧对地球。</t>
   </si>
   <si>
-    <t>小獅座是壹個比較暗淡的星座，位於大熊座和獅子座之間的三角形地帶。在1687年為約翰·赫維留所創立。沒有對應的古代神話。不含著名的深空天體。最亮的壹個是NGC 3003，為視星等11.7的星系，大小為5.9角分，側對地球。</t>
-  </si>
-  <si>
     <t>Leo Minor is a small and faint constellation in the northern celestial hemisphere. Its name is Latin for "the smaller lion", in contrast to Leo, the larger lion. It lies between the larger and more recognizable Ursa Major to the north and Leo to the south. it was designated by Johannes Hevelius in 1687.</t>
   </si>
   <si>
@@ -2757,9 +2693,6 @@
     <t>天猫是指阿耳戈船英雄之一的林叩斯，林叩斯拥有世界上最敏锐的视力，甚至能看到阴间之物，视力如夜猫。林叩斯和兄弟伊达斯为了两个女子，而和狄俄斯库里兄弟，卡斯托耳和波吕丢刻斯起哄，伊达斯杀死卡斯托耳，波吕丢刻斯杀死林叩斯，当伊达斯攻击波吕丢刻斯时，被后者的父亲——宙斯以雷电劈死。</t>
   </si>
   <si>
-    <t>天貓是指阿耳戈船英雄之壹的林叩斯，林叩斯擁有世界上最敏銳的視力，甚至能看到陰間之物，視力如夜貓。林叩斯和兄弟伊達斯為了兩個女子，而和狄俄斯庫裏兄弟，卡斯托耳和波呂丟刻斯起哄，伊達斯殺死卡斯托耳，波呂丟刻斯殺死林叩斯，當伊達斯攻擊波呂丟刻斯時，被後者的父親——宙斯以雷電劈死。</t>
-  </si>
-  <si>
     <t>Polish astronomer Johannes Hevelius formed the constellation in the 17th century from 19 faint stars that he observed with the unaided eye between the constellations Ursa Major and Auriga. Naming it Lynx because of its faintness, he challenged future stargazers to see it, declaring that only the lynx-eyed would have been able to recognize it.</t>
   </si>
   <si>
@@ -2773,9 +2706,6 @@
     <t>这个星座拥有全天最显著的星象，即北斗七星。许多古代文明都认为这个星座的星象是一只熊。在希腊神话中，宙斯为了使美丽的仙女卡利斯托逃脱天后赫拉的忌妒，把她变成了一只熊。但赫拉仍然穷追不舍，命令狩猎女神阿耳忒弥斯射杀这只熊，宙斯不得已把大熊提升为天上的星座。</t>
   </si>
   <si>
-    <t>這個星座擁有全天最顯著的星象，即北鬥七星。許多古代文明都認為這個星座的星象是壹只熊。在希臘神話中，宙斯為了使美麗的仙女卡利斯托逃脫天後赫拉的忌妒，把她變成了壹只熊。但赫拉仍然窮追不舍，命令狩獵女神阿耳忒彌斯射殺這只熊，宙斯不得已把大熊提升為天上的星座。</t>
-  </si>
-  <si>
     <t xml:space="preserve">In Roman mythology, Jupiter lusts after a young woman named Callisto, a nymph of Diana. Juno, Jupiter's jealous wife, discovers that Callisto has a son named Arcas, and believes it is by Jupiter. Juno then transforms the beautiful Callisto into a bear so she no longer attracts Jupiter. </t>
   </si>
   <si>
@@ -2793,10 +2723,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>托勒密本稱船尾座、船帆座及船底座為同壹星座，叫做南船座。在十八世紀，天文學家認為南船座所占之天區過大，故將其拆開。南船座即阿格號，故事中伊阿宋帶著五十個人乘阿格號到位於黑海的科爾基斯找金羊毛。經過幾番波折進入黑海後，伊阿宋偷去金羊毛回到希臘，把阿格號泊於科林斯，算是對海神波塞冬的壹種感謝。在星圖上，我們只能見到阿格號的船尾，船頭被濃霧所覆蓋，或是被撞巖所遮掩。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1756年出版の、フランス科学アカデミーの1752年版『紀要』に収められたニコラ・ルイ・ド・ラカーユの星表の中で、アルゴ座の一部分の名称として Corps du Navire (船体) と書かれたのが始まりである。ラカーユ死後の1763年に出版された星表とされた。アルゴ座はあまりに巨大すぎたため、1922年に国際天文学連合が現在の88星座を定めた際に3つに分割された。りゅうこつ座は、このアルゴー船の「竜骨」の部分に相当する。</t>
   </si>
   <si>
@@ -2811,9 +2737,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>把小熊座中的七顆亮星連接起來，能構成與大熊座的北鬥七星相類似的壹個鬥型，因此這七顆星也被稱作小北鬥。在鬥柄開始處是小熊座α，它是目前的北極星，指示著北天極。</t>
-  </si>
-  <si>
     <t>紀元前6世紀の古代ギリシアの天文学者タレスが設定した星座だとされるが、これ以前に船乗りたちが方位を見つけるためにこの星座を使っていたのは確かである。</t>
   </si>
   <si>
@@ -2824,10 +2747,6 @@
     <t>天鸽座为南天星座之一。在天兔座之南，雕具座和船尾座之间。这个小星座像一只鸽子, 天文学家普朗修斯给它取了现在的名字, 尽管这个星座位于南天, 在北半球中纬度地区, 1月和2月在天刚黑的时刻, 还是可以看见它的。</t>
   </si>
   <si>
-    <t>天鴿座為南天星座之一。在天兔座之南，雕具座和船尾座之間。這個小星座像壹只鴿子, 天文學家普朗修斯給它取了現在的名字, 盡管這個星座位於南天, 在北半球中緯度地區, 1月和2月在天剛黑的時刻, 還是可以看見它的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Plancius originally named the constellation Columba Noachi ("Noah's Dove"), referring to the dove that gave Noah the information that the Great Flood was receding. This name is found on early 17th-century celestial globes and star atlases. </t>
   </si>
   <si>
@@ -2841,9 +2760,6 @@
     <t>希腊神话中，海神波塞冬欲娶海仙女安菲特里忒为妻，然而，为保贞洁，安菲特里忒逃至阿特拉斯山脉。于是，波塞冬便派人寻找她的下落，其中一只海豚偶然发现安菲特里忒，并打动她接受海塞冬的求婚。为答谢海豚的功劳，海豚就成了天上的海豚座。</t>
   </si>
   <si>
-    <t>希臘神話中，海神波塞冬欲娶海仙女安菲特裏忒為妻，然而，為保貞潔，安菲特裏忒逃至阿特拉斯山脈。於是，波塞冬便派人尋找她的下落，其中壹只海豚偶然發現安菲特裏忒，並打動她接受海塞冬的求婚。為答謝海豚的功勞，海豚就成了天上的海豚座。</t>
-  </si>
-  <si>
     <t>Poseidon wanted to marry Amphitrite, a beautiful nereid. She, however, wanting to protect her virginity, fled to the Atlas mountains. Her suitor then sent out several searchers, among them a Delphinus. Delphinus accidentally stumbled upon her and was able to persuade Amphitrite to accept Poseidon's wooing. Out of gratitude the god placed the image of a dolphin among the stars.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2858,9 +2774,6 @@
     <t>小马座位于飞马座西南，宝瓶座之北，是托勒密星座中最小的一个，没有亮于3等的恒星，所以在夜空中寻找到它有点困难。半人马喀戎之女希波受杜卡利翁之曾孙埃俄洛斯引诱，后来希波有了埃俄洛斯的身孕，逃到山中匿藏诞下墨拉尼佩，孩子刚出生时，喀戎却在到处找希波，希波要求神将自己变成母驴免被其父发现，女神阿耳忒弥斯成全她并将希波之映像置于天际，只露出其马头，免被其父喀戎发觉。</t>
   </si>
   <si>
-    <t>小馬座位於飛馬座西南，寶瓶座之北，是托勒密星座中最小的壹個，沒有亮於3等的恒星，所以在夜空中尋找到它有點困難。半人馬喀戎之女希波受杜卡利翁之曾孫埃俄洛斯引誘，後來希波有了埃俄洛斯的身孕，逃到山中匿藏誕下墨拉尼佩，孩子剛出生時，喀戎卻在到處找希波，希波要求神將自己變成母驢免被其父發現，女神阿耳忒彌斯成全她並將希波之映像置於天際，只露出其馬頭，免被其父喀戎發覺。</t>
-  </si>
-  <si>
     <t xml:space="preserve">In Greek mythology, one myth associates Equuleus with the foal Celeris, who was the offspring or brother of the winged horse Pegasus. Celeris was given to Castor by Mercury. Other myths say that Equuleus is the horse struck from Poseidon's trident, during the contest between him and Athena when deciding which would be the superior. </t>
   </si>
   <si>
@@ -2880,9 +2793,6 @@
     <t>According to one theory, the Greek constellation takes its name from the Babylonian constellation known as the Star of Eridu (MUL.NUN.KI). Eridu was an ancient city in the extreme south of Babylonia; situated in the marshy regions it was held sacred to the god Enki-Ea who ruled the cosmic domain of the Abyss - a mythical conception of the fresh-water reservoir below the Earth's surface.</t>
   </si>
   <si>
-    <t>波江座是現代88星座，也是托勒密48星座之壹。包含中國古代星座：天苑，九州殊口，天園，九遊 ，玉井和水委。壹說是寶瓶座流出來的水。另壹說和太陽神阿波羅的兒子法厄同有關。波江座被認為是他駕駛太陽車的軌跡，或被宙斯擊死後落入的陰間河流。</t>
-  </si>
-  <si>
     <t>LKPiscisAustrinusInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2893,9 +2803,6 @@
     <t>In Greek mythology, this constellation is known as the Great Fish and it is portrayed as swallowing the water being poured out by Aquarius, the water-bearer constellation. The two fish of the constellation Pisces are said to be the offspring of the Great Fish. In Egyptian mythology, this fish saved the life of the Egyptian goddess Isis, so she placed this fish and its descendants into the heavens as constellations of stars.</t>
   </si>
   <si>
-    <t>南魚座是88個現代星座，48個托勒密星座中的壹員。首要並且是唯壹的亮星是南魚座α星是顆藍白色的巨星，距離地球25光年。在希臘神話中，南魚座是美神阿佛洛狄忒的化身，她為了逃避大地女神蓋亞之子巨神提豐的攻擊而變成魚躲在尼羅河裏（壹說是幼發拉底河）。之後她發現忘記帶上自己的兒子厄洛斯，於是又上岸找到厄羅斯，為防止與兒子失散，她將兩人腳綁在壹起，化為魚形，潛進河中。事後宙斯將阿佛洛狄忒首先化身的魚提升到空中成為南魚座，而之後她和厄羅斯化身的雙魚則稱為雙魚座。</t>
-  </si>
-  <si>
     <t>みなみのうお座（南の魚座、Piscis Austrinus）は、トレミーの48星座の1つ。星座の先端にあるα星は、全天21の1等星の1つであり、フォーマルハウトと呼ばれる。この星以外には明るい星はない。ギリシア神話によれば、神々がナイル川沿いで宴会を開いていたところ、突然、怪物テュポンが現れ、驚いた神々は動物に姿を変えて逃げた。愛の女神アプロディテが魚の形になって逃げたものとされる。また、うお座の魚の親魚だともいう。</t>
   </si>
   <si>
@@ -2920,9 +2827,6 @@
     <t>らしんばん座（羅針盤座）は、南天の星座の1つ。らしんばん座は、1756年にニコラ・ルイ・ド・ラカーユによって新たに設定された。らしんばん座が設定された領域の近くにはギリシア神話に登場するアルゴー船をかたどったアルゴ座が存在したが、ラカーユはアルゴ座の領域を改めて定める。とともに、ヨハン・バイエルがバイエル符号を付けていなかった領域にらしんばん座を定め、新たに符号を設定した。</t>
   </si>
   <si>
-    <t>羅盤座是在南天的壹個小且暗淡的星座。它的名稱源自拉丁文的水手的指南針。羅盤座是尼可拉·路易·拉卡伊在18世紀首度介紹的，它稱之為船用羅盤（Pyxis Nautica），但是後來名稱被縮短了。這個星座的位置靠近古老的南船座（阿戈爾號），天文學家約翰·赫歇爾在19世紀建議重新命名為船桅座，但是沒有被接受。</t>
-  </si>
-  <si>
     <t>LKAntliaInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2930,9 +2834,6 @@
     <t>法国天文学家尼可拉·路易·拉卡伊在1751年至52年间最早使用法语“la Machine Pneumatique”（气动泵）一词来描述这个星座，用意是纪念法国物理学家丹尼斯·帕潘所发明的气泵。英国天文学家约翰·赫歇尔于1844年提出将二字的拉丁文名称缩减成一字，并指出拉卡伊本人有时也会使用自己星座的简称。这项提议获得了普遍采用。国际天文联会于1922年正式通过唧筒座成为现代88星座之一。</t>
   </si>
   <si>
-    <t>法國天文學家尼可拉·路易·拉卡伊在1751年至52年間最早使用法語“la Machine Pneumatique”（氣動泵）壹詞來描述這個星座，用意是紀念法國物理學家丹尼斯·帕潘所發明的氣泵。英國天文學家約翰·赫歇爾於1844年提出將二字的拉丁文名稱縮減成壹字，並指出拉卡伊本人有時也會使用自己星座的簡稱。這項提議獲得了普遍采用。國際天文聯會於1922年正式通過唧筒座成為現代88星座之壹。</t>
-  </si>
-  <si>
     <t>The French astronomer Nicolas-Louis de Lacaille first described the constellation in French as la Machine Pneumatique (the Pneumatic Pump) in 1751–52,commemorating the air pump invented by the French physicist Denis Papin. English astronomer John Herschel proposed shrinking the name to one word in 1844. This was universally adopted. The International Astronomical Union adopted it as one of the 88 modern constellations in 1922.</t>
   </si>
   <si>
@@ -2946,9 +2847,6 @@
     <t>雕具座最早由法国天文学家尼可拉·路易·拉卡伊于18世纪创立，他同时也创立了另外13个南天星座。拉卡伊用法语的“Burin”一词（意为雕刻刀）来为这星座命名，而最初拉丁化的名称为“Caelum Scalptorium”（意为雕刻者的凿子）。英国天文学家弗朗西斯·贝利也把二字的拉丁名缩减成一字。虽然雕具座在拉卡伊最初的星图中是以雕刻刀和刻版画用的雕刻针（échoppe）来表示，但后来变成只用凿子来代表。</t>
   </si>
   <si>
-    <t>雕具座最早由法國天文學家尼可拉·路易·拉卡伊於18世紀創立，他同時也創立了另外13個南天星座。拉卡伊用法語的“Burin”壹詞（意為雕刻刀）來為這星座命名，而最初拉丁化的名稱為“Caelum Scalptorium”（意為雕刻者的鑿子）。英國天文學家弗朗西斯·貝利也把二字的拉丁名縮減成壹字。雖然雕具座在拉卡伊最初的星圖中是以雕刻刀和刻版畫用的雕刻針（échoppe）來表示，但後來變成只用鑿子來代表。</t>
-  </si>
-  <si>
     <t>1756年に、ビュランとドライポイントに使うニードルをモチーフとして、ニコラ・ルイ・ド・ラカーユによって設定された。ラカーユは当初フランス語で les Burins 、後にラテン語化した Caelum Scalptorium と名付けていた。1844年にジョン・ハーシェルが名前を短縮することを提案し、それを受けたフランシス・ベイリーが1845年に発表した British Association Catalogueにおいて Caelum と記述、以降この呼び名が定着した。</t>
   </si>
   <si>
@@ -3003,9 +2901,6 @@
     <t>圆规座是一个南天星座，面积93.35平方度，占全天面积的0.226%，最亮星为圆规座α。每年4月30日子夜圆规座中心经过上中天。圆规座没有亮于2等的恒星，三颗主星组成一个呈折合的圆规形状。圆规座并没有对应神话故事，由法国天文学家拉卡伊于1763年所创，表示测量员用的圆规。</t>
   </si>
   <si>
-    <t>圓規座是壹個南天星座，面積93.35平方度，占全天面積的0.226%，最亮星為圓規座α。每年4月30日子夜圓規座中心經過上中天。圓規座沒有亮於2等的恒星，三顆主星組成壹個呈折合的圓規形狀。圓規座並沒有對應神話故事，由法國天文學家拉卡伊於1763年所創，表示測量員用的圓規。</t>
-  </si>
-  <si>
     <t>In 1756, French astronomer Nicolas-Louis de Lacaille introduced the constellation of Circinus with the French name le Compas, representing a pair of dividing compasses, on a chart of the southern sky. Circinus was given its current name in 1763, when Lacaille published an updated sky map with Latin names for the constellations he introduced.</t>
   </si>
   <si>
@@ -3015,9 +2910,6 @@
     <t>天炉座直到1752年才由法国天文学家拉卡伊对它进行了描述。这个星座没有星等超过+4的星，但实际上该星座却包含一个拥有多种天体的星系群。它位于波江座旁边，鲸鱼座南方，象征化学熔炉。使用8英寸(20厘米)或更大望远镜才能看见它。</t>
   </si>
   <si>
-    <t>天爐座直到1752年才由法國天文學家拉卡伊對它進行了描述。這個星座沒有星等超過+4的星，但實際上該星座卻包含壹個擁有多種天體的星系群。它位於波江座旁邊，鯨魚座南方，象征化學熔爐。使用8英寸(20厘米)或更大望遠鏡才能看見它。</t>
-  </si>
-  <si>
     <t>Fornax is a constellation in the southern sky. Its name is Latin for furnace. It was named by French astronomer Nicolas Louis de Lacaille in 1756. De Lacaille originally called the constellation "Fornax Chemica" (the chemical furnace), representing a small solid fuel vessel used for heating chemical experiments.</t>
   </si>
   <si>
@@ -3027,9 +2919,6 @@
     <t>时钟座是现代88星座之一，是位于南天的一个小星座（赤纬约-60度）。最早被拉卡伊命名为摆钟座，用来纪念摆钟的发明人惠更斯。时钟座在波江座之南，水蛇座和网罟座之间；由于创立于17世纪，没有相对应的神话；时钟座包含中国古代星座：近天园南。</t>
   </si>
   <si>
-    <t>時鐘座是現代88星座之壹，是位於南天的壹個小星座（赤緯約-60度）。最早被拉卡伊命名為擺鐘座，用來紀念擺鐘的發明人惠更斯。時鐘座在波江座之南，水蛇座和網罟座之間；由於創立於17世紀，沒有相對應的神話；時鐘座包含中國古代星座：近天園南。</t>
-  </si>
-  <si>
     <t>The French astronomer Nicolas Louis de Lacaille first described the constellation in French as l'Horloge à pendule &amp; à secondes in 1752, after he had observed and catalogued almost 10,000 southern stars during a two-year stay at the Cape of Good Hope. Lacaille Latinised the name to Horologium on his 1763 chart.</t>
   </si>
   <si>
@@ -3046,9 +2935,6 @@
     <t>显微镜座是南天半球中的一个星座，由拉卡伊于1752年确立的，它几乎没有显著的亮星，并且对小型望远镜，这里没有什么有趣的东西，它的名字是为了纪念16世纪末显微镜的发明。北半球中纬度地区在南方地平线晴朗的情况下，可以看见这个星座中的一个双星 - 显微镜座α。</t>
   </si>
   <si>
-    <t>顯微鏡座是南天半球中的壹個星座，由拉卡伊於1752年確立的，它幾乎沒有顯著的亮星，並且對小型望遠鏡，這裏沒有什麽有趣的東西，它的名字是為了紀念16世紀末顯微鏡的發明。北半球中緯度地區在南方地平線晴朗的情況下，可以看見這個星座中的壹個雙星 - 顯微鏡座α。</t>
-  </si>
-  <si>
     <t>Mensa is a small constellation in the Southern Celestial Hemisphere between Scorpius and Centaurus, one of twelve drawn up in the 18th century by French astronomer Nicolas Louis de Lacaille. Its name is Latin for table, though it originally depicted Table Mountain and was known as Mons Mensae.</t>
   </si>
   <si>
@@ -3064,9 +2950,6 @@
     <t>矩尺座（Norma，拉丁文：角尺）是一个小型而黯淡的南天星座，此星座是由拉卡伊在1751至1752年间在好望角观测时所创立的，后来在1763年编入《Coelum australe stelliferum》（南天星表）。拉卡伊原把此星座称作“Norma et Regula”（即角尺与直尺），象征木工的用具。十七世纪之前，在未有远航技术之前并无文明看见它，因此并无任何与之相关的神话记载。</t>
   </si>
   <si>
-    <t>矩尺座（Norma，拉丁文：角尺）是壹個小型而黯淡的南天星座，此星座是由拉卡伊在1751至1752年間在好望角觀測時所創立的，後來在1763年編入《Coelum australe stelliferum》（南天星表）。拉卡伊原把此星座稱作“Norma et Regula”（即角尺與直尺），象征木工的用具。十七世紀之前，在未有遠航技術之前並無文明看見它，因此並無任何與之相關的神話記載。</t>
-  </si>
-  <si>
     <t xml:space="preserve">Norma was introduced in 1751–52 by Nicolas Louis de Lacaille with the French name l’Equerre et la Regle, "the Square and Rule", after he had observed and catalogued 10,000 southern stars during a two-year stay at the Cape of Good Hope. He devised 14 new constellations in uncharted regions of the Southern Celestial Hemisphere not visible from Europe. </t>
   </si>
   <si>
@@ -3076,9 +2959,6 @@
     <t>南极座，本作八分仪座，是一个由法国天文学家拉卡伊（Nicolas Louis de Lacaille）所命名的南天星座，象征航海仪器八分仪。此星座缺乏亮星，并不明显。南极座令人注意的地方是这个天区包含了南天极。南极座σ是最接近南天极而肉眼可见的星，但这颗星太暗淡所以不足以用作导航的极星。幸而，南十字座的长轴指向南极，可作为天空中找寻南天极的参考。</t>
   </si>
   <si>
-    <t>南極座，本作八分儀座，是壹個由法國天文學家拉卡伊（Nicolas Louis de Lacaille）所命名的南天星座，象征航海儀器八分儀。此星座缺乏亮星，並不明顯。南極座令人註意的地方是這個天區包含了南天極。南極座σ是最接近南天極而肉眼可見的星，但這顆星太暗淡所以不足以用作導航的極星。幸而，南十字座的長軸指向南極，可作為天空中找尋南天極的參考。</t>
-  </si>
-  <si>
     <t>Octans is a faint constellation located in the deep southern sky. Its name is Latin for the eighth part of a circle, but it is named after the octant, a navigational instrument. The constellation was devised by French astronomer Nicolas Louis de Lacaille in 1752, and it remains one of the 88 modern constellations.</t>
   </si>
   <si>
@@ -3088,9 +2968,6 @@
     <t>绘架座是拉卡伊在1752年命名的星座之一。 组成这个南天小星座的恒星在地球上看都很黯淡，难于看到。对于只有小型望远镜或双筒望远镜的观察者来说，这个星座可能没有什么可以看见的有趣天体。</t>
   </si>
   <si>
-    <t>繪架座是拉卡伊在1752年命名的星座之壹。 組成這個南天小星座的恒星在地球上看都很黯淡，難於看到。對於只有小型望遠鏡或雙筒望遠鏡的觀察者來說，這個星座可能沒有什麽可以看見的有趣天體。</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pictor is a constellation in the Southern Celestial Hemisphere, located between the star Canopus and the Large Magellanic Cloud. Its name is Latin for painter, and is an abbreviation of the older name Equuleus Pictoris (the "painter's easel"). </t>
   </si>
   <si>
@@ -3100,9 +2977,6 @@
     <t>网罟座是法国天文学家拉卡伊创造的一个星座。它的名称是为了纪念在目镜中加上了精密观测用的网，即十字丝。这个很小的远南天星座最突出的特点是几个有趣的双星和相对明亮的星系。</t>
   </si>
   <si>
-    <t>網罟座是法國天文學家拉卡伊創造的壹個星座。它的名稱是為了紀念在目鏡中加上了精密觀測用的網，即十字絲。這個很小的遠南天星座最突出的特點是幾個有趣的雙星和相對明亮的星系。</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reticulum is a small, faint constellation in the southern sky. Its name is Latin for a small net, or reticle—a net of crosshairs at the focus of a telescope eyepiece that is used to measure star positions. </t>
   </si>
   <si>
@@ -3112,9 +2986,6 @@
     <t>玉夫座是由法国天文学家拉卡伊在南天创建的一个小星座，原来的名字是雕刻家的工作室，在拉丁化时被缩减成现在的名称。由于是在17世纪才新创的星座，因此没有相关的神话故事。</t>
   </si>
   <si>
-    <t>玉夫座是由法國天文學家拉卡伊在南天創建的壹個小星座，原來的名字是雕刻家的工作室，在拉丁化時被縮減成現在的名稱。由於是在17世紀才新創的星座，因此沒有相關的神話故事。</t>
-  </si>
-  <si>
     <t>ちょうこくしつ座（彫刻室座、Sculptor ）は、南天の星座の1つ。ニコラ・ルイ・ド・ラカーユによって18世紀に設定された。銀河南極がこの星座内にある。日本では、見ることができるが高度は低い。</t>
   </si>
   <si>
@@ -3125,9 +2996,6 @@
     <t>望远镜座是一个南天黄道带星座，位于人马座南方，象征有姣车支撑的大型望远镜。望远镜座是法国天文学家修道士拉卡伊于1751年-1752年在好望角观测南天星空时划分的一个小星座。因其位于南天，没有对应的神话传说。</t>
   </si>
   <si>
-    <t>望遠鏡座是壹個南天黃道帶星座，位於人馬座南方，象征有姣車支撐的大型望遠鏡。望遠鏡座是法國天文學家修道士拉卡伊於1751年-1752年在好望角觀測南天星空時劃分的壹個小星座。因其位於南天，沒有對應的神話傳說。</t>
-  </si>
-  <si>
     <t>Telescopium was introduced in 1751–52 by Nicolas-Louis de Lacaille with the French name le Telescope, depicting an aerial telescope. Covering 40 degrees of the night sky, the telescope stretched out northwards between Sagittarius and Scorpius. Lacaille had Latinised its name to Telescopium by 1763.</t>
   </si>
   <si>
@@ -3164,13 +3032,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蝘蜓座是南天深處的壹個很暗的星座，位於船底座和南極座之間。荷蘭探險家Pieter Dirkszoon Keyser和Frederick de Houtman所創，代表變色龍。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天燕座是南天星座之壹，在南三角座之南，緊接南極座。天燕座沒有神話，由Poeter Dirkszoon Keyser和Frederick de Houtman所創，為的是紀念新幾內亞的極樂鳥。</t>
-  </si>
-  <si>
     <t>Apus is a small constellation in the southern sky, first defined in the late 16th century. Its name means "no feet" in Greek, and it represents a bird-of-paradise, which was once wrongly believed to lack feet.</t>
   </si>
   <si>
@@ -3187,9 +3048,6 @@
     <t>剑鱼座（Dorado，西班牙语的鬼头刀鱼）是一个南天星座。它是荷兰航海家凯泽和豪特曼于1595至1597年间所命名的12个星座之一，于1603年被收录于巴耶的《测天图》内。象征海洋生物剑鱼。</t>
   </si>
   <si>
-    <t>劍魚座（Dorado，西班牙語的鬼頭刀魚）是壹個南天星座。它是荷蘭航海家凱澤和豪特曼於1595至1597年間所命名的12個星座之壹，於1603年被收錄於巴耶的《測天圖》內。象征海洋生物劍魚。</t>
-  </si>
-  <si>
     <t>Dorado is a constellation in the southern sky. Its name refers to the dolphinfish (Coryphaena hippurus), which is known as dorado in Portuguese, although it has also been depicted as a swordfish.</t>
   </si>
   <si>
@@ -3232,9 +3090,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>水蛇座是壹個遠離黃道的星座，位於大小麥哲倫星雲之間。大小麥哲倫星雲是地球所在的銀河系的伴星系，大小麥哲倫星雲都是不規則星系。16世紀，荷蘭航海家首先確認了這個星座，後來被收錄在拜爾1603年的星圖中。其中三顆最亮的星組成壹個三角。幾乎正指南天極的相反方向。</t>
-  </si>
-  <si>
     <t>Hydrus is a small constellation in the deep southern sky. It was first depicted on a celestial atlas by Johann Bayer in his 1603 Uranometria. Its name means "male water snake", as opposed to Hydra, a much larger constellation that represents a female water snake.</t>
   </si>
   <si>
@@ -3244,9 +3099,6 @@
     <t>印第安座是南天的一个星座，其代表物是美洲的印第安人。为Pieter Dirkszoon Keyser和Frederick de Houtman在1595-1597年巡航南半球，观测和创立的12星座之一，1603年首次出现在拜耳的《测天图》中。</t>
   </si>
   <si>
-    <t>印第安座是南天的壹個星座，其代表物是美洲的印第安人。為Pieter Dirkszoon Keyser和Frederick de Houtman在1595-1597年巡航南半球，觀測和創立的12星座之壹，1603年首次出現在拜耳的《測天圖》中。</t>
-  </si>
-  <si>
     <t>Indus is a constellation in the southern sky created in the late sixteenth century. The constellation was one of twelve created by Petrus Plancius from the observations of Pieter Dirkszoon Keyser and Frederick de Houtman.</t>
   </si>
   <si>
@@ -3256,9 +3108,6 @@
     <t>苍蝇座（拉丁语：Musca）是位于南天深空的一个小星座，远离黄道的南天，是荷兰天文学家皮特鲁斯·普兰修斯根据荷兰航海家彼得·德克·凯泽和弗雷德里克·德·豪特曼的天文观测结果创立的星座。它原来叫做Apis（蜜蜂座），直到18世纪经过拉卡伊之手它才演化为苍蝇座。在北半球，这个星座位于地平线以下。</t>
   </si>
   <si>
-    <t>蒼蠅座（拉丁語：Musca）是位於南天深空的壹個小星座，遠離黃道的南天，是荷蘭天文學家皮特魯斯·普蘭修斯根據荷蘭航海家彼得·德克·凱澤和弗雷德裏克·德·豪特曼的天文觀測結果創立的星座。它原來叫做Apis（蜜蜂座），直到18世紀經過拉卡伊之手它才演化為蒼蠅座。在北半球，這個星座位於地平線以下。</t>
-  </si>
-  <si>
     <t>Musca (Latin: fly) is a small constellation in the deep southern sky. It was one of twelve constellations created by Petrus Plancius. It was also known as Apis (Latin: bee) for two hundred years. Musca remains below the horizon for most Northern Hemisphere observers.</t>
   </si>
   <si>
@@ -3268,9 +3117,6 @@
     <t>孔雀座是南天星座之一，名字孔雀（Pavo）的来源是拉丁语“Peacock”一词。 它是由 Petrus Plancius 从荷兰人 Pieter Dirkszoon Keyser 和 Frederick de Houtman 的1595-1597年的观测资料中构想出来的12个星座之一。孔雀座与天鹤座，凤凰座和杜鹃座被合称为“南方的小鸟”。在澳大利亚，孔雀座的一部分也被称作“平底锅”。</t>
   </si>
   <si>
-    <t>孔雀座是南天星座之壹，名字孔雀（Pavo）的來源是拉丁語“Peacock”壹詞。 它是由 Petrus Plancius 從荷蘭人 Pieter Dirkszoon Keyser 和 Frederick de Houtman 的1595-1597年的觀測資料中構想出來的12個星座之壹。孔雀座與天鶴座，鳳凰座和杜鵑座被合稱為“南方的小鳥”。在澳大利亞，孔雀座的壹部分也被稱作“平底鍋”。</t>
-  </si>
-  <si>
     <t>くじゃく座（孔雀座、Pavo）は南天の星座の1つ。くじゃく座は16世紀以降に作られた新しい星座であり、神話はない。ペーテル・ケイセルとフレデリック・デ・ハウトマンが残した観測記録を元にペトルス・プランシウスが1597年に作成した地球儀に残したものが最初である。ヨハン・バイエルが1603年に発刊したウラノメトリアでそれを引用したことにより世に知られるようになった。</t>
   </si>
   <si>
@@ -3280,9 +3126,6 @@
     <t>凤凰座是南部较小的星座, 被荷兰导航员Pieter Dirkszoon Keyser 和Frederick de Houtman所发现，在1603年由Johann贝尔的Uranometria所流传。虽然不是自古流传的星座，但是因为车田正美的圣斗士星矢中人气角色一辉，而得以广泛为人所知。</t>
   </si>
   <si>
-    <t>鳳凰座是南部較小的星座, 被荷蘭導航員Pieter Dirkszoon Keyser 和Frederick de Houtman所發現，在1603年由Johann貝爾的Uranometria所流傳。雖然不是自古流傳的星座，但是因為車田正美的聖鬥士星矢中人氣角色壹輝，而得以廣泛為人所知。</t>
-  </si>
-  <si>
     <t xml:space="preserve">Phoenix is a minor constellation in the southern sky. Named after the mythical phoenix, it was first depicted on a celestial atlas by Johann Bayer in his 1603 Uranometria. The French explorer and astronomer Nicolas Louis de Lacaille charted the brighter stars and gave their Bayer designations in 1756. </t>
   </si>
   <si>
@@ -3292,9 +3135,6 @@
     <t>杜鹃座是南方的细小星座。它的拉丁名字为Tucana，是大嘴鸟的意思。在1595年至1597年之间由凯泽（Pieter Dirkszoon Keyser）及霍特曼（Frederick de Houtman）所定的。杜鹃座不是一个显眼的星座，因为所有的恒星都是三等或更暗淡。杜鹃座位于古代文明不可见的天区，因此没有相关的神话故事。</t>
   </si>
   <si>
-    <t>杜鵑座是南方的細小星座。它的拉丁名字為Tucana，是大嘴鳥的意思。在1595年至1597年之間由凱澤（Pieter Dirkszoon Keyser）及霍特曼（Frederick de Houtman）所定的。杜鵑座不是壹個顯眼的星座，因為所有的恒星都是三等或更暗淡。杜鵑座位於古代文明不可見的天區，因此沒有相關的神話故事。</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tucana is a constellation of stars in the southern sky, named after the toucan, a South American bird. It is one of twelve constellations conceived in the late sixteenth century by Petrus Plancius from the observations of Pieter Dirkszoon Keyser and Frederick de Houtman. </t>
   </si>
   <si>
@@ -3304,9 +3144,6 @@
     <t>飞鱼座是荷兰人Pieter Dirkszoon Keyser和Frederick de Houtman于1595-1597年观测和创立的12个南天星座之一,1603年被包括在拜耳恒星命名中。该星座部分恒星属于中国近南极星区飞鱼星官。</t>
   </si>
   <si>
-    <t>飛魚座是荷蘭人Pieter Dirkszoon Keyser和Frederick de Houtman於1595-1597年觀測和創立的12個南天星座之壹,1603年被包括在拜耳恒星命名中。該星座部分恒星屬於中國近南極星區飛魚星官。</t>
-  </si>
-  <si>
     <t>Volans is a constellation in the southern sky. It represents a flying fish; its name is a shortened form of its original name, Piscis Volans.　Volans was one of twelve constellations created by Petrus Plancius</t>
   </si>
   <si>
@@ -3328,9 +3165,6 @@
     <t>天鹰座是赤道带星座之一；在天箭座之南，人马座之北，大部分在银河内。传说，伽倪墨得斯据说是特洛伊的王子。有一天，他替父亲看羊时，宙斯在天空经过，一见伽倪墨得斯即对他迷恋，宙斯变身成一只鹰掳走伽倪墨得斯到奥林匹斯山，（有些版本说宙斯遣一只鹰捉走伽倪墨得斯），此鹰就是天鹰座，而伽倪墨得斯从此成为宙斯身旁的倒酒僮。</t>
   </si>
   <si>
-    <t>天鷹座是赤道帶星座之壹；在天箭座之南，人馬座之北，大部分在銀河內。傳說，伽倪墨得斯據說是特洛伊的王子。有壹天，他替父親看羊時，宙斯在天空經過，壹見伽倪墨得斯即對他迷戀，宙斯變身成壹只鷹擄走伽倪墨得斯到奧林匹斯山，（有些版本說宙斯遣壹只鷹捉走伽倪墨得斯），此鷹就是天鷹座，而伽倪墨得斯從此成為宙斯身旁的倒酒童。</t>
-  </si>
-  <si>
     <t>Aquila was also known as Vultur volans to the Romans, not to be confused with Vultur cadens which was their name for Lyra. It is often held to represent the eagle who held Zeus's thunderbolts in Greco-Roman mythology. Aquila is also associated with the eagle who kidnapped Ganymede, a son of one of the kings of Troy, to Mount Olympus to serve as cup-bearer to the gods.</t>
   </si>
   <si>
@@ -3340,9 +3174,6 @@
     <t>传说，克洛诺斯害怕其子女推翻其统治，于是吞下妻子瑞亚所生之儿女。其妻暗中藏起一个孩子，以石头调包给克洛诺斯吞下，而把孩子藏于克里特一个山洞中，此孩子就是宙斯。当宙斯长大后，回到父亲克洛诺斯的宫殿，强迫克洛诺斯吐出以前吞下的子女，众子女和宙斯联成一阵线设坛立誓推翻克洛诺斯残暴的统治，经过长达十年的战争后，宙斯终取得胜利，为纪念当初立誓之事，故在天上设天坛座。</t>
   </si>
   <si>
-    <t>傳說，克洛諾斯害怕其子女推翻其統治，於是吞下妻子瑞亞所生之兒女。其妻暗中藏起壹個孩子，以石頭調包給克洛諾斯吞下，而把孩子藏於克裏特壹個山洞中，此孩子就是宙斯。當宙斯長大後，回到父親克洛諾斯的宮殿，強迫克洛諾斯吐出以前吞下的子女，眾子女和宙斯聯成壹陣線設壇立誓推翻克洛諾斯殘暴的統治，經過長達十年的戰爭後，宙斯終取得勝利，為紀念當初立誓之事，故在天上設天壇座。</t>
-  </si>
-  <si>
     <t>Ara is a southern constellation situated between Scorpius and Triangulum Australe. Its Latin name means "altar". In ancient Greek mythology, Ara was identified as the altar where the gods first made offerings and formed an alliance before defeating the Titans. The nearby Milky Way represents the smoke rising from the offerings on the altar.</t>
   </si>
   <si>
@@ -3353,9 +3184,6 @@
     <t>半人马座（Centaurus）是一个巨大的明亮星座，它拥有两颗一等大星，半人马座α星和半人马座β星。半人马座区域内有各种令人感兴趣的天体。天空中有两个半人半马的形象，半人马座是其中之一（另一个是人马座）。在希腊神话中，半人马是一种奔跑迅速，武艺高强的生物，形象可怕，举止粗鲁，好色贪杯。他们当中也有例外，例如半人马奇戎是多位希腊英雄的导师，当中包括阿斯克勒庇奥斯、忒修斯、阿基里斯、伊阿宋及海格力斯。</t>
   </si>
   <si>
-    <t>半人馬座（Centaurus）是壹個巨大的明亮星座，它擁有兩顆壹等大星，半人馬座α星和半人馬座β星。半人馬座區域內有各種令人感興趣的天體。天空中有兩個半人半馬的形象，半人馬座是其中之壹（另壹個是人馬座）。在希臘神話中，半人馬是壹種奔跑迅速，武藝高強的生物，形象可怕，舉止粗魯，好色貪杯。他們當中也有例外，例如半人馬奇戎是多位希臘英雄的導師，當中包括阿斯克勒庇奧斯、忒修斯、阿基裏斯、伊阿宋及海格力斯。</t>
-  </si>
-  <si>
     <t xml:space="preserve">Centaurus is a bright constellation in the southern sky. One of the largest constellations, Centaurus was included among the 48 constellations listed by the 2nd century astronomer Ptolemy, and it remains one of the 88 modern constellations. In Greek mythology, Centaurus represents a centaur; a creature that is half human, half horse (another constellation named after a centaur is one from the zodiac: Sagittarius). </t>
   </si>
   <si>
@@ -3381,10 +3209,6 @@
     <t xml:space="preserve">Corona Australis is a constellation in the Southern Celestial Hemisphere. Its Latin name means "southern crown", and it is the southern counterpart of Corona Borealis, the northern crown. The Ancient Greeks saw Corona Australis as a wreath rather than a crown and associated it with Sagittarius or Centaurus. </t>
   </si>
   <si>
-    <t>南冕座（拉丁文名稱為Corona Australis）是現代88個星座和托勒密定義的48個星座之壹。每年6月30日子夜南冕座中心經過上中天。神話傳說認為南冕座是從人馬座頭上掉落的皇冠。1932年，這個星座被國際天文聯會從Corona Australis正式改命為Corona Austrina。然而舊名字Corona Australis仍然被廣泛使用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>南冕座（拉丁文名称为Corona Australis）是现代88个星座和托勒密定义的48个星座之一。每年6月30日子夜南冕座中心经过上中天。神话传说认为南冕座是从人马座头上掉落的皇冠。1932年，这个星座被国际天文联会从Corona Australis正式改命为Corona Austrina。然而旧名字Corona Australis仍然被广泛使用。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3395,9 +3219,6 @@
     <t>乌鸦座是南天的一个小星座，现代88个星座和托勒密定义的48个星座之一。乌鸦座包含中国古代星座轸宿。在希腊神话中是为阿波罗取水的乌鸦。因为路上贪玩怠慢，而且取回了一条水蛇，而被阿波罗连杯子（巨爵座）和水蛇（长蛇座）扔到了天上。</t>
   </si>
   <si>
-    <t>烏鴉座是南天的壹個小星座，現代88個星座和托勒密定義的48個星座之壹。烏鴉座包含中國古代星座軫宿。在希臘神話中是為阿波羅取水的烏鴉。因為路上貪玩怠慢，而且取回了壹條水蛇，而被阿波羅連杯子（巨爵座）和水蛇（長蛇座）扔到了天上。</t>
-  </si>
-  <si>
     <t>からす座（烏座、Corvus）は、カラスはアポロンの使いの鳥であった。当時は真っ白できれいな鳥で、人の言葉を喋っていた。ところが、このカラスは、アポロンの恋人コローニスが別の男と密会しているという誤った情報をアポロンに伝えた。カラスは罰として真っ黒に染められ、天上に追放され、星座となった。</t>
   </si>
   <si>
@@ -3407,9 +3228,6 @@
     <t>巨爵座（拉丁文Crater的意思是杯子）是现代88星座和托勒密划分的48星座之一。在希腊神话中，太阳神阿波罗让一只乌鸦为他取水。乌鸦在路上懒惰的拖延，且在最终取得水后，带回一条水蛇作为一个借口。这个骗局被阿波罗看穿，把乌鸦、水杯和蛇一起扔到了天上。巨爵座、乌鸦座和长蛇座甚为接近。</t>
   </si>
   <si>
-    <t>巨爵座（拉丁文Crater的意思是杯子）是現代88星座和托勒密劃分的48星座之壹。在希臘神話中，太陽神阿波羅讓壹只烏鴉為他取水。烏鴉在路上懶惰的拖延，且在最終取得水後，帶回壹條水蛇作為壹個借口。這個騙局被阿波羅看穿，把烏鴉、水杯和蛇壹起扔到了天上。巨爵座、烏鴉座和長蛇座甚為接近。</t>
-  </si>
-  <si>
     <t>Crater is a constellation. Its name is Latin for cup, and in Greek mythology it is identified with the cup of the god Apollo. It was one of the 48 constellations listed by the 2nd century astronomer Ptolemy, and remains one of the 88 modern constellations. It is faint, with no star brighter than third magnitude.</t>
   </si>
   <si>
@@ -3447,9 +3265,6 @@
     <t>南十字座或称十字架座，位于半人马座和苍蝇座之间，是全天88个星座中最小，但最有特色的一个。它的英文名称源自拉丁文的十字，它的造型就以十字形为主，在北回归线以南的地方皆可看到整个星座，因此被称为南十字，以与北十字（天鹅座的中心部分）有所区别。南十字座主要的特征是由四颗恒星构成的十字形，它对南半球的文化有显著的影响。</t>
   </si>
   <si>
-    <t>南十字座或稱十字架座，位於半人馬座和蒼蠅座之間，是全天88個星座中最小，但最有特色的壹個。它的英文名稱源自拉丁文的十字，它的造型就以十字形為主，在北回歸線以南的地方皆可看到整個星座，因此被稱為南十字，以與北十字（天鵝座的中心部分）有所區別。南十字座主要的特征是由四顆恒星構成的十字形，它對南半球的文化有顯著的影響。</t>
-  </si>
-  <si>
     <t>Crux is a constellation located in the southern sky in a bright portion of the Milky Way. It is among the most easily distinguished constellations, as none of its four main stars has an apparent visual magnitude greater than +2.8. Its name is Latin for cross, and it is dominated by a cross-shaped or kite-like asterism that is commonly known as the Southern Cross.</t>
   </si>
   <si>
@@ -3459,9 +3274,6 @@
     <t>天鹅座（白鸟座、Cygnus）是北天星座之一。天鹅座的中心部分别名北十字星。传说，天神宙斯经过雅典北面之拉姆诺斯（Rhamnus），看见复仇女神涅墨西斯而一见钟情，而涅墨西斯为避开宙斯，变身为不同的动物逃走，先循河道再转陆路，最后变成天鹅逃走，但经过多番追逐后，仍未能摆脱宙斯的追赶，终被祂化身成的天鹅逮住。</t>
   </si>
   <si>
-    <t>天鵝座（白鳥座、Cygnus）是北天星座之壹。天鵝座的中心部分別名北十字星。傳說，天神宙斯經過雅典北面之拉姆諾斯（Rhamnus），看見復仇女神涅墨西斯而壹見鐘情，而涅墨西斯為避開宙斯，變身為不同的動物逃走，先循河道再轉陸路，最後變成天鵝逃走，但經過多番追逐後，仍未能擺脫宙斯的追趕，終被祂化身成的天鵝逮住。</t>
-  </si>
-  <si>
     <t>In Greek mythology, Cygnus has been identified with several different legendary swans. Zeus disguised himself as a swan to seduce Leda, Spartan king Tyndareus's wife, who gave birth to the Gemini, Helen of Troy and Clytemnestra; Orpheus was transformed into a swan after his murder, and was said to have been placed in the sky next to his lyre (Lyra); and the King Cygnus was transformed into a swan.</t>
   </si>
   <si>
@@ -3475,10 +3287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武仙座（拉丁語名稱為Hercules）是依據羅馬神話的英雄海格力斯命名的壹個星座，而其源頭是希臘神話的英雄赫拉克勒斯。武仙座是二世紀天文學家托勒密列出的48星座之壹，它今天仍然是88 現代星座之壹。在希臘神話，海格力斯接受邁錫尼國王尤裏斯修斯的命令，執行十二項艱難的任務。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ヘルクレス座は、ギリシア神話に登場する勇者ヘラクレスにちなむ。ただし、星座名は「ヘルクレス座」と綴ることに注意する必要がある。勇者ヘラクレス(ヘルクレス座)は、大神ゼウスが王女アルクメーネーとの間にもうけた子で、勇者でありながら、その後もヘラに生活の邪魔をされ失敗続きだったが、12の冒険を成し遂げ、神となり星座の仲間入りをした。</t>
   </si>
   <si>
@@ -3490,10 +3298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>長蛇座 是現代88星座中最大的壹個，形狀像壹條彎曲的長蛇。在希臘神話中為太陽神阿波羅取水的烏鴉（烏鴉座）路上怠慢，而且取回了壹條水蛇。阿波羅看穿了這個騙局，把烏鴉、水杯（巨爵座）和水蛇（長蛇座）扔到了天上。這些天區地帶在古代又被稱為“海”。又壹說這是神話英雄赫拉克勒斯殺死的九頭蛇（海德拉），為前者的十二項英雄偉績之一。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hydra is the largest of the 88 modern constellations. Its southern end abuts Libra and Centaurus and its northern end borders Cancer. It has a long history, having been included among the 48 constellations listed by the 2nd century astronomer Ptolemy. It is commonly represented as a water snake. It should not be confused with the similarly named constellation of Hydrus.</t>
   </si>
   <si>
@@ -3512,9 +3316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>豺狼座，是現代88星座之壹，也是托勒密的48星座之壹。有時候說它代表希臘神話中的國王Lycaon。托勒密將代表物設定成狼。希臘天文學家喜帕恰斯在前200年左右把它從半人馬座中分出來，稱為“獸”。另外還被和附近的天箭座、半人馬座壹起被認為是被神話英雄海格力斯殺死的“厄律曼托斯山上的野豬”。</t>
-  </si>
-  <si>
     <t>Lupus is probably based on the Babylonian figure known as the Mad Dog. This was a strange hybrid creature that combined the head and torso of a man with the legs and tail of a lion It is often found in association with the sun god and another mythical being called the Bison-man, which is supposedly related to the Greek constellation of Centaurus.</t>
   </si>
   <si>
@@ -3524,9 +3325,6 @@
     <t>天琴座本身代表的就是由希腊神赫密士创造的乐器。赫密士把这个竖琴送给阿波罗，阿波罗再将其转送予俄耳甫斯（奥菲斯）。相传奥菲斯弹得一手好琴，琴声之悠扬，连山川鸟兽都为之动容。天神宙斯将他的七弦琴移置天界成为星座，供后人追念。</t>
   </si>
   <si>
-    <t>天琴座本身代表的就是由希臘神赫密士創造的樂器。赫密士把這個豎琴送給阿波羅，阿波羅再將其轉送予俄耳甫斯（奧菲斯）。相傳奧菲斯彈得壹手好琴，琴聲之悠揚，連山川鳥獸都為之動容。天神宙斯將他的七弦琴移置天界成為星座，供後人追念。</t>
-  </si>
-  <si>
     <t xml:space="preserve">In Greek mythology, Lyra represents the lyre of Orpheus. Made by Hermes from a tortoise shell, given to Apollo as a bargain, it was said to be the first lyre ever produced. Orpheus's music was said to be so great that even inanimate objects such as trees, streams, and rocks could be charmed. </t>
   </si>
   <si>
@@ -3618,15 +3416,9 @@
     <t>たて座（楯座、Scutum）は、1684年に「ソビエスキのたて座」 Scutum Sobiescianum としてヨハネス・ヘヴェリウスが制定した。これは、1679年に焼失したヘヴェリウスの観測施設の再建に協力したポーランド王ヤン三世ソビエスキを記念したものである。</t>
   </si>
   <si>
-    <t>盾牌座，Scutum，（拉丁文"盾"）是現代88星座中的壹個小星座。它被幾個大星座包圍，包括天鷹座、人馬座及巨蛇座。盾牌座並無有關之神話故事，這星座代表了波蘭國王約翰三世的"揚尼那紋章"。其名字和後發座壹樣和真實的歷史人物有關。原來的名字Scutum Sobiescianum（蘇比斯基之盾）是赫維留在1683年後期為了紀念維也納保衛戰中帶領基督教軍隊的的波蘭英雄和國王約翰三世而起的。盾牌座包含中國星官：天弁。</t>
-  </si>
-  <si>
     <t>巨蛇座是现代88个星座和托勒密定义的48个星座之一。分成两部分：“蛇头”（Serpens Caput）和“蛇尾”（Serpens Cauda），蛇夫座位于两部分中间。巨蛇座为蛇夫座所控之蛇，两个星座都被认为和医药有关。包含中国古代星座：天市右垣、天乳、列肆、天市、左垣、市楼。</t>
   </si>
   <si>
-    <t>巨蛇座是現代88個星座和托勒密定義的48個星座之壹。分成兩部分：“蛇頭”（Serpens Caput）和“蛇尾”（Serpens Cauda），蛇夫座位於兩部分中間。巨蛇座為蛇夫座所控之蛇，兩個星座都被認為和醫藥有關。包含中國古代星座：天市右垣、天乳、列肆、天市、左垣、市樓。</t>
-  </si>
-  <si>
     <t xml:space="preserve">In Greek mythology, Serpens represents a snake held by the healer Asclepius. Represented in the sky by the constellation Ophiuchus, Asclepius once killed a snake, but the animal was subsequently resurrected after a second snake placed a revival herb on it before its death. </t>
   </si>
   <si>
@@ -3636,9 +3428,6 @@
     <t>六分仪座是17世纪由约翰·赫维留创立的一个南天小星座。最亮的星（六分仪座α）视星等4.49。包含好几对双星系统：六分仪座γ, 六分仪座35和六分仪座40，另外还有几个变星。代表着赫维留经常用的测量仪器“六分仪”。</t>
   </si>
   <si>
-    <t>六分儀座是17世紀由約翰·赫維留創立的壹個南天小星座。最亮的星（六分儀座α）視星等4.49。包含好幾對雙星系統：六分儀座γ, 六分儀座35和六分儀座40，另外還有幾個變星。代表著赫維留經常用的測量儀器“六分儀”。</t>
-  </si>
-  <si>
     <t>Sextans is a minor equatorial constellation which was introduced in 1687 by Johannes Hevelius. Its name is Latin for the astronomical sextant, an instrument that Hevelius made frequent use of in his observations.</t>
   </si>
   <si>
@@ -3651,18 +3440,12 @@
     <t xml:space="preserve">Triangulum Australe is a small constellation in the far Southern Celestial Hemisphere. Its name is Latin for "the southern triangle", which distinguishes it from Triangulum in the northern sky and is derived from the almost equilateral pattern of its three brightest stars. </t>
   </si>
   <si>
-    <t>1603年，拜爾在他的《恒星誌》中包括了這個遠南天的小星座。它的主要星在太陽的兩個最近的鄰居-半人馬座α和半人馬β星旁邊形成了壹個大致等邊的三角形。</t>
-  </si>
-  <si>
     <t>みなみのさんかく座（南の三角座、Triangulum Australe）は、南天の星座の1つ。名前に三角のつく星座には、他にさんかく座がある。</t>
   </si>
   <si>
     <t>狐狸座（Vulpecula）是一个位于北天球的模糊星座，设立于17世纪。这个微弱的星座位于银河一个明亮的区域，因此更加难以观测。1660年，波兰天文学家赫维留斯感觉这里应该设立一个星座。尽管这个区域看起来很不显眼，但使用双筒望远镜或小型望远镜可以发现这是一个有趣的天区。</t>
   </si>
   <si>
-    <t>狐貍座（Vulpecula）是壹個位於北天球的模糊星座，設立於17世紀。這個微弱的星座位於銀河壹個明亮的區域，因此更加難以觀測。1660年，波蘭天文學家赫維留斯感覺這裏應該設立壹個星座。盡管這個區域看起來很不顯眼，但使用雙筒望遠鏡或小型望遠鏡可以發現這是壹個有趣的天區。</t>
-  </si>
-  <si>
     <t>こぎつね座（小狐座、Vulpecula）は、星座の1つ。こと座のベガ、はくちょう座のデネブ、わし座のアルタイルから形作られる夏の大三角の真ん中にある、目立たない星座である。この星座は、1687年に、ポーランドの天文学者ヨハネス・ヘヴェリウスによって設定された[2]。</t>
   </si>
   <si>
@@ -3674,9 +3457,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大犬座中的天狼星是夜空中最亮的恒星。大犬座名為萊拉普斯（Laelaps），據稱能捉到世上所有的獵物，它曾有無數主人，其壹是雅典皇埃瑞克修斯（Erechtheus）之女、克法洛斯（Cephalus）之妻——普羅克裏斯（Procris），後來，克法洛斯將它送到忒拜（Thebe）郊外，因為那裏住著壹只永遠都不會被捉到的狐貍，為了解決這似是而非的事情，宙斯將它們變成石頭，並將萊拉普斯升上天空。</t>
-  </si>
-  <si>
     <t xml:space="preserve">In Greek Mythology, Canis Major represented the dog Laelaps, a gift from Zeus to Europa; or sometimes the hound of Procris, Diana's nymph; or the one given by Aurora to Cephalus, so famed for its speed that Zeus elevated it to the sky.It was also considered to represent one of Orion's hunting dogs, pursuing Lepus the Hare or helping Orion fight Taurus the Bull; and is referred to in this way by Aratos, Homer and Hesiod. </t>
   </si>
   <si>
@@ -3689,18 +3469,12 @@
     <t>ヒュギーヌスが伝えるアッティカ地方に伝わる神話では、ディオニューソスからブドウとワインの製法を教わったイーカリオスの飼い犬マイラであるとされる</t>
   </si>
   <si>
-    <t>小犬座屬於現代八十八現代星座，也是托勒密48星座之壹。據說象征著獵戶座的獵犬之壹，另壹條獵犬是大犬座。小犬座包含中國古代的南河、水位星座。</t>
-  </si>
-  <si>
     <t xml:space="preserve"> In Greek mythology, Canis Minor was sometimes connected with the Teumessian Fox, a beast turned into stone with its hunter, Laelaps, by Zeus, who placed them in heaven as Canis Major and Canis Minor.</t>
   </si>
   <si>
     <t>天兔座（拉丁文lepus，兔子）是猎户座南边的一个星座，可能代表着猎人（猎户座）追逐的兔子。是托勒密划分的48星座之一，也是现代88星座之一。包含中国古代星座：参宿的屏，军井，厕。</t>
   </si>
   <si>
-    <t>天兔座（拉丁文lepus，兔子）是獵戶座南邊的壹個星座，可能代表著獵人（獵戶座）追逐的兔子。是托勒密劃分的48星座之壹，也是現代88星座之壹。包含中國古代星座：參宿的屏，軍井，廁。</t>
-  </si>
-  <si>
     <t>Lepus is located below the constellation Orion (the hunter), and is sometimes represented as a hare being chased by Orion or, alternatively, by Orion's hunting dogs.</t>
   </si>
   <si>
@@ -3710,9 +3484,6 @@
     <t>独角兽座（希腊: Μονόκερως）是在天球赤道上的一个黯淡星座，它的名字在希腊的意思是独角兽。它是由17世纪的荷兰的制图员普朗修斯（Plancius）所创建的星座。中国的星官称为四渎、阙邱、和外厨，它们都在独角兽座的边界内。</t>
   </si>
   <si>
-    <t>獨角獸座（希臘: Μονόκερως）是在天球赤道上的壹個黯淡星座，它的名字在希臘的意思是獨角獸。它是由17世紀的荷蘭的制圖員普朗修斯（Plancius）所創建的星座。中國的星官稱為四瀆、闕邱、和外廚，它們都在獨角獸座的邊界內。</t>
-  </si>
-  <si>
     <t>いっかくじゅう座（一角獣座、Monoceros）は、日本では冬に南の空に見える。この星座は、オランダの神学者で地図製作者のペトルス・プランシウスによって創案された。プランシウスは1613年に作成した天球儀に Monoceros Unicornis という名前で星座を描いていた。</t>
   </si>
   <si>
@@ -3722,9 +3493,6 @@
     <t>猎户座（Orion）是一个非常显著的星座，也许是夜空中最出名的一个。全世界的人都能看到它那些分布在天赤道上耀眼的星，也是各地人都认得的星座，也因此猎户座一直有星座之王的美誉，形如猎人俄里翁站在波江座的河岸，身旁有他的两头猎犬大犬座和小犬座，与他一起追逐著金牛座。一些其他的猎物如天兔座都在他的附近。</t>
   </si>
   <si>
-    <t>獵戶座（Orion）是壹個非常顯著的星座，也許是夜空中最出名的壹個。全世界的人都能看到它那些分布在天赤道上耀眼的星，也是各地人都認得的星座，也因此獵戶座壹直有星座之王的美譽，形如獵人俄裏翁站在波江座的河岸，身旁有他的兩頭獵犬大犬座和小犬座，與他壹起追逐著金牛座。壹些其他的獵物如天兔座都在他的附近。</t>
-  </si>
-  <si>
     <t>Orion is a prominent constellation located on the celestial equator and visible throughout the world. It is one of the most conspicuous and recognizable constellations in the night sky.　It was named after Orion, a hunter in Greek mythology. Its brightest stars are Rigel and Betelgeuse, a blue-white and a red supergiant, respectively.</t>
   </si>
   <si>
@@ -3749,9 +3517,6 @@
     <t>御夫是雅典之皇埃里克托尼奥斯（Erichthonius），他是火神赫淮斯托斯之子，养母为女神雅典娜，雅典娜教埃里克托尼奥斯各技能，包括驯马技术，使他成为第一个能用四马御车之人，宙斯为纪念他将其置于众星中。也有说法称御夫为忒修斯之子希波吕托斯或者赫耳墨斯之子弥尔提洛斯。</t>
   </si>
   <si>
-    <t>禦夫是雅典之皇埃裏克托尼奧斯（Erichthonius），他是火神赫淮斯托斯之子，養母為女神雅典娜，雅典娜教埃裏克托尼奧斯各技能，包括馴馬技術，使他成為第壹個能用四馬禦車之人，宙斯為紀念他將其置於眾星中。也有說法稱禦夫為忒修斯之子希波呂托斯或者赫耳墨斯之子彌爾提洛斯。</t>
-  </si>
-  <si>
     <t>In Greek mythology, Auriga is often identified as the mythological Greek hero Erichthonius of Athens, the chthonic son of Hephaestus who was raised by the goddess Athena. Erichthonius was generally credited to be the inventor of the quadriga, the four-horse chariot。</t>
   </si>
   <si>
@@ -3767,10 +3532,6 @@
     <t xml:space="preserve">Cassiopeia is a constellation in the northern sky, named after the vain queen Cassiopeia in Greek mythology, who boasted about her unrivalled beauty. </t>
   </si>
   <si>
-    <t>仙後座，北天星座，代表著埃塞俄比亞皇後卡西歐佩亞。它是國際天文學聯合會88個現代星座之壹，也是古希臘天文學家托勒密列出的48個星座其中的壹個。她也是仙女座的母親，仙王座的妻子。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仙后座，北天星座，代表着埃塞俄比亚皇后卡西欧佩亚。它是国际天文学联合会88个现代星座之一，也是古希腊天文学家托勒密列出的48个星座其中的一个。她也是仙女座的母亲，仙王座的妻子。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3787,9 +3548,6 @@
     <t>鲸鱼座是南天的一个星座，其名取于希腊神话中的海怪刻托（Cetus）。希腊人认为它是海生怪物，它拥有一个血盆大口，前足如陆上生物，有一条蛇状的尾。最后被珀耳修斯杀死。</t>
   </si>
   <si>
-    <t>鯨魚座是南天的壹個星座，其名取於希臘神話中的海怪刻托（Cetus）。希臘人認為它是海生怪物，它擁有壹個血盆大口，前足如陸上生物，有壹條蛇狀的尾。最後被珀耳修斯殺死。</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cetus may have originally been associated with a whale, which would have had mythic status amongst Mesopotamian cultures. It is most strongly associated with Cetus the sea-monster, who was slain by Perseus as he saved the princess Andromeda from Poseidon's wrath. </t>
   </si>
   <si>
@@ -3799,9 +3557,6 @@
     <t>蜥蜴座是现代的88星座之一。在1687年为波兰天文学家赫维留创立。蜥蜴座位于北天，其北部和银河相交。整个星座位于天鹅座，仙后座和仙女座之间，和仙后座一样呈W形。包含中国古代星座：车府，螣蛇。没有有关的古代传说。赫维留创立本星座之前，有些人把这片星空称为“正义之杖”或者“腓特烈的荣耀”。</t>
   </si>
   <si>
-    <t>蜥蜴座是現代的88星座之壹。在1687年為波蘭天文學家赫維留創立。蜥蜴座位於北天，其北部和銀河相交。整個星座位於天鵝座，仙後座和仙女座之間，和仙後座壹樣呈W形。包含中國古代星座：車府，螣蛇。沒有有關的古代傳說。赫維留創立本星座之前，有些人把這片星空稱為“正義之杖”或者“肺特烈的榮耀”。</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lacerta'name is Latin for lizard. It was apparently not regarded as a constellation by ancient Western astronomers. Johannes Hevelius created the constellation in 1687 and initially christened it "Stellio" (the stellion), a newt with star-like dorsal spots found along the Mediterranean coast.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3816,18 +3571,12 @@
     <t xml:space="preserve">Pegasus, in Greek mythology, was a winged horse with magical powers. Pegasus was the one who delivered Medusa's head to Polydectes, after which he travelled to Mount Olympus in order to be the bearer of thunder and lightning for Zeus. Eventually, he became the horse to Bellerophon, who was asked to kill the Chimera and succeeded with the help of Athena and Pegasus. </t>
   </si>
   <si>
-    <t>在希臘神話中，珀爾修斯殺死了戈耳工美杜莎後，從美杜莎頸腔噴出的血中跳出了壹匹飛馬珀伽索斯。這匹長著翅膀的神馬立刻飛到了天上，後來它降落到赫利孔山上，在那裏創造了靈泉，這泉後來成了詩人的靈感之源。雅典娜後來馴服了這匹馬，把它贈給柏勒洛豐，讓他騎著這匹馬旅行。在壹次旅行中，飛馬將柏勒洛豐甩下摔死，獨自繼續旅行，最後到達了天界，成為了壹個星座。</t>
-  </si>
-  <si>
     <t>ペーガソス(ペガスス座)は、勇者ペルセウスがメドゥーサの首を切って倒したときに、クリューサーオールと共に胴体から生まれた天を駆ける羽のある白馬である。生れ出たペーガソスは飛び立って、ムーサたちの住むボイオーティアのヘリコン山に辿り着いた。ペーガソスがムーサたちを喜ばせようと岩を蹄で撃ったところ、そこから泉が湧き出たという。</t>
   </si>
   <si>
     <t>三角座是一个北天星座，它是现代88个星座中的其中一个，也是被托勒密列出的48个星座之一。三角座的设立来源于托勒密的著作。在早期也曾被称为“Sicilia”，因为西西里岛之神Ceres据说曾哀求朱比特把西西里岛放到天上。</t>
   </si>
   <si>
-    <t>三角座是壹個北天星座，它是現代88個星座中的其中壹個，也是被托勒密列出的48個星座之壹。三角座的設立來源於托勒密的著作。在早期也曾被稱為“Sicilia”，因為西西裏島之神Ceres據說曾哀求朱比特把西西裏島放到天上。</t>
-  </si>
-  <si>
     <t>Triangulum is a small constellation in the northern sky. Its name is Latin for "triangle", derived from its three brightest stars, which form a long and narrow triangle. Known to the ancient Babylonians and Greeks, Triangulum was one of the 48 constellations too.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3838,9 +3587,6 @@
     <t>英仙座跨越了秋季的银河，在有关北天的希腊神话中，英仙珀尔修斯是一个中心人物。他杀死了戈耳工美杜莎，用美杜莎的头把海中的鲸怪变为石头。由此他解救了缚在鲸怪经过岩石上的安德洛墨达。本星座代表的就是珀尔修斯。</t>
   </si>
   <si>
-    <t>英仙座跨越了秋季的銀河，在有關北天的希臘神話中，英仙珀爾修斯是壹個中心人物。他殺死了戈耳工美杜莎，用美杜莎的頭把海中的鯨怪變為石頭。由此他解救了縛在鯨怪經過巖石上的安德洛墨達。本星座代表的就是珀爾修斯。</t>
-  </si>
-  <si>
     <t>In Greek mythology, Perseus was the son of Danaë, who was sent by King Polydectes to bring the head of Medusa the Gorgon—whose visage caused all who gazed upon her to turn to stone—as a wedding gift. Perseus slew Medusa in her sleep, and Pegasus and Chrysaor appeared from her body.</t>
   </si>
   <si>
@@ -3864,13 +3610,252 @@
   </si>
   <si>
     <t>點擊卡片繼續</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水瓶座的形像是一個持著瓶子在斟酒的美少年伽倪墨得斯，據說他是特洛伊的王子。有一天，他替父親看羊時，宙斯在天空經過，一見伽倪墨得斯即對他迷戀，就變身成一只老鷹擄走擄走伽倪墨得斯到奧林匹斯山，而伽倪墨得斯從此成為宙斯身旁的倒酒童。也有說法稱寶瓶座為雅典創立者刻克羅普斯（Cecrops），他曾以水對諸神作出獻祭。</t>
+  </si>
+  <si>
+    <t>國王阿塔瑪斯和妻子涅斐勒有一段不愉快的婚姻，於是另娶底比斯國王卡德摩斯之女伊諾為妻，可是伊諾虐待阿塔瑪斯的孩子弗裏克索斯。涅斐勒差遣金羊克律索馬羅斯救弗裏克索斯，弗裏克索斯逃脫並帶著妹妹赫勒騎上羊身飛向東面的科爾基斯，弗裏克索斯把金羊送給科爾基斯國王埃厄忒斯，埃厄忒斯也禮尚往來把女兒卡爾基奧佩賜予弗裏克索斯。後來宙斯將金羊提升到天上，便成為了白羊星座。</t>
+  </si>
+  <si>
+    <t>巨蟹座位於雙子座和獅子座之間, 北方是天貓座、南面則是小犬座和長蛇座。在希臘神話中，當宙斯的私生子海格力斯迎戰勒拿湖的九頭大蛇（長蛇座）時，海格力斯的死敵赫拉派出巨蟹從沼澤竄出並偷偷攻擊海格力斯的腳，海格力斯一怒之下將其踩成碎片，事後赫拉拾起巨蟹，升上天空，成為巨蟹座。</t>
+  </si>
+  <si>
+    <t>希臘神話中，有位有著山羊角、羊蹄和山羊胡子的神潘恩。有一次潘恩在尼羅河畔參加諸神的宴會，並在宴會上為諸神演奏，不料演奏中，他的笛聲居然將上古時代的怪物給引來了。此時諸神紛紛化身逃走，而潘恩在慌張中跳入尼羅河中，想化身為魚逃走，不過實在是太匆忙了，以致於變身並不完全，結果泡在水中的下半身變成了魚尾巴，而上半身仍維持原有的山羊模樣。宙斯在天界看到之後，便將這半羊半魚的樣子化做天上的星座。</t>
+  </si>
+  <si>
+    <t>雙子座代表的是希臘神話中的天神宙斯與斯巴達王後勒達所生的孿生子卡斯托耳和波魯克斯（合稱狄俄斯庫裏兄弟），兩人一生充滿無數的英雄壯舉。但他們因和伊達斯和林叩斯分配戰利品時產生矛盾，互相反目成仇並開始決鬥，結果林叩斯被卡斯托耳殺死，卡斯托耳被伊達斯殺死，伊達斯又被波魯克斯殺死。波魯克斯向宙斯哀求如果能讓卡斯托耳復活，他寧願放棄自己的不死之身。宙斯將他們提升到天界，成為雙子座。</t>
+  </si>
+  <si>
+    <t>希臘神話中，赫拉克勒斯在十二年中完成了十二項英勇業績，其中有一項任務就是要殺死涅墨亞獅子。涅墨亞獅子是半人半蛇的妖怪厄喀德娜生下的，到處吞食生靈。並且刀槍不入。於是赫拉克勒斯和獅子肉搏，最後徒手將那獅子給活活掐死。之後赫拉克勒斯將獅子的皮剝下，獅頭戴在頭上作為頭盔，獅皮則披在身上作為盔甲。後來宙斯為紀念赫拉克勒斯的豐功偉績，將被他殺死的涅墨亞獅子升到空中，變成了獅子座。</t>
+  </si>
+  <si>
+    <t>天秤座是希臘神話中的正義女神阿斯特莉亞在為人類所做善惡裁判時所用的天平，阿斯特莉亞一只手持天平，一只手握斬除邪惡的劍。為求公正，所以眼睛皆蒙著。從前的眾神和人類是和平共處於大地上，然而那時的人好爭鬥，惡業橫行，眾神在對人類失望之余回到天上。只有阿斯特莉亞女神舍不得回去而留在世界上，教人為善。盡管如此，人類仍繼續墮落。最後連阿斯特莉亞也放棄人類而回到天上。而天空就高掛著鐘愛正義和平公正的天秤座。</t>
+  </si>
+  <si>
+    <t>在希臘神話中，阿斯克勒庇俄斯是人馬喀戎的學生。喀戎將自己掌握的醫學知識毫無保留的傳授給他。這激怒了冥王哈得斯，於是在阿斯克勒庇俄斯使俄裏翁復蘇時（參見獵戶座神話），讓宙斯用雷劈死了阿斯克勒庇俄斯和俄裏翁。由於阿斯克勒庇俄斯是著名的醫者，手中擁有阿斯克勒庇俄斯之杖，杖上卷有一條靈蛇，以其蛻皮重生象征醫學的治療概念，因此阿斯克勒庇俄斯死後宙斯將其變為蛇夫座。</t>
+  </si>
+  <si>
+    <t>希臘神話中雙魚座代表的是阿佛洛狄忒和厄洛斯在水中的化身。阿佛洛狄忒為了逃避大地女神蓋亞之子巨神提豐攻擊而變成魚躲在尼羅河（一說幼發拉底河）。之後她發現忘記帶上自己的兒子厄洛斯一起逃走，於是又上岸找到厄洛斯。為防止與兒子失散，她將兩人腳綁在一起，隨後兩人化為魚形，潛進河中。事後宙斯將阿佛洛狄忒首先化身的魚提升到空中成為南魚座，而她和厄洛斯化身的綁在一起的兩條魚則稱為雙魚座。</t>
+  </si>
+  <si>
+    <t>天蠍座位於天秤座與人馬座之間，為黃道十二宮第八星座。希臘神話中，天蠍座是赫拉克勒斯在山澗中殺死的一只大毒蠍子。還有神話故事提到，獵人俄裏翁過於傲慢，誇口說天下沒有一個動物是他的對手，天後赫拉就派毒蠍子咬傷了他的腳，使他中毒而死。所以它們到了天上以後也互相為敵，遠居天空的兩邊，每當天蠍座從東方地平線上升起時，獵戶俄裏翁便從西方匆匆離去。</t>
+  </si>
+  <si>
+    <t>傳說，宙斯垂涎卡莉斯托的美色，對其施暴，後來卡莉斯托誕下兒子Arcas，宙斯之妻赫拉要懲罰卡莉斯托勾搭其夫，扠著卡莉斯托之頸按她在地，把她變為一只黑熊。十五年來卡莉斯托一直隱居森林，有一天，她重遇兒子Arcas，可是Arcas並不知道眼前的黑熊就是其生母，準備舉矛自衛。電光火石間，宙斯以一陣旋風卷他們上天，卡莉斯托變成大熊座，而Arcas則變成牧夫座。</t>
+  </si>
+  <si>
+    <t>鹿豹座，是北天球一大片昏暗的星群，1612年（或1613年）始由普朗修斯（Plancius）定義星座。因這個天區沒有高於四等的光星，因此一直被希臘人所忽略。1613年（或1613年），荷籍神學家Petrus Plancius以駱駝代表此天區，它是聖經中利百加進入迦南地嫁予以撒的座騎。</t>
+  </si>
+  <si>
+    <t>獵犬座是北天的一個小星座，17世紀由波蘭天文學家波蘭天學家約翰·赫維留（Johannes Hevelius）創立。在古代希臘文獻中，獵犬座的星被描繪為牧夫扛的棒子。後來被阿拉伯人翻譯為鉤子，或牧人的帶鉤牧杖。再翻譯到西歐文字誤成了狗，最終被赫維留定成一個獨立的星座。獵犬座包含中國古代的星座“常陳”。《晉書·天文誌》記載：“常陳七星如畢狀，在帝座北，天子宿衛武賁之士，以設疆禦。”</t>
+  </si>
+  <si>
+    <t>一般認為后發座是由第谷·布拉赫在他1602年的星表中最先提出，1603年出現在拜耳命名法中。傳說，歷史上的貝勒尼基二世是古代昔蘭尼的公主，埃及法老托勒密三世的王後。約在公元前243年的時候，托勒密三世遠征敘利亞。她向神祈禱保佑丈夫平安歸來，把頭發剪下來奉獻在女神阿佛羅狄忒的神廟。傳說第二天，她的頭發不見了。宮廷裏的人說是被女神攝到了天上，成為后發座。</t>
+  </si>
+  <si>
+    <t>小獅座是一個比較暗淡的星座，位於大熊座和獅子座之間的三角形地帶。在1687年為約翰·赫維留所創立。沒有對應的古代神話。不含著名的深空天體。最亮的一個是NGC 3003，為視星等11.7的星系，大小為5.9角分，側對地球。</t>
+  </si>
+  <si>
+    <t>天貓是指阿耳戈船英雄之一的林叩斯，林叩斯擁有世界上最敏銳的視力，甚至能看到陰間之物，視力如夜貓。林叩斯和兄弟伊達斯為了兩個女子，而和狄俄斯庫裏兄弟，卡斯托耳和波呂丟刻斯起哄，伊達斯殺死卡斯托耳，波呂丟刻斯殺死林叩斯，當伊達斯攻擊波呂丟刻斯時，被後者的父親——宙斯以雷電劈死。</t>
+  </si>
+  <si>
+    <t>這個星座擁有全天最顯著的星象，即北鬥七星。許多古代文明都認為這個星座的星象是一只熊。在希臘神話中，宙斯為了使美麗的仙女卡利斯托逃脫天後赫拉的忌妒，把她變成了一只熊。但赫拉仍然窮追不舍，命令狩獵女神阿耳忒彌斯射殺這只熊，宙斯不得已把大熊提升為天上的星座。</t>
+  </si>
+  <si>
+    <t>把小熊座中的七顆亮星連接起來，能構成與大熊座的北鬥七星相類似的一個鬥型，因此這七顆星也被稱作小北鬥。在鬥柄開始處是小熊座α，它是目前的北極星，指示著北天極。</t>
+  </si>
+  <si>
+    <t>托勒密本稱船尾座、船帆座及船底座為同一星座，叫做南船座。在十八世紀，天文學家認為南船座所占之天區過大，故將其拆開。南船座即阿格號，故事中伊阿宋帶著五十個人乘阿格號到位於黑海的科爾基斯找金羊毛。經過幾番波折進入黑海後，伊阿宋偷去金羊毛回到希臘，把阿格號泊於科林斯，算是對海神波塞冬的一種感謝。在星圖上，我們只能見到阿格號的船尾，船頭被濃霧所覆蓋，或是被撞巖所遮掩。</t>
+  </si>
+  <si>
+    <t>天鴿座為南天星座之一。在天兔座之南，雕具座和船尾座之間。這個小星座像一只鴿子, 天文學家普朗修斯給它取了現在的名字, 盡管這個星座位於南天, 在北半球中緯度地區, 1月和2月在天剛黑的時刻, 還是可以看見它的。</t>
+  </si>
+  <si>
+    <t>希臘神話中，海神波塞冬欲娶海仙女安菲特裏忒為妻，然而，為保貞潔，安菲特裏忒逃至阿特拉斯山脈。於是，波塞冬便派人尋找她的下落，其中一只海豚偶然發現安菲特裏忒，並打動她接受海塞冬的求婚。為答謝海豚的功勞，海豚就成了天上的海豚座。</t>
+  </si>
+  <si>
+    <t>小馬座位於飛馬座西南，寶瓶座之北，是托勒密星座中最小的一個，沒有亮於3等的恒星，所以在夜空中尋找到它有點困難。半人馬喀戎之女希波受杜卡利翁之曾孫埃俄洛斯引誘，後來希波有了埃俄洛斯的身孕，逃到山中匿藏誕下墨拉尼佩，孩子剛出生時，喀戎卻在到處找希波，希波要求神將自己變成母驢免被其父發現，女神阿耳忒彌斯成全她並將希波之映像置於天際，只露出其馬頭，免被其父喀戎發覺。</t>
+  </si>
+  <si>
+    <t>波江座是現代88星座，也是托勒密48星座之一。包含中國古代星座：天苑，九州殊口，天園，九遊 ，玉井和水委。一說是寶瓶座流出來的水。另一說和太陽神阿波羅的兒子法厄同有關。波江座被認為是他駕駛太陽車的軌跡，或被宙斯擊死後落入的陰間河流。</t>
+  </si>
+  <si>
+    <t>南魚座是88個現代星座，48個托勒密星座中的一員。首要並且是唯一的亮星是南魚座α星是顆藍白色的巨星，距離地球25光年。在希臘神話中，南魚座是美神阿佛洛狄忒的化身，她為了逃避大地女神蓋亞之子巨神提豐的攻擊而變成魚躲在尼羅河裏（一說是幼發拉底河）。之後她發現忘記帶上自己的兒子厄洛斯，於是又上岸找到厄羅斯，為防止與兒子失散，她將兩人腳綁在一起，化為魚形，潛進河中。事後宙斯將阿佛洛狄忒首先化身的魚提升到空中成為南魚座，而之後她和厄羅斯化身的雙魚則稱為雙魚座。</t>
+  </si>
+  <si>
+    <t>羅盤座是在南天的一個小且暗淡的星座。它的名稱源自拉丁文的水手的指南針。羅盤座是尼可拉·路易·拉卡伊在18世紀首度介紹的，它稱之為船用羅盤（Pyxis Nautica），但是後來名稱被縮短了。這個星座的位置靠近古老的南船座（阿戈爾號），天文學家約翰·赫歇爾在19世紀建議重新命名為船桅座，但是沒有被接受。</t>
+  </si>
+  <si>
+    <t>法國天文學家尼可拉·路易·拉卡伊在1751年至52年間最早使用法語“la Machine Pneumatique”（氣動泵）一詞來描述這個星座，用意是紀念法國物理學家丹尼斯·帕潘所發明的氣泵。英國天文學家約翰·赫歇爾於1844年提出將二字的拉丁文名稱縮減成一字，並指出拉卡伊本人有時也會使用自己星座的簡稱。這項提議獲得了普遍采用。國際天文聯會於1922年正式通過唧筒座成為現代88星座之一。</t>
+  </si>
+  <si>
+    <t>雕具座最早由法國天文學家尼可拉·路易·拉卡伊於18世紀創立，他同時也創立了另外13個南天星座。拉卡伊用法語的“Burin”一詞（意為雕刻刀）來為這星座命名，而最初拉丁化的名稱為“Caelum Scalptorium”（意為雕刻者的鑿子）。英國天文學家弗朗西斯·貝利也把二字的拉丁名縮減成一字。雖然雕具座在拉卡伊最初的星圖中是以雕刻刀和刻版畫用的雕刻針（échoppe）來表示，但後來變成只用鑿子來代表。</t>
+  </si>
+  <si>
+    <t>圓規座是一個南天星座，面積93.35平方度，占全天面積的0.226%，最亮星為圓規座α。每年4月30日子夜圓規座中心經過上中天。圓規座沒有亮於2等的恒星，三顆主星組成一個呈折合的圓規形狀。圓規座並沒有對應神話故事，由法國天文學家拉卡伊於1763年所創，表示測量員用的圓規。</t>
+  </si>
+  <si>
+    <t>天爐座直到1752年才由法國天文學家拉卡伊對它進行了描述。這個星座沒有星等超過+4的星，但實際上該星座卻包含一個擁有多種天體的星系群。它位於波江座旁邊，鯨魚座南方，象征化學熔爐。使用8英寸(20厘米)或更大望遠鏡才能看見它。</t>
+  </si>
+  <si>
+    <t>時鐘座是現代88星座之一，是位於南天的一個小星座（赤緯約-60度）。最早被拉卡伊命名為擺鐘座，用來紀念擺鐘的發明人惠更斯。時鐘座在波江座之南，水蛇座和網罟座之間；由於創立於17世紀，沒有相對應的神話；時鐘座包含中國古代星座：近天園南。</t>
+  </si>
+  <si>
+    <t>顯微鏡座是南天半球中的一個星座，由拉卡伊於1752年確立的，它幾乎沒有顯著的亮星，並且對小型望遠鏡，這裏沒有什麽有趣的東西，它的名字是為了紀念16世紀末顯微鏡的發明。北半球中緯度地區在南方地平線晴朗的情況下，可以看見這個星座中的一個雙星 - 顯微鏡座α。</t>
+  </si>
+  <si>
+    <t>矩尺座（Norma，拉丁文：角尺）是一個小型而黯淡的南天星座，此星座是由拉卡伊在1751至1752年間在好望角觀測時所創立的，後來在1763年編入《Coelum australe stelliferum》（南天星表）。拉卡伊原把此星座稱作“Norma et Regula”（即角尺與直尺），象征木工的用具。十七世紀之前，在未有遠航技術之前並無文明看見它，因此並無任何與之相關的神話記載。</t>
+  </si>
+  <si>
+    <t>南極座，本作八分儀座，是一個由法國天文學家拉卡伊（Nicolas Louis de Lacaille）所命名的南天星座，象征航海儀器八分儀。此星座缺乏亮星，並不明顯。南極座令人註意的地方是這個天區包含了南天極。南極座σ是最接近南天極而肉眼可見的星，但這顆星太暗淡所以不足以用作導航的極星。幸而，南十字座的長軸指向南極，可作為天空中找尋南天極的參考。</t>
+  </si>
+  <si>
+    <t>繪架座是拉卡伊在1752年命名的星座之一。 組成這個南天小星座的恒星在地球上看都很黯淡，難於看到。對於只有小型望遠鏡或雙筒望遠鏡的觀察者來說，這個星座可能沒有什麽可以看見的有趣天體。</t>
+  </si>
+  <si>
+    <t>網罟座是法國天文學家拉卡伊創造的一個星座。它的名稱是為了紀念在目鏡中加上了精密觀測用的網，即十字絲。這個很小的遠南天星座最突出的特點是幾個有趣的雙星和相對明亮的星系。</t>
+  </si>
+  <si>
+    <t>玉夫座是由法國天文學家拉卡伊在南天創建的一個小星座，原來的名字是雕刻家的工作室，在拉丁化時被縮減成現在的名稱。由於是在17世紀才新創的星座，因此沒有相關的神話故事。</t>
+  </si>
+  <si>
+    <t>望遠鏡座是一個南天黃道帶星座，位於人馬座南方，象征有姣車支撐的大型望遠鏡。望遠鏡座是法國天文學家修道士拉卡伊於1751年-1752年在好望角觀測南天星空時劃分的一個小星座。因其位於南天，沒有對應的神話傳說。</t>
+  </si>
+  <si>
+    <t>天燕座是南天星座之一，在南三角座之南，緊接南極座。天燕座沒有神話，由Poeter Dirkszoon Keyser和Frederick de Houtman所創，為的是紀念新幾內亞的極樂鳥。</t>
+  </si>
+  <si>
+    <t>蝘蜓座是南天深處的一個很暗的星座，位於船底座和南極座之間。荷蘭探險家Pieter Dirkszoon Keyser和Frederick de Houtman所創，代表變色龍。</t>
+  </si>
+  <si>
+    <t>劍魚座（Dorado，西班牙語的鬼頭刀魚）是一個南天星座。它是荷蘭航海家凱澤和豪特曼於1595至1597年間所命名的12個星座之一，於1603年被收錄於巴耶的《測天圖》內。象征海洋生物劍魚。</t>
+  </si>
+  <si>
+    <t>水蛇座是一個遠離黃道的星座，位於大小麥哲倫星雲之間。大小麥哲倫星雲是地球所在的銀河系的伴星系，大小麥哲倫星雲都是不規則星系。16世紀，荷蘭航海家首先確認了這個星座，後來被收錄在拜爾1603年的星圖中。其中三顆最亮的星組成一個三角。幾乎正指南天極的相反方向。</t>
+  </si>
+  <si>
+    <t>印第安座是南天的一個星座，其代表物是美洲的印第安人。為Pieter Dirkszoon Keyser和Frederick de Houtman在1595-1597年巡航南半球，觀測和創立的12星座之一，1603年首次出現在拜耳的《測天圖》中。</t>
+  </si>
+  <si>
+    <t>蒼蠅座（拉丁語：Musca）是位於南天深空的一個小星座，遠離黃道的南天，是荷蘭天文學家皮特魯斯·普蘭修斯根據荷蘭航海家彼得·德克·凱澤和弗雷德裏克·德·豪特曼的天文觀測結果創立的星座。它原來叫做Apis（蜜蜂座），直到18世紀經過拉卡伊之手它才演化為蒼蠅座。在北半球，這個星座位於地平線以下。</t>
+  </si>
+  <si>
+    <t>孔雀座是南天星座之一，名字孔雀（Pavo）的來源是拉丁語“Peacock”一詞。 它是由 Petrus Plancius 從荷蘭人 Pieter Dirkszoon Keyser 和 Frederick de Houtman 的1595-1597年的觀測資料中構想出來的12個星座之一。孔雀座與天鶴座，鳳凰座和杜鵑座被合稱為“南方的小鳥”。在澳大利亞，孔雀座的一部分也被稱作“平底鍋”。</t>
+  </si>
+  <si>
+    <t>鳳凰座是南部較小的星座, 被荷蘭導航員Pieter Dirkszoon Keyser 和Frederick de Houtman所發現，在1603年由Johann貝爾的Uranometria所流傳。雖然不是自古流傳的星座，但是因為車田正美的聖鬥士星矢中人氣角色一輝，而得以廣泛為人所知。</t>
+  </si>
+  <si>
+    <t>杜鵑座是南方的細小星座。它的拉丁名字為Tucana，是大嘴鳥的意思。在1595年至1597年之間由凱澤（Pieter Dirkszoon Keyser）及霍特曼（Frederick de Houtman）所定的。杜鵑座不是一個顯眼的星座，因為所有的恒星都是三等或更暗淡。杜鵑座位於古代文明不可見的天區，因此沒有相關的神話故事。</t>
+  </si>
+  <si>
+    <t>飛魚座是荷蘭人Pieter Dirkszoon Keyser和Frederick de Houtman於1595-1597年觀測和創立的12個南天星座之一,1603年被包括在拜耳恒星命名中。該星座部分恒星屬於中國近南極星區飛魚星官。</t>
+  </si>
+  <si>
+    <t>天鷹座是赤道帶星座之一；在天箭座之南，人馬座之北，大部分在銀河內。傳說，伽倪墨得斯據說是特洛伊的王子。有一天，他替父親看羊時，宙斯在天空經過，一見伽倪墨得斯即對他迷戀，宙斯變身成一只鷹擄走伽倪墨得斯到奧林匹斯山，（有些版本說宙斯遣一只鷹捉走伽倪墨得斯），此鷹就是天鷹座，而伽倪墨得斯從此成為宙斯身旁的倒酒童。</t>
+  </si>
+  <si>
+    <t>傳說，克洛諾斯害怕其子女推翻其統治，於是吞下妻子瑞亞所生之兒女。其妻暗中藏起一個孩子，以石頭調包給克洛諾斯吞下，而把孩子藏於克裏特一個山洞中，此孩子就是宙斯。當宙斯長大後，回到父親克洛諾斯的宮殿，強迫克洛諾斯吐出以前吞下的子女，眾子女和宙斯聯成一陣線設壇立誓推翻克洛諾斯殘暴的統治，經過長達十年的戰爭後，宙斯終取得勝利，為紀念當初立誓之事，故在天上設天壇座。</t>
+  </si>
+  <si>
+    <t>半人馬座（Centaurus）是一個巨大的明亮星座，它擁有兩顆一等大星，半人馬座α星和半人馬座β星。半人馬座區域內有各種令人感興趣的天體。天空中有兩個半人半馬的形象，半人馬座是其中之一（另一個是人馬座）。在希臘神話中，半人馬是一種奔跑迅速，武藝高強的生物，形象可怕，舉止粗魯，好色貪杯。他們當中也有例外，例如半人馬奇戎是多位希臘英雄的導師，當中包括阿斯克勒庇奧斯、忒修斯、阿基裏斯、伊阿宋及海格力斯。</t>
+  </si>
+  <si>
+    <t>南冕座（拉丁文名稱為Corona Australis）是現代88個星座和托勒密定義的48個星座之一。每年6月30日子夜南冕座中心經過上中天。神話傳說認為南冕座是從人馬座頭上掉落的皇冠。1932年，這個星座被國際天文聯會從Corona Australis正式改命為Corona Austrina。然而舊名字Corona Australis仍然被廣泛使用。</t>
+  </si>
+  <si>
+    <t>烏鴉座是南天的一個小星座，現代88個星座和托勒密定義的48個星座之一。烏鴉座包含中國古代星座軫宿。在希臘神話中是為阿波羅取水的烏鴉。因為路上貪玩怠慢，而且取回了一條水蛇，而被阿波羅連杯子（巨爵座）和水蛇（長蛇座）扔到了天上。</t>
+  </si>
+  <si>
+    <t>巨爵座（拉丁文Crater的意思是杯子）是現代88星座和托勒密劃分的48星座之一。在希臘神話中，太陽神阿波羅讓一只烏鴉為他取水。烏鴉在路上懶惰的拖延，且在最終取得水後，帶回一條水蛇作為一個借口。這個騙局被阿波羅看穿，把烏鴉、水杯和蛇一起扔到了天上。巨爵座、烏鴉座和長蛇座甚為接近。</t>
+  </si>
+  <si>
+    <t>南十字座或稱十字架座，位於半人馬座和蒼蠅座之間，是全天88個星座中最小，但最有特色的一個。它的英文名稱源自拉丁文的十字，它的造型就以十字形為主，在北回歸線以南的地方皆可看到整個星座，因此被稱為南十字，以與北十字（天鵝座的中心部分）有所區別。南十字座主要的特征是由四顆恒星構成的十字形，它對南半球的文化有顯著的影響。</t>
+  </si>
+  <si>
+    <t>天鵝座（白鳥座、Cygnus）是北天星座之一。天鵝座的中心部分別名北十字星。傳說，天神宙斯經過雅典北面之拉姆諾斯（Rhamnus），看見復仇女神涅墨西斯而一見鐘情，而涅墨西斯為避開宙斯，變身為不同的動物逃走，先循河道再轉陸路，最後變成天鵝逃走，但經過多番追逐後，仍未能擺脫宙斯的追趕，終被祂化身成的天鵝逮住。</t>
+  </si>
+  <si>
+    <t>武仙座（拉丁語名稱為Hercules）是依據羅馬神話的英雄海格力斯命名的一個星座，而其源頭是希臘神話的英雄赫拉克勒斯。武仙座是二世紀天文學家托勒密列出的48星座之一，它今天仍然是88 現代星座之一。在希臘神話，海格力斯接受邁錫尼國王尤裏斯修斯的命令，執行十二項艱難的任務。</t>
+  </si>
+  <si>
+    <t>長蛇座 是現代88星座中最大的一個，形狀像一條彎曲的長蛇。在希臘神話中為太陽神阿波羅取水的烏鴉（烏鴉座）路上怠慢，而且取回了一條水蛇。阿波羅看穿了這個騙局，把烏鴉、水杯（巨爵座）和水蛇（長蛇座）扔到了天上。這些天區地帶在古代又被稱為“海”。又一說這是神話英雄赫拉克勒斯殺死的九頭蛇（海德拉），為前者的十二項英雄偉績之一。</t>
+  </si>
+  <si>
+    <t>豺狼座，是現代88星座之一，也是托勒密的48星座之一。有時候說它代表希臘神話中的國王Lycaon。托勒密將代表物設定成狼。希臘天文學家喜帕恰斯在前200年左右把它從半人馬座中分出來，稱為“獸”。另外還被和附近的天箭座、半人馬座一起被認為是被神話英雄海格力斯殺死的“厄律曼托斯山上的野豬”。</t>
+  </si>
+  <si>
+    <t>天琴座本身代表的就是由希臘神赫密士創造的樂器。赫密士把這個豎琴送給阿波羅，阿波羅再將其轉送予俄耳甫斯（奧菲斯）。相傳奧菲斯彈得一手好琴，琴聲之悠揚，連山川鳥獸都為之動容。天神宙斯將他的七弦琴移置天界成為星座，供後人追念。</t>
+  </si>
+  <si>
+    <t>天箭座是全天第三小的星座。傳說普羅米修斯從天界盜火授人，觸怒主神宙斯，遂把他以鎖鏈綁於高加索山懸崖上，每天都派一只鷹來啄食他的肝臟，又讓他的肝臟重新愈合，天天如是。直至赫拉克勒斯用箭射死那頭鷹，將普羅米修斯釋放。也有神話故事提到，它是小愛神邱比特的箭，或是人馬座射向天蠍座的箭。</t>
+  </si>
+  <si>
+    <t>盾牌座，Scutum，（拉丁文"盾"）是現代88星座中的一個小星座。它被幾個大星座包圍，包括天鷹座、人馬座及巨蛇座。盾牌座並無有關之神話故事，這星座代表了波蘭國王約翰三世的"揚尼那紋章"。其名字和後發座一樣和真實的歷史人物有關。原來的名字Scutum Sobiescianum（蘇比斯基之盾）是赫維留在1683年後期為了紀念維也納保衛戰中帶領基督教軍隊的的波蘭英雄和國王約翰三世而起的。盾牌座包含中國星官：天弁。</t>
+  </si>
+  <si>
+    <t>巨蛇座是現代88個星座和托勒密定義的48個星座之一。分成兩部分：“蛇頭”（Serpens Caput）和“蛇尾”（Serpens Cauda），蛇夫座位於兩部分中間。巨蛇座為蛇夫座所控之蛇，兩個星座都被認為和醫藥有關。包含中國古代星座：天市右垣、天乳、列肆、天市、左垣、市樓。</t>
+  </si>
+  <si>
+    <t>六分儀座是17世紀由約翰·赫維留創立的一個南天小星座。最亮的星（六分儀座α）視星等4.49。包含好幾對雙星系統：六分儀座γ, 六分儀座35和六分儀座40，另外還有幾個變星。代表著赫維留經常用的測量儀器“六分儀”。</t>
+  </si>
+  <si>
+    <t>1603年，拜爾在他的《恒星誌》中包括了這個遠南天的小星座。它的主要星在太陽的兩個最近的鄰居-半人馬座α和半人馬β星旁邊形成了一個大致等邊的三角形。</t>
+  </si>
+  <si>
+    <t>狐貍座（Vulpecula）是一個位於北天球的模糊星座，設立於17世紀。這個微弱的星座位於銀河一個明亮的區域，因此更加難以觀測。1660年，波蘭天文學家赫維留斯感覺這裏應該設立一個星座。盡管這個區域看起來很不顯眼，但使用雙筒望遠鏡或小型望遠鏡可以發現這是一個有趣的天區。</t>
+  </si>
+  <si>
+    <t>大犬座中的天狼星是夜空中最亮的恒星。大犬座名為萊拉普斯（Laelaps），據稱能捉到世上所有的獵物，它曾有無數主人，其一是雅典皇埃瑞克修斯（Erechtheus）之女、克法洛斯（Cephalus）之妻——普羅克裏斯（Procris），後來，克法洛斯將它送到忒拜（Thebe）郊外，因為那裏住著一只永遠都不會被捉到的狐貍，為了解決這似是而非的事情，宙斯將它們變成石頭，並將萊拉普斯升上天空。</t>
+  </si>
+  <si>
+    <t>小犬座屬於現代八十八現代星座，也是托勒密48星座之一。據說象征著獵戶座的獵犬之一，另一條獵犬是大犬座。小犬座包含中國古代的南河、水位星座。</t>
+  </si>
+  <si>
+    <t>天兔座（拉丁文lepus，兔子）是獵戶座南邊的一個星座，可能代表著獵人（獵戶座）追逐的兔子。是托勒密劃分的48星座之一，也是現代88星座之一。包含中國古代星座：參宿的屏，軍井，廁。</t>
+  </si>
+  <si>
+    <t>獨角獸座（希臘: Μονόκερως）是在天球赤道上的一個黯淡星座，它的名字在希臘的意思是獨角獸。它是由17世紀的荷蘭的制圖員普朗修斯（Plancius）所創建的星座。中國的星官稱為四瀆、闕邱、和外廚，它們都在獨角獸座的邊界內。</t>
+  </si>
+  <si>
+    <t>獵戶座（Orion）是一個非常顯著的星座，也許是夜空中最出名的一個。全世界的人都能看到它那些分布在天赤道上耀眼的星，也是各地人都認得的星座，也因此獵戶座一直有星座之王的美譽，形如獵人俄裏翁站在波江座的河岸，身旁有他的兩頭獵犬大犬座和小犬座，與他一起追逐著金牛座。一些其他的獵物如天兔座都在他的附近。</t>
+  </si>
+  <si>
+    <t>禦夫是雅典之皇埃裏克托尼奧斯（Erichthonius），他是火神赫淮斯托斯之子，養母為女神雅典娜，雅典娜教埃裏克托尼奧斯各技能，包括馴馬技術，使他成為第一個能用四馬禦車之人，宙斯為紀念他將其置於眾星中。也有說法稱禦夫為忒修斯之子希波呂托斯或者赫耳墨斯之子彌爾提洛斯。</t>
+  </si>
+  <si>
+    <t>仙後座，北天星座，代表著埃塞俄比亞皇後卡西歐佩亞。它是國際天文學聯合會88個現代星座之一，也是古希臘天文學家托勒密列出的48個星座其中的一個。她也是仙女座的母親，仙王座的妻子。</t>
+  </si>
+  <si>
+    <t>鯨魚座是南天的一個星座，其名取於希臘神話中的海怪刻托（Cetus）。希臘人認為它是海生怪物，它擁有一個血盆大口，前足如陸上生物，有一條蛇狀的尾。最後被珀耳修斯殺死。</t>
+  </si>
+  <si>
+    <t>蜥蜴座是現代的88星座之一。在1687年為波蘭天文學家赫維留創立。蜥蜴座位於北天，其北部和銀河相交。整個星座位於天鵝座，仙後座和仙女座之間，和仙後座一樣呈W形。包含中國古代星座：車府，螣蛇。沒有有關的古代傳說。赫維留創立本星座之前，有些人把這片星空稱為“正義之杖”或者“肺特烈的榮耀”。</t>
+  </si>
+  <si>
+    <t>在希臘神話中，珀爾修斯殺死了戈耳工美杜莎後，從美杜莎頸腔噴出的血中跳出了一匹飛馬珀伽索斯。這匹長著翅膀的神馬立刻飛到了天上，後來它降落到赫利孔山上，在那裏創造了靈泉，這泉後來成了詩人的靈感之源。雅典娜後來馴服了這匹馬，把它贈給柏勒洛豐，讓他騎著這匹馬旅行。在一次旅行中，飛馬將柏勒洛豐甩下摔死，獨自繼續旅行，最後到達了天界，成為了一個星座。</t>
+  </si>
+  <si>
+    <t>英仙座跨越了秋季的銀河，在有關北天的希臘神話中，英仙珀爾修斯是一個中心人物。他殺死了戈耳工美杜莎，用美杜莎的頭把海中的鯨怪變為石頭。由此他解救了縛在鯨怪經過巖石上的安德洛墨達。本星座代表的就是珀爾修斯。</t>
+  </si>
+  <si>
+    <t>三角座是一個北天星座，它是現代88個星座中的其中一個，也是被托勒密列出的48個星座之一。三角座的設立來源於托勒密的著作。在早期也曾被稱為“Sicilia”，因為西西裏島之神Ceres據說曾哀求朱比特把西西裏島放到天上。</t>
+  </si>
+  <si>
+    <t>LKScorpiusInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKPosition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4232,16 +4217,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="139" workbookViewId="0">
-      <selection activeCell="D276" sqref="D276"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A269" sqref="A269"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="3" width="27.1640625" customWidth="1"/>
+    <col min="2" max="3" width="27.125" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -4303,24 +4288,24 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D4" t="s">
         <v>406</v>
       </c>
-      <c r="D4" t="s">
-        <v>407</v>
-      </c>
       <c r="E4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" t="s">
         <v>411</v>
-      </c>
-      <c r="C5" t="s">
-        <v>412</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -4331,44 +4316,44 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C6" t="s">
         <v>409</v>
       </c>
-      <c r="B6" t="s">
-        <v>413</v>
-      </c>
-      <c r="C6" t="s">
-        <v>410</v>
-      </c>
       <c r="D6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="171" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>666</v>
+        <v>1018</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -4382,36 +4367,36 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B9" t="s">
         <v>415</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>416</v>
       </c>
-      <c r="C9" t="s">
-        <v>417</v>
-      </c>
       <c r="D9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E9" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="210" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>671</v>
+        <v>1019</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -4433,36 +4418,36 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C12" t="s">
         <v>419</v>
-      </c>
-      <c r="C12" t="s">
-        <v>420</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="150" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>676</v>
+        <v>1020</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -4470,7 +4455,7 @@
         <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -4484,36 +4469,36 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E15" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="210" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>681</v>
+        <v>1021</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -4521,7 +4506,7 @@
         <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -4535,10 +4520,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>427</v>
+      </c>
+      <c r="B18" t="s">
         <v>428</v>
-      </c>
-      <c r="B18" t="s">
-        <v>429</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -4550,21 +4535,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="210" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>686</v>
+        <v>1022</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -4586,36 +4571,36 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>429</v>
+      </c>
+      <c r="B21" t="s">
         <v>430</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>431</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>432</v>
       </c>
-      <c r="D21" t="s">
-        <v>433</v>
-      </c>
       <c r="E21" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="210" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>691</v>
+        <v>1023</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -4637,41 +4622,41 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>433</v>
+      </c>
+      <c r="B24" t="s">
         <v>434</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>435</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>436</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>437</v>
       </c>
-      <c r="E24" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="225" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>697</v>
+        <v>1024</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
@@ -4688,13 +4673,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>438</v>
+      </c>
+      <c r="B27" t="s">
         <v>439</v>
       </c>
-      <c r="B27" t="s">
-        <v>440</v>
-      </c>
       <c r="C27" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="D27" t="s">
         <v>37</v>
@@ -4703,21 +4688,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="225" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>702</v>
+        <v>1025</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -4739,36 +4724,36 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>440</v>
+      </c>
+      <c r="B30" t="s">
+        <v>443</v>
+      </c>
+      <c r="C30" t="s">
         <v>441</v>
       </c>
-      <c r="B30" t="s">
-        <v>444</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>442</v>
       </c>
-      <c r="D30" t="s">
-        <v>443</v>
-      </c>
       <c r="E30" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="210" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>708</v>
+        <v>1026</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -4776,7 +4761,7 @@
         <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C32" t="s">
         <v>43</v>
@@ -4790,10 +4775,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
@@ -4805,21 +4790,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="225" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -4827,7 +4812,7 @@
         <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C35" t="s">
         <v>46</v>
@@ -4836,15 +4821,15 @@
         <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B36" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
@@ -4856,21 +4841,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="228" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>653</v>
+        <v>1095</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -4878,7 +4863,7 @@
         <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C38" t="s">
         <v>47</v>
@@ -4892,10 +4877,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>450</v>
+      </c>
+      <c r="B39" t="s">
         <v>451</v>
-      </c>
-      <c r="B39" t="s">
-        <v>452</v>
       </c>
       <c r="C39" t="s">
         <v>53</v>
@@ -4907,21 +4892,21 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="195" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -4929,7 +4914,7 @@
         <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -4943,10 +4928,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C42" t="s">
         <v>54</v>
@@ -4958,21 +4943,21 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="195" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -4980,7 +4965,7 @@
         <v>323</v>
       </c>
       <c r="B44" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C44" t="s">
         <v>67</v>
@@ -4994,10 +4979,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B45" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C45" t="s">
         <v>68</v>
@@ -5009,21 +4994,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="210" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>728</v>
+        <v>1028</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -5045,10 +5030,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B48" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C48" t="s">
         <v>71</v>
@@ -5060,21 +5045,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="180" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="171" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>732</v>
+        <v>1029</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -5082,7 +5067,7 @@
         <v>325</v>
       </c>
       <c r="B50" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C50" t="s">
         <v>73</v>
@@ -5096,10 +5081,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B51" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C51" t="s">
         <v>75</v>
@@ -5111,21 +5096,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="228" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>738</v>
+        <v>1030</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -5133,7 +5118,7 @@
         <v>326</v>
       </c>
       <c r="B53" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C53" t="s">
         <v>77</v>
@@ -5147,36 +5132,36 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>466</v>
+      </c>
+      <c r="B54" t="s">
         <v>467</v>
       </c>
-      <c r="B54" t="s">
-        <v>468</v>
-      </c>
       <c r="C54" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D54" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E54" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="225" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>744</v>
+        <v>727</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>743</v>
+        <v>1031</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -5184,7 +5169,7 @@
         <v>327</v>
       </c>
       <c r="B56" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C56" t="s">
         <v>81</v>
@@ -5198,36 +5183,36 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>469</v>
+      </c>
+      <c r="B57" t="s">
+        <v>468</v>
+      </c>
+      <c r="C57" t="s">
         <v>470</v>
       </c>
-      <c r="B57" t="s">
-        <v>469</v>
-      </c>
-      <c r="C57" t="s">
-        <v>471</v>
-      </c>
       <c r="D57" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E57" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="225" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -5249,10 +5234,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>472</v>
+      </c>
+      <c r="B60" t="s">
         <v>473</v>
-      </c>
-      <c r="B60" t="s">
-        <v>474</v>
       </c>
       <c r="C60" t="s">
         <v>86</v>
@@ -5264,21 +5249,21 @@
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="210" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -5300,10 +5285,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>474</v>
+      </c>
+      <c r="B63" t="s">
         <v>475</v>
-      </c>
-      <c r="B63" t="s">
-        <v>476</v>
       </c>
       <c r="C63" t="s">
         <v>89</v>
@@ -5315,21 +5300,21 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="165" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="171" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>757</v>
+        <v>1032</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>759</v>
+        <v>741</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -5337,7 +5322,7 @@
         <v>330</v>
       </c>
       <c r="B65" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C65" t="s">
         <v>91</v>
@@ -5351,10 +5336,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B66" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C66" t="s">
         <v>93</v>
@@ -5366,21 +5351,21 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="180" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="171" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>762</v>
+        <v>1033</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -5388,7 +5373,7 @@
         <v>331</v>
       </c>
       <c r="B68" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C68" t="s">
         <v>95</v>
@@ -5402,41 +5387,41 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>479</v>
+      </c>
+      <c r="B69" t="s">
         <v>480</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>481</v>
       </c>
-      <c r="C69" t="s">
-        <v>482</v>
-      </c>
       <c r="D69" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E69" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="150" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>767</v>
+        <v>1034</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B71" t="s">
         <v>98</v>
@@ -5453,36 +5438,36 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>484</v>
+      </c>
+      <c r="B72" t="s">
+        <v>486</v>
+      </c>
+      <c r="C72" t="s">
         <v>485</v>
       </c>
-      <c r="B72" t="s">
-        <v>487</v>
-      </c>
-      <c r="C72" t="s">
-        <v>486</v>
-      </c>
       <c r="D72" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E72" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="105" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>778</v>
+        <v>1035</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>779</v>
+        <v>757</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -5490,7 +5475,7 @@
         <v>332</v>
       </c>
       <c r="B74" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C74" t="s">
         <v>100</v>
@@ -5504,10 +5489,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B75" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C75" t="s">
         <v>101</v>
@@ -5519,21 +5504,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="225" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>775</v>
+        <v>754</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>773</v>
+        <v>1036</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -5541,7 +5526,7 @@
         <v>333</v>
       </c>
       <c r="B77" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C77" t="s">
         <v>103</v>
@@ -5555,36 +5540,36 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>490</v>
+      </c>
+      <c r="B78" t="s">
+        <v>493</v>
+      </c>
+      <c r="C78" t="s">
         <v>491</v>
       </c>
-      <c r="B78" t="s">
-        <v>494</v>
-      </c>
-      <c r="C78" t="s">
-        <v>492</v>
-      </c>
       <c r="D78" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E78" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="120" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="114" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>780</v>
+        <v>758</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>783</v>
+        <v>760</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>782</v>
+        <v>1037</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>784</v>
+        <v>761</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -5592,7 +5577,7 @@
         <v>334</v>
       </c>
       <c r="B80" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C80" t="s">
         <v>106</v>
@@ -5606,36 +5591,36 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>494</v>
+      </c>
+      <c r="B81" t="s">
+        <v>497</v>
+      </c>
+      <c r="C81" t="s">
         <v>495</v>
       </c>
-      <c r="B81" t="s">
-        <v>498</v>
-      </c>
-      <c r="C81" t="s">
-        <v>496</v>
-      </c>
       <c r="D81" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E81" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="195" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>785</v>
+        <v>762</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>788</v>
+        <v>764</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>786</v>
+        <v>763</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>787</v>
+        <v>1038</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>789</v>
+        <v>765</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -5643,7 +5628,7 @@
         <v>335</v>
       </c>
       <c r="B83" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C83" t="s">
         <v>108</v>
@@ -5657,10 +5642,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B84" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C84" t="s">
         <v>110</v>
@@ -5672,21 +5657,21 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="210" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>790</v>
+        <v>766</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>793</v>
+        <v>768</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>791</v>
+        <v>767</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>792</v>
+        <v>1039</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>794</v>
+        <v>769</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -5694,7 +5679,7 @@
         <v>336</v>
       </c>
       <c r="B86" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C86" t="s">
         <v>112</v>
@@ -5708,36 +5693,36 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>501</v>
+      </c>
+      <c r="B87" t="s">
         <v>502</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>503</v>
       </c>
-      <c r="C87" t="s">
-        <v>504</v>
-      </c>
       <c r="D87" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E87" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="195" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>795</v>
+        <v>770</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>798</v>
+        <v>773</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>796</v>
+        <v>771</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>799</v>
+        <v>1040</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>797</v>
+        <v>772</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -5745,7 +5730,7 @@
         <v>337</v>
       </c>
       <c r="B89" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C89" t="s">
         <v>115</v>
@@ -5759,36 +5744,36 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>506</v>
+      </c>
+      <c r="B90" t="s">
+        <v>505</v>
+      </c>
+      <c r="C90" t="s">
         <v>507</v>
       </c>
-      <c r="B90" t="s">
-        <v>506</v>
-      </c>
-      <c r="C90" t="s">
-        <v>508</v>
-      </c>
       <c r="D90" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E90" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>800</v>
+        <v>774</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>802</v>
+        <v>776</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>803</v>
+        <v>1041</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>804</v>
+        <v>777</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -5810,10 +5795,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>508</v>
+      </c>
+      <c r="B93" t="s">
         <v>509</v>
-      </c>
-      <c r="B93" t="s">
-        <v>510</v>
       </c>
       <c r="C93" t="s">
         <v>118</v>
@@ -5825,21 +5810,21 @@
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="225" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>773</v>
+        <v>1036</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -5861,10 +5846,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>510</v>
+      </c>
+      <c r="B96" t="s">
         <v>511</v>
-      </c>
-      <c r="B96" t="s">
-        <v>512</v>
       </c>
       <c r="C96" t="s">
         <v>122</v>
@@ -5876,21 +5861,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="210" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>809</v>
+        <v>782</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>808</v>
+        <v>781</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>811</v>
+        <v>1042</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>810</v>
+        <v>783</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -5912,10 +5897,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B99" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C99" t="s">
         <v>125</v>
@@ -5927,21 +5912,21 @@
         <v>125</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="225" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>807</v>
+        <v>780</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>773</v>
+        <v>1036</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -5963,10 +5948,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B102" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C102" t="s">
         <v>128</v>
@@ -5978,21 +5963,21 @@
         <v>128</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="225" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="228" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>812</v>
+        <v>784</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>815</v>
+        <v>786</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>813</v>
+        <v>785</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>814</v>
+        <v>1043</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>816</v>
+        <v>787</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -6000,7 +5985,7 @@
         <v>342</v>
       </c>
       <c r="B104" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C104" t="s">
         <v>132</v>
@@ -6014,36 +5999,36 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>516</v>
+      </c>
+      <c r="B105" t="s">
+        <v>518</v>
+      </c>
+      <c r="C105" t="s">
         <v>517</v>
       </c>
-      <c r="B105" t="s">
-        <v>519</v>
-      </c>
-      <c r="C105" t="s">
-        <v>518</v>
-      </c>
       <c r="D105" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E105" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="210" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>817</v>
+        <v>788</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>825</v>
+        <v>795</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>818</v>
+        <v>789</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>819</v>
+        <v>1044</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>820</v>
+        <v>790</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -6051,7 +6036,7 @@
         <v>343</v>
       </c>
       <c r="B107" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C107" t="s">
         <v>181</v>
@@ -6065,36 +6050,36 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B108" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C108" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D108" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E108" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="180" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="171" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>821</v>
+        <v>791</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>835</v>
+        <v>804</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>833</v>
+        <v>803</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>834</v>
+        <v>1045</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>836</v>
+        <v>805</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -6116,10 +6101,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B111" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C111" t="s">
         <v>184</v>
@@ -6131,21 +6116,21 @@
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="150" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>822</v>
+        <v>792</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>839</v>
+        <v>807</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>837</v>
+        <v>806</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>838</v>
+        <v>1046</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>840</v>
+        <v>808</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -6167,10 +6152,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>524</v>
+      </c>
+      <c r="B114" t="s">
         <v>525</v>
-      </c>
-      <c r="B114" t="s">
-        <v>526</v>
       </c>
       <c r="C114" t="s">
         <v>187</v>
@@ -6182,21 +6167,21 @@
         <v>187</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="165" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>823</v>
+        <v>793</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>843</v>
+        <v>810</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>841</v>
+        <v>809</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>842</v>
+        <v>1047</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>844</v>
+        <v>811</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -6218,10 +6203,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>526</v>
+      </c>
+      <c r="B117" t="s">
         <v>527</v>
-      </c>
-      <c r="B117" t="s">
-        <v>528</v>
       </c>
       <c r="C117" t="s">
         <v>189</v>
@@ -6233,21 +6218,21 @@
         <v>189</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="150" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>824</v>
+        <v>794</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>849</v>
+        <v>815</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>845</v>
+        <v>812</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>846</v>
+        <v>813</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>850</v>
+        <v>816</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -6269,10 +6254,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>528</v>
+      </c>
+      <c r="B120" t="s">
         <v>529</v>
-      </c>
-      <c r="B120" t="s">
-        <v>530</v>
       </c>
       <c r="C120" t="s">
         <v>192</v>
@@ -6284,21 +6269,21 @@
         <v>192</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="150" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>826</v>
+        <v>796</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>851</v>
+        <v>817</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>848</v>
+        <v>1048</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>852</v>
+        <v>818</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -6320,10 +6305,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>530</v>
+      </c>
+      <c r="B123" t="s">
         <v>531</v>
-      </c>
-      <c r="B123" t="s">
-        <v>532</v>
       </c>
       <c r="C123" t="s">
         <v>194</v>
@@ -6335,21 +6320,21 @@
         <v>194</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="180" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>827</v>
+        <v>797</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>855</v>
+        <v>820</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>853</v>
+        <v>819</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>854</v>
+        <v>1049</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>856</v>
+        <v>821</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -6371,10 +6356,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B126" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C126" t="s">
         <v>197</v>
@@ -6386,21 +6371,21 @@
         <v>197</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="180" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" ht="171" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>828</v>
+        <v>798</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>859</v>
+        <v>823</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>857</v>
+        <v>822</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>858</v>
+        <v>1050</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>860</v>
+        <v>824</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -6422,10 +6407,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B129" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C129" t="s">
         <v>200</v>
@@ -6437,21 +6422,21 @@
         <v>200</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="135" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>829</v>
+        <v>799</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>863</v>
+        <v>826</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>861</v>
+        <v>825</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>862</v>
+        <v>1051</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>864</v>
+        <v>827</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -6473,10 +6458,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C132" t="s">
         <v>203</v>
@@ -6488,21 +6473,21 @@
         <v>203</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="120" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" ht="114" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>800</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>830</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -6524,10 +6509,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>538</v>
+      </c>
+      <c r="B135" t="s">
         <v>539</v>
-      </c>
-      <c r="B135" t="s">
-        <v>540</v>
       </c>
       <c r="C135" t="s">
         <v>205</v>
@@ -6539,21 +6524,21 @@
         <v>205</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="120" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" ht="114" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>801</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>869</v>
-      </c>
       <c r="D136" s="2" t="s">
-        <v>870</v>
+        <v>1053</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>871</v>
+        <v>832</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -6575,10 +6560,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B138" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C138" t="s">
         <v>208</v>
@@ -6590,21 +6575,21 @@
         <v>208</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="150" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>832</v>
+        <v>802</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>875</v>
+        <v>835</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>873</v>
+        <v>834</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>874</v>
+        <v>1054</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>876</v>
+        <v>836</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -6626,10 +6611,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B141" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C141" t="s">
         <v>211</v>
@@ -6641,21 +6626,21 @@
         <v>211</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="120" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" ht="114" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>877</v>
+        <v>837</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>887</v>
+        <v>845</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>882</v>
+        <v>842</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>886</v>
+        <v>1055</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>888</v>
+        <v>846</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -6666,10 +6651,10 @@
         <v>213</v>
       </c>
       <c r="C143" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D143" t="s">
-        <v>884</v>
+        <v>844</v>
       </c>
       <c r="E143" t="s">
         <v>214</v>
@@ -6677,10 +6662,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B144" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C144" t="s">
         <v>213</v>
@@ -6692,21 +6677,21 @@
         <v>213</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>878</v>
+        <v>838</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>889</v>
+        <v>847</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>883</v>
+        <v>843</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>885</v>
+        <v>1056</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>890</v>
+        <v>848</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -6728,10 +6713,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B147" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C147" t="s">
         <v>216</v>
@@ -6743,21 +6728,21 @@
         <v>216</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="135" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>879</v>
+        <v>839</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>893</v>
+        <v>850</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>891</v>
+        <v>849</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>892</v>
+        <v>1057</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>894</v>
+        <v>851</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -6779,10 +6764,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B150" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C150" t="s">
         <v>219</v>
@@ -6794,21 +6779,21 @@
         <v>219</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="135" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>880</v>
+        <v>840</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>896</v>
+        <v>853</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>895</v>
+        <v>852</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>895</v>
+        <v>852</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>897</v>
+        <v>854</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -6830,10 +6815,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B153" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C153" t="s">
         <v>221</v>
@@ -6845,21 +6830,21 @@
         <v>221</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="150" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>881</v>
+        <v>841</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>906</v>
+        <v>862</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>898</v>
+        <v>855</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>905</v>
+        <v>1058</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>907</v>
+        <v>863</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -6881,10 +6866,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B156" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C156" t="s">
         <v>224</v>
@@ -6896,21 +6881,21 @@
         <v>224</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="135" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>899</v>
+        <v>856</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>910</v>
+        <v>865</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>908</v>
+        <v>864</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>909</v>
+        <v>1059</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>911</v>
+        <v>866</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -6932,10 +6917,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B159" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C159" t="s">
         <v>226</v>
@@ -6947,21 +6932,21 @@
         <v>226</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="180" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" ht="171" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>900</v>
+        <v>857</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>914</v>
+        <v>868</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>912</v>
+        <v>867</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>913</v>
+        <v>1060</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>915</v>
+        <v>869</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -6983,10 +6968,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B162" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C162" t="s">
         <v>228</v>
@@ -6998,21 +6983,21 @@
         <v>228</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="210" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>901</v>
+        <v>858</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>919</v>
+        <v>872</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>916</v>
+        <v>870</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>917</v>
+        <v>1061</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>918</v>
+        <v>871</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -7034,10 +7019,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B165" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C165" t="s">
         <v>231</v>
@@ -7049,21 +7034,21 @@
         <v>231</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="165" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>902</v>
+        <v>859</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>922</v>
+        <v>874</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>920</v>
+        <v>873</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>921</v>
+        <v>1062</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>923</v>
+        <v>875</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -7085,10 +7070,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B168" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C168" t="s">
         <v>233</v>
@@ -7100,21 +7085,21 @@
         <v>233</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="165" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>903</v>
+        <v>860</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>926</v>
+        <v>877</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>924</v>
+        <v>876</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>925</v>
+        <v>1063</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>927</v>
+        <v>878</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -7136,10 +7121,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B171" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C171" t="s">
         <v>237</v>
@@ -7151,21 +7136,21 @@
         <v>237</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="105" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>904</v>
+        <v>861</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>930</v>
+        <v>880</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>928</v>
+        <v>879</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>929</v>
+        <v>1064</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>931</v>
+        <v>881</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -7187,10 +7172,10 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B174" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C174" t="s">
         <v>240</v>
@@ -7202,21 +7187,21 @@
         <v>240</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="195" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>932</v>
+        <v>882</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>937</v>
+        <v>886</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>935</v>
+        <v>885</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>936</v>
+        <v>1065</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>938</v>
+        <v>887</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -7238,10 +7223,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B177" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C177" t="s">
         <v>243</v>
@@ -7253,21 +7238,21 @@
         <v>243</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="210" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>933</v>
+        <v>883</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>941</v>
+        <v>889</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>939</v>
+        <v>888</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>940</v>
+        <v>1066</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>942</v>
+        <v>890</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -7289,10 +7274,10 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>569</v>
+      </c>
+      <c r="B180" t="s">
         <v>570</v>
-      </c>
-      <c r="B180" t="s">
-        <v>571</v>
       </c>
       <c r="C180" t="s">
         <v>246</v>
@@ -7304,21 +7289,21 @@
         <v>246</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="225" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>934</v>
+        <v>884</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>945</v>
+        <v>892</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>943</v>
+        <v>891</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>944</v>
+        <v>1067</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>946</v>
+        <v>893</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -7340,10 +7325,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B183" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C183" t="s">
         <v>248</v>
@@ -7355,21 +7340,21 @@
         <v>248</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="180" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>947</v>
+        <v>894</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>951</v>
+        <v>898</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>953</v>
+        <v>899</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>952</v>
+        <v>1068</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>954</v>
+        <v>900</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -7391,10 +7376,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>573</v>
+      </c>
+      <c r="B186" t="s">
         <v>574</v>
-      </c>
-      <c r="B186" t="s">
-        <v>575</v>
       </c>
       <c r="C186" t="s">
         <v>252</v>
@@ -7406,21 +7391,21 @@
         <v>252</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="165" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>948</v>
+        <v>895</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>958</v>
+        <v>903</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>955</v>
+        <v>901</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>956</v>
+        <v>1069</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>957</v>
+        <v>902</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -7442,10 +7427,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
+        <v>575</v>
+      </c>
+      <c r="B189" t="s">
         <v>576</v>
-      </c>
-      <c r="B189" t="s">
-        <v>577</v>
       </c>
       <c r="C189" t="s">
         <v>255</v>
@@ -7457,21 +7442,21 @@
         <v>255</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="165" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>949</v>
+        <v>896</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>961</v>
+        <v>905</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>959</v>
+        <v>904</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>960</v>
+        <v>1070</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>962</v>
+        <v>906</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -7493,10 +7478,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>577</v>
+      </c>
+      <c r="B192" t="s">
         <v>578</v>
-      </c>
-      <c r="B192" t="s">
-        <v>579</v>
       </c>
       <c r="C192" t="s">
         <v>257</v>
@@ -7508,21 +7493,21 @@
         <v>257</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="195" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>950</v>
+        <v>897</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>972</v>
+        <v>915</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>970</v>
+        <v>914</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>971</v>
+        <v>1071</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>973</v>
+        <v>916</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -7544,10 +7529,10 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>579</v>
+      </c>
+      <c r="B195" t="s">
         <v>580</v>
-      </c>
-      <c r="B195" t="s">
-        <v>581</v>
       </c>
       <c r="C195" t="s">
         <v>262</v>
@@ -7559,21 +7544,21 @@
         <v>262</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="195" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>966</v>
+        <v>910</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>976</v>
+        <v>918</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>974</v>
+        <v>917</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>975</v>
+        <v>1072</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>977</v>
+        <v>919</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -7595,10 +7580,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B198" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C198" t="s">
         <v>265</v>
@@ -7610,21 +7595,21 @@
         <v>265</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="180" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" ht="171" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>967</v>
+        <v>911</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>978</v>
+        <v>920</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>979</v>
+        <v>921</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>980</v>
+        <v>1073</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>981</v>
+        <v>922</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -7646,10 +7631,10 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B201" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C201" t="s">
         <v>267</v>
@@ -7661,21 +7646,21 @@
         <v>267</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="210" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>968</v>
+        <v>912</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>985</v>
+        <v>925</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>983</v>
+        <v>924</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>984</v>
+        <v>1074</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>986</v>
+        <v>926</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -7686,10 +7671,10 @@
         <v>269</v>
       </c>
       <c r="C203" t="s">
+        <v>585</v>
+      </c>
+      <c r="D203" t="s">
         <v>586</v>
-      </c>
-      <c r="D203" t="s">
-        <v>587</v>
       </c>
       <c r="E203" t="s">
         <v>270</v>
@@ -7697,10 +7682,10 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B204" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C204" t="s">
         <v>269</v>
@@ -7712,21 +7697,21 @@
         <v>269</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="180" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" ht="171" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>969</v>
+        <v>913</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>991</v>
+        <v>930</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>989</v>
+        <v>929</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>990</v>
+        <v>1075</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>992</v>
+        <v>931</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -7748,10 +7733,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B207" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C207" t="s">
         <v>271</v>
@@ -7763,21 +7748,21 @@
         <v>271</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="150" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>982</v>
+        <v>923</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>995</v>
+        <v>933</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>993</v>
+        <v>932</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>994</v>
+        <v>1076</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>996</v>
+        <v>934</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -7799,10 +7784,10 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B210" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C210" t="s">
         <v>274</v>
@@ -7814,21 +7799,21 @@
         <v>274</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="165" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>656</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>663</v>
-      </c>
       <c r="C211" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>661</v>
+        <v>1077</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -7850,10 +7835,10 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B213" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C213" t="s">
         <v>277</v>
@@ -7865,21 +7850,21 @@
         <v>277</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="210" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>963</v>
+        <v>907</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1017</v>
+        <v>955</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>1016</v>
+        <v>954</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>1019</v>
+        <v>1078</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>1018</v>
+        <v>956</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -7901,10 +7886,10 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B216" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C216" t="s">
         <v>278</v>
@@ -7916,21 +7901,21 @@
         <v>278</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="165" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>964</v>
+        <v>908</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>1022</v>
+        <v>958</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>1020</v>
+        <v>957</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>1021</v>
+        <v>1079</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>1023</v>
+        <v>959</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -7952,10 +7937,10 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B219" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C219" t="s">
         <v>281</v>
@@ -7967,21 +7952,21 @@
         <v>281</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="120" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" ht="114" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>965</v>
+        <v>909</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>1026</v>
+        <v>961</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>1024</v>
+        <v>960</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>1025</v>
+        <v>1080</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>1027</v>
+        <v>962</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -8003,10 +7988,10 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B222" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C222" t="s">
         <v>283</v>
@@ -8018,21 +8003,21 @@
         <v>283</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="135" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>997</v>
+        <v>935</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>1029</v>
+        <v>964</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>1028</v>
+        <v>963</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>1030</v>
+        <v>1081</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>1031</v>
+        <v>965</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -8054,10 +8039,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B225" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C225" t="s">
         <v>286</v>
@@ -8069,21 +8054,21 @@
         <v>286</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="165" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>998</v>
+        <v>936</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>1035</v>
+        <v>968</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>1032</v>
+        <v>966</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>1033</v>
+        <v>1082</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>1034</v>
+        <v>967</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -8105,10 +8090,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B228" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C228" t="s">
         <v>288</v>
@@ -8120,21 +8105,21 @@
         <v>288</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="225" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>999</v>
+        <v>937</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>1038</v>
+        <v>970</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>1036</v>
+        <v>969</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>1037</v>
+        <v>1083</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>1039</v>
+        <v>971</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -8156,10 +8141,10 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B231" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C231" t="s">
         <v>291</v>
@@ -8171,21 +8156,21 @@
         <v>291</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="105" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>1043</v>
+        <v>974</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>1040</v>
+        <v>972</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>1042</v>
+        <v>1084</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>1041</v>
+        <v>973</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
@@ -8207,10 +8192,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B234" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C234" t="s">
         <v>294</v>
@@ -8222,21 +8207,21 @@
         <v>294</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="105" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1001</v>
+        <v>939</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>1046</v>
+        <v>976</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>1044</v>
+        <v>975</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>1045</v>
+        <v>1085</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>1047</v>
+        <v>977</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -8247,10 +8232,10 @@
         <v>296</v>
       </c>
       <c r="C236" t="s">
+        <v>621</v>
+      </c>
+      <c r="D236" t="s">
         <v>622</v>
-      </c>
-      <c r="D236" t="s">
-        <v>623</v>
       </c>
       <c r="E236" t="s">
         <v>297</v>
@@ -8258,10 +8243,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B237" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C237" t="s">
         <v>296</v>
@@ -8273,21 +8258,21 @@
         <v>296</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="135" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1002</v>
+        <v>940</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>1051</v>
+        <v>980</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>1048</v>
+        <v>978</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>1049</v>
+        <v>1086</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>1050</v>
+        <v>979</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -8309,10 +8294,10 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B240" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C240" t="s">
         <v>299</v>
@@ -8324,21 +8309,21 @@
         <v>299</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="195" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1003</v>
+        <v>941</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>1054</v>
+        <v>982</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>1052</v>
+        <v>981</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>1053</v>
+        <v>1087</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>1055</v>
+        <v>983</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -8360,10 +8345,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B243" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C243" t="s">
         <v>302</v>
@@ -8375,21 +8360,21 @@
         <v>302</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" ht="228" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1004</v>
+        <v>942</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>1058</v>
+        <v>986</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>1057</v>
+        <v>985</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>1056</v>
+        <v>984</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>1059</v>
+        <v>987</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -8411,10 +8396,10 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B246" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C246" t="s">
         <v>304</v>
@@ -8426,21 +8411,21 @@
         <v>304</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="165" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1005</v>
+        <v>943</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>1062</v>
+        <v>989</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>1060</v>
+        <v>988</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>1061</v>
+        <v>1088</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>1063</v>
+        <v>990</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -8462,10 +8447,10 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B249" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C249" t="s">
         <v>307</v>
@@ -8477,21 +8462,21 @@
         <v>307</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="105" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1006</v>
+        <v>944</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>1066</v>
+        <v>993</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>1068</v>
+        <v>994</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>1067</v>
+        <v>1089</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>1069</v>
+        <v>995</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -8513,10 +8498,10 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B252" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C252" t="s">
         <v>309</v>
@@ -8528,21 +8513,21 @@
         <v>309</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1007</v>
+        <v>945</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>1070</v>
+        <v>996</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>1064</v>
+        <v>991</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>1065</v>
+        <v>992</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>1071</v>
+        <v>997</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
@@ -8564,10 +8549,10 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B255" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C255" t="s">
         <v>312</v>
@@ -8579,21 +8564,21 @@
         <v>312</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="135" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1008</v>
+        <v>946</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1074</v>
+        <v>999</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>1072</v>
+        <v>998</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>1073</v>
+        <v>1090</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>1075</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -8604,10 +8589,10 @@
         <v>314</v>
       </c>
       <c r="C257" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D257" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E257" t="s">
         <v>315</v>
@@ -8615,10 +8600,10 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B258" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C258" t="s">
         <v>314</v>
@@ -8630,21 +8615,21 @@
         <v>314</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="165" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1009</v>
+        <v>947</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1078</v>
+        <v>1002</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>1076</v>
+        <v>1001</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>1077</v>
+        <v>1091</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>1079</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -8655,7 +8640,7 @@
         <v>316</v>
       </c>
       <c r="C260" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D260" t="s">
         <v>177</v>
@@ -8666,10 +8651,10 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B261" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C261" t="s">
         <v>316</v>
@@ -8681,21 +8666,21 @@
         <v>316</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="195" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1010</v>
+        <v>948</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>1081</v>
+        <v>1005</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>1080</v>
+        <v>1004</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>1083</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -8717,10 +8702,10 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B264" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C264" t="s">
         <v>319</v>
@@ -8732,21 +8717,21 @@
         <v>319</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="165" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
+        <v>949</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="B265" s="2" t="s">
-        <v>1090</v>
-      </c>
       <c r="C265" s="2" t="s">
-        <v>1088</v>
+        <v>1010</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>1091</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -8768,10 +8753,10 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B267" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C267" t="s">
         <v>321</v>
@@ -8783,157 +8768,157 @@
         <v>321</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="135" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1012</v>
+        <v>950</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>1086</v>
+        <v>1008</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>1084</v>
+        <v>1007</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>1085</v>
+        <v>1094</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>1087</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B269" t="s">
         <v>397</v>
       </c>
-      <c r="B269" t="s">
-        <v>398</v>
-      </c>
       <c r="C269" t="s">
+        <v>400</v>
+      </c>
+      <c r="D269" t="s">
         <v>401</v>
       </c>
-      <c r="D269" t="s">
-        <v>402</v>
-      </c>
       <c r="E269" t="s">
-        <v>988</v>
+        <v>928</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
+        <v>398</v>
+      </c>
+      <c r="B270" t="s">
         <v>399</v>
       </c>
-      <c r="B270" t="s">
-        <v>400</v>
-      </c>
       <c r="C270" t="s">
-        <v>1013</v>
+        <v>951</v>
       </c>
       <c r="D270" t="s">
-        <v>1014</v>
+        <v>952</v>
       </c>
       <c r="E270" t="s">
-        <v>1015</v>
+        <v>953</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B271" t="s">
+        <v>402</v>
+      </c>
+      <c r="C271" t="s">
+        <v>927</v>
+      </c>
+      <c r="D271" t="s">
         <v>403</v>
       </c>
-      <c r="C271" t="s">
-        <v>987</v>
-      </c>
-      <c r="D271" t="s">
+      <c r="E271" t="s">
         <v>404</v>
-      </c>
-      <c r="E271" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B272" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C272" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D272" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E272" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B273" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C273" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D273" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E273" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B274" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C274" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D274" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E274" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B275" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C275" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D275" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E275" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1092</v>
+        <v>1013</v>
       </c>
       <c r="B276" t="s">
-        <v>1094</v>
+        <v>1015</v>
       </c>
       <c r="C276" t="s">
-        <v>1093</v>
+        <v>1014</v>
       </c>
       <c r="D276" t="s">
-        <v>1096</v>
+        <v>1017</v>
       </c>
       <c r="E276" t="s">
-        <v>1095</v>
+        <v>1016</v>
       </c>
     </row>
   </sheetData>

--- a/template/Localization.xlsx
+++ b/template/Localization.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyan/Projects/Dunkleosteus/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,18 +19,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="1135">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,9 +364,6 @@
     <t>小熊座</t>
   </si>
   <si>
-    <t>おおぐま座</t>
-  </si>
-  <si>
     <t>Ursa Minor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -895,9 +897,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ヘルクレス座</t>
-  </si>
-  <si>
     <t>Hercules</t>
   </si>
   <si>
@@ -1022,10 +1021,6 @@
     <t>Orion</t>
   </si>
   <si>
-    <t>オリオン座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仙女座</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1093,10 +1088,6 @@
   </si>
   <si>
     <t>Perseus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ペルセウス座</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3849,13 +3840,180 @@
   </si>
   <si>
     <t>LKPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKZodiac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zodiac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKUrsaMajor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKPerseus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKOrion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKBayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKLaCaille</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大熊族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大熊族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おおぐま座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おおぐま</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perseus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英仙族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perseus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ペルセウス座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ペルセウス</t>
+  </si>
+  <si>
+    <t>LKHercules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武仙族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武仙族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヘルクレス座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヘルクレス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎户族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獵戶族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>オリオン座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>オリオン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKHeavenlyWaters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heavenly Waters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻之水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻之水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天国の海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ラカーユ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>バイエル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拜耳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拜耳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>La Caille</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉卡伊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉卡伊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4215,18 +4373,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E276"/>
+  <dimension ref="A1:E284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A269" sqref="A269"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="118" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D284" sqref="D284"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="3" width="27.125" customWidth="1"/>
+    <col min="2" max="3" width="27.1640625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -4288,24 +4446,24 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C5" t="s">
         <v>407</v>
-      </c>
-      <c r="B5" t="s">
-        <v>410</v>
-      </c>
-      <c r="C5" t="s">
-        <v>411</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -4316,44 +4474,44 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6" t="s">
         <v>408</v>
       </c>
-      <c r="B6" t="s">
-        <v>412</v>
-      </c>
       <c r="C6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E6" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="171" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B8" t="s">
         <v>413</v>
-      </c>
-      <c r="B8" t="s">
-        <v>417</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -4367,36 +4525,36 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B9" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C9" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D9" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E9" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="210" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -4418,36 +4576,36 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B12" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C12" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="150" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -4455,7 +4613,7 @@
         <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -4469,36 +4627,36 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>417</v>
+      </c>
+      <c r="B15" t="s">
         <v>421</v>
       </c>
-      <c r="B15" t="s">
-        <v>425</v>
-      </c>
       <c r="C15" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D15" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E15" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="210" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -4506,7 +4664,7 @@
         <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -4520,10 +4678,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B18" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -4535,21 +4693,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="210" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -4571,36 +4729,36 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B21" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C21" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D21" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E21" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="210" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -4622,41 +4780,41 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>429</v>
+      </c>
+      <c r="B24" t="s">
+        <v>430</v>
+      </c>
+      <c r="C24" t="s">
+        <v>431</v>
+      </c>
+      <c r="D24" t="s">
+        <v>432</v>
+      </c>
+      <c r="E24" t="s">
         <v>433</v>
       </c>
-      <c r="B24" t="s">
-        <v>434</v>
-      </c>
-      <c r="C24" t="s">
-        <v>435</v>
-      </c>
-      <c r="D24" t="s">
-        <v>436</v>
-      </c>
-      <c r="E24" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" ht="225" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
@@ -4673,13 +4831,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B27" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C27" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D27" t="s">
         <v>37</v>
@@ -4688,21 +4846,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="225" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>685</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>689</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -4724,36 +4882,36 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B30" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C30" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D30" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E30" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="210" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -4761,7 +4919,7 @@
         <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C32" t="s">
         <v>43</v>
@@ -4775,10 +4933,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B33" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
@@ -4790,21 +4948,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="225" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>694</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>698</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -4812,7 +4970,7 @@
         <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C35" t="s">
         <v>46</v>
@@ -4821,15 +4979,15 @@
         <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B36" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
@@ -4841,21 +4999,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="228" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -4863,7 +5021,7 @@
         <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C38" t="s">
         <v>47</v>
@@ -4877,10 +5035,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B39" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C39" t="s">
         <v>53</v>
@@ -4892,21 +5050,21 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="195" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>699</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -4914,7 +5072,7 @@
         <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -4928,10 +5086,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B42" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C42" t="s">
         <v>54</v>
@@ -4943,29 +5101,29 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="195" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>704</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B44" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C44" t="s">
         <v>67</v>
@@ -4979,10 +5137,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B45" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C45" t="s">
         <v>68</v>
@@ -4994,26 +5152,26 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="210" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B47" t="s">
         <v>71</v>
@@ -5030,10 +5188,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B48" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C48" t="s">
         <v>71</v>
@@ -5045,29 +5203,29 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="171" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="180" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B50" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C50" t="s">
         <v>73</v>
@@ -5081,10 +5239,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B51" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C51" t="s">
         <v>75</v>
@@ -5096,29 +5254,29 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="228" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C53" t="s">
         <v>77</v>
@@ -5132,44 +5290,44 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B54" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C54" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D54" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E54" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="225" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B56" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C56" t="s">
         <v>81</v>
@@ -5183,41 +5341,41 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B57" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C57" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D57" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E57" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="225" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B59" t="s">
         <v>86</v>
@@ -5234,10 +5392,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B60" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C60" t="s">
         <v>86</v>
@@ -5249,26 +5407,26 @@
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="210" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>729</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>733</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B62" t="s">
         <v>89</v>
@@ -5285,10 +5443,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B63" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C63" t="s">
         <v>89</v>
@@ -5300,29 +5458,29 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="171" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="165" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B65" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C65" t="s">
         <v>91</v>
@@ -5336,10 +5494,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B66" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C66" t="s">
         <v>93</v>
@@ -5351,29 +5509,29 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="171" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="180" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B68" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C68" t="s">
         <v>95</v>
@@ -5382,49 +5540,49 @@
         <v>96</v>
       </c>
       <c r="E68" t="s">
-        <v>97</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B69" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C69" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D69" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E69" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="150" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C71" t="s">
         <v>96</v>
@@ -5433,2956 +5591,2956 @@
         <v>96</v>
       </c>
       <c r="E71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B72" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C72" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D72" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E72" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="105" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B74" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B75" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E75" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="225" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B77" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C77" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" t="s">
         <v>103</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>104</v>
-      </c>
-      <c r="E77" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B78" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C78" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D78" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E78" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="114" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="120" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B80" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C80" t="s">
+        <v>105</v>
+      </c>
+      <c r="D80" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80" t="s">
         <v>106</v>
-      </c>
-      <c r="D80" t="s">
-        <v>106</v>
-      </c>
-      <c r="E80" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B81" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C81" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D81" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E81" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="195" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B83" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C83" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" t="s">
         <v>108</v>
       </c>
-      <c r="D83" t="s">
-        <v>109</v>
-      </c>
       <c r="E83" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B84" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C84" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E84" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="210" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B86" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C86" t="s">
+        <v>111</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" t="s">
         <v>112</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E86" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B87" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C87" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D87" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E87" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="195" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B89" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C89" t="s">
+        <v>114</v>
+      </c>
+      <c r="D89" t="s">
+        <v>113</v>
+      </c>
+      <c r="E89" t="s">
         <v>115</v>
-      </c>
-      <c r="D89" t="s">
-        <v>114</v>
-      </c>
-      <c r="E89" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B90" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C90" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D90" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E90" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="242.25" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B92" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" t="s">
+        <v>116</v>
+      </c>
+      <c r="D92" t="s">
+        <v>116</v>
+      </c>
+      <c r="E92" t="s">
         <v>118</v>
-      </c>
-      <c r="C92" t="s">
-        <v>117</v>
-      </c>
-      <c r="D92" t="s">
-        <v>117</v>
-      </c>
-      <c r="E92" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B93" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E93" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="225" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B95" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95" t="s">
+        <v>120</v>
+      </c>
+      <c r="D95" t="s">
+        <v>119</v>
+      </c>
+      <c r="E95" t="s">
         <v>122</v>
-      </c>
-      <c r="C95" t="s">
-        <v>121</v>
-      </c>
-      <c r="D95" t="s">
-        <v>120</v>
-      </c>
-      <c r="E95" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B96" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C96" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D96" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E96" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="210" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>775</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B98" t="s">
+        <v>124</v>
+      </c>
+      <c r="C98" t="s">
+        <v>123</v>
+      </c>
+      <c r="D98" t="s">
+        <v>123</v>
+      </c>
+      <c r="E98" t="s">
         <v>125</v>
-      </c>
-      <c r="C98" t="s">
-        <v>124</v>
-      </c>
-      <c r="D98" t="s">
-        <v>124</v>
-      </c>
-      <c r="E98" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B99" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C99" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D99" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E99" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="225" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B101" t="s">
+        <v>127</v>
+      </c>
+      <c r="C101" t="s">
+        <v>126</v>
+      </c>
+      <c r="D101" t="s">
+        <v>126</v>
+      </c>
+      <c r="E101" t="s">
         <v>128</v>
-      </c>
-      <c r="C101" t="s">
-        <v>127</v>
-      </c>
-      <c r="D101" t="s">
-        <v>127</v>
-      </c>
-      <c r="E101" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B102" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C102" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D102" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E102" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="228" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="225" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B104" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C104" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D104" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E104" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B105" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C105" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D105" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E105" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="210" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B107" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C107" t="s">
+        <v>180</v>
+      </c>
+      <c r="D107" t="s">
+        <v>130</v>
+      </c>
+      <c r="E107" t="s">
         <v>181</v>
-      </c>
-      <c r="D107" t="s">
-        <v>131</v>
-      </c>
-      <c r="E107" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B108" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C108" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D108" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E108" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="171" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="180" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B110" t="s">
+        <v>183</v>
+      </c>
+      <c r="C110" t="s">
+        <v>182</v>
+      </c>
+      <c r="D110" t="s">
+        <v>132</v>
+      </c>
+      <c r="E110" t="s">
         <v>184</v>
-      </c>
-      <c r="C110" t="s">
-        <v>183</v>
-      </c>
-      <c r="D110" t="s">
-        <v>133</v>
-      </c>
-      <c r="E110" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B111" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C111" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D111" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E111" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="150" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B113" t="s">
+        <v>186</v>
+      </c>
+      <c r="C113" t="s">
+        <v>185</v>
+      </c>
+      <c r="D113" t="s">
+        <v>133</v>
+      </c>
+      <c r="E113" t="s">
         <v>187</v>
-      </c>
-      <c r="C113" t="s">
-        <v>186</v>
-      </c>
-      <c r="D113" t="s">
-        <v>134</v>
-      </c>
-      <c r="E113" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B114" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C114" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D114" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E114" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="165" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B116" t="s">
+        <v>188</v>
+      </c>
+      <c r="C116" t="s">
+        <v>134</v>
+      </c>
+      <c r="D116" t="s">
+        <v>134</v>
+      </c>
+      <c r="E116" t="s">
         <v>189</v>
-      </c>
-      <c r="C116" t="s">
-        <v>135</v>
-      </c>
-      <c r="D116" t="s">
-        <v>135</v>
-      </c>
-      <c r="E116" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B117" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C117" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D117" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E117" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="150" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C118" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>812</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B119" t="s">
+        <v>191</v>
+      </c>
+      <c r="C119" t="s">
+        <v>190</v>
+      </c>
+      <c r="D119" t="s">
+        <v>135</v>
+      </c>
+      <c r="E119" t="s">
         <v>192</v>
-      </c>
-      <c r="C119" t="s">
-        <v>191</v>
-      </c>
-      <c r="D119" t="s">
-        <v>136</v>
-      </c>
-      <c r="E119" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B120" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C120" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D120" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E120" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="150" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C121" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B122" t="s">
+        <v>193</v>
+      </c>
+      <c r="C122" t="s">
+        <v>136</v>
+      </c>
+      <c r="D122" t="s">
+        <v>136</v>
+      </c>
+      <c r="E122" t="s">
         <v>194</v>
-      </c>
-      <c r="C122" t="s">
-        <v>137</v>
-      </c>
-      <c r="D122" t="s">
-        <v>137</v>
-      </c>
-      <c r="E122" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B123" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C123" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D123" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E123" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="180" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B125" t="s">
+        <v>196</v>
+      </c>
+      <c r="C125" t="s">
+        <v>195</v>
+      </c>
+      <c r="D125" t="s">
+        <v>137</v>
+      </c>
+      <c r="E125" t="s">
         <v>197</v>
-      </c>
-      <c r="C125" t="s">
-        <v>196</v>
-      </c>
-      <c r="D125" t="s">
-        <v>138</v>
-      </c>
-      <c r="E125" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B126" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C126" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D126" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E126" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="171" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="180" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B128" t="s">
+        <v>199</v>
+      </c>
+      <c r="C128" t="s">
+        <v>198</v>
+      </c>
+      <c r="D128" t="s">
+        <v>138</v>
+      </c>
+      <c r="E128" t="s">
         <v>200</v>
-      </c>
-      <c r="C128" t="s">
-        <v>199</v>
-      </c>
-      <c r="D128" t="s">
-        <v>139</v>
-      </c>
-      <c r="E128" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B129" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C129" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D129" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E129" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="135" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B131" t="s">
+        <v>202</v>
+      </c>
+      <c r="C131" t="s">
+        <v>201</v>
+      </c>
+      <c r="D131" t="s">
+        <v>139</v>
+      </c>
+      <c r="E131" t="s">
         <v>203</v>
-      </c>
-      <c r="C131" t="s">
-        <v>202</v>
-      </c>
-      <c r="D131" t="s">
-        <v>140</v>
-      </c>
-      <c r="E131" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C132" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D132" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E132" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="114" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="120" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B134" t="s">
+        <v>204</v>
+      </c>
+      <c r="C134" t="s">
+        <v>140</v>
+      </c>
+      <c r="D134" t="s">
+        <v>140</v>
+      </c>
+      <c r="E134" t="s">
         <v>205</v>
-      </c>
-      <c r="C134" t="s">
-        <v>141</v>
-      </c>
-      <c r="D134" t="s">
-        <v>141</v>
-      </c>
-      <c r="E134" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B135" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C135" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D135" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E135" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="114" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="120" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B137" t="s">
+        <v>207</v>
+      </c>
+      <c r="C137" t="s">
+        <v>206</v>
+      </c>
+      <c r="D137" t="s">
+        <v>141</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C137" t="s">
-        <v>207</v>
-      </c>
-      <c r="D137" t="s">
-        <v>142</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B138" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C138" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D138" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E138" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="150" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B140" t="s">
+        <v>210</v>
+      </c>
+      <c r="C140" t="s">
+        <v>209</v>
+      </c>
+      <c r="D140" t="s">
+        <v>142</v>
+      </c>
+      <c r="E140" t="s">
         <v>211</v>
-      </c>
-      <c r="C140" t="s">
-        <v>210</v>
-      </c>
-      <c r="D140" t="s">
-        <v>143</v>
-      </c>
-      <c r="E140" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B141" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C141" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D141" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E141" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="114" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="120" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="C142" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>842</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B143" t="s">
+        <v>212</v>
+      </c>
+      <c r="C143" t="s">
+        <v>540</v>
+      </c>
+      <c r="D143" t="s">
+        <v>840</v>
+      </c>
+      <c r="E143" t="s">
         <v>213</v>
-      </c>
-      <c r="C143" t="s">
-        <v>544</v>
-      </c>
-      <c r="D143" t="s">
-        <v>844</v>
-      </c>
-      <c r="E143" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B144" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C144" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D144" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E144" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="90" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B146" t="s">
+        <v>215</v>
+      </c>
+      <c r="C146" t="s">
+        <v>214</v>
+      </c>
+      <c r="D146" t="s">
+        <v>143</v>
+      </c>
+      <c r="E146" t="s">
         <v>216</v>
-      </c>
-      <c r="C146" t="s">
-        <v>215</v>
-      </c>
-      <c r="D146" t="s">
-        <v>144</v>
-      </c>
-      <c r="E146" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B147" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C147" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D147" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E147" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="135" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B149" t="s">
+        <v>218</v>
+      </c>
+      <c r="C149" t="s">
+        <v>217</v>
+      </c>
+      <c r="D149" t="s">
+        <v>144</v>
+      </c>
+      <c r="E149" t="s">
         <v>219</v>
-      </c>
-      <c r="C149" t="s">
-        <v>218</v>
-      </c>
-      <c r="D149" t="s">
-        <v>145</v>
-      </c>
-      <c r="E149" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B150" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C150" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D150" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E150" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="135" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B152" t="s">
+        <v>220</v>
+      </c>
+      <c r="C152" t="s">
+        <v>145</v>
+      </c>
+      <c r="D152" t="s">
+        <v>145</v>
+      </c>
+      <c r="E152" t="s">
         <v>221</v>
-      </c>
-      <c r="C152" t="s">
-        <v>146</v>
-      </c>
-      <c r="D152" t="s">
-        <v>146</v>
-      </c>
-      <c r="E152" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B153" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C153" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D153" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E153" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="150" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B155" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C155" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D155" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E155" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B156" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C156" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D156" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E156" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="135" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B158" t="s">
+        <v>225</v>
+      </c>
+      <c r="C158" t="s">
+        <v>224</v>
+      </c>
+      <c r="D158" t="s">
+        <v>147</v>
+      </c>
+      <c r="E158" t="s">
         <v>226</v>
-      </c>
-      <c r="C158" t="s">
-        <v>225</v>
-      </c>
-      <c r="D158" t="s">
-        <v>148</v>
-      </c>
-      <c r="E158" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B159" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C159" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D159" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E159" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="171" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="180" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B161" t="s">
+        <v>227</v>
+      </c>
+      <c r="C161" t="s">
+        <v>148</v>
+      </c>
+      <c r="D161" t="s">
+        <v>148</v>
+      </c>
+      <c r="E161" t="s">
         <v>228</v>
-      </c>
-      <c r="C161" t="s">
-        <v>149</v>
-      </c>
-      <c r="D161" t="s">
-        <v>149</v>
-      </c>
-      <c r="E161" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B162" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C162" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D162" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E162" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="210" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B164" t="s">
+        <v>230</v>
+      </c>
+      <c r="C164" t="s">
+        <v>229</v>
+      </c>
+      <c r="D164" t="s">
+        <v>149</v>
+      </c>
+      <c r="E164" t="s">
         <v>231</v>
-      </c>
-      <c r="C164" t="s">
-        <v>230</v>
-      </c>
-      <c r="D164" t="s">
-        <v>150</v>
-      </c>
-      <c r="E164" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B165" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C165" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D165" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E165" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="165" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B167" t="s">
+        <v>232</v>
+      </c>
+      <c r="C167" t="s">
+        <v>234</v>
+      </c>
+      <c r="D167" t="s">
+        <v>150</v>
+      </c>
+      <c r="E167" t="s">
         <v>233</v>
-      </c>
-      <c r="C167" t="s">
-        <v>235</v>
-      </c>
-      <c r="D167" t="s">
-        <v>151</v>
-      </c>
-      <c r="E167" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B168" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C168" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D168" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E168" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="165" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B170" t="s">
+        <v>236</v>
+      </c>
+      <c r="C170" t="s">
+        <v>235</v>
+      </c>
+      <c r="D170" t="s">
+        <v>151</v>
+      </c>
+      <c r="E170" t="s">
         <v>237</v>
-      </c>
-      <c r="C170" t="s">
-        <v>236</v>
-      </c>
-      <c r="D170" t="s">
-        <v>152</v>
-      </c>
-      <c r="E170" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B171" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C171" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D171" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E171" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="105" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B173" t="s">
+        <v>239</v>
+      </c>
+      <c r="C173" t="s">
+        <v>238</v>
+      </c>
+      <c r="D173" t="s">
+        <v>152</v>
+      </c>
+      <c r="E173" t="s">
         <v>240</v>
-      </c>
-      <c r="C173" t="s">
-        <v>239</v>
-      </c>
-      <c r="D173" t="s">
-        <v>153</v>
-      </c>
-      <c r="E173" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B174" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C174" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D174" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E174" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="195" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>878</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>886</v>
-      </c>
       <c r="C175" s="2" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B176" t="s">
+        <v>242</v>
+      </c>
+      <c r="C176" t="s">
+        <v>241</v>
+      </c>
+      <c r="D176" t="s">
+        <v>153</v>
+      </c>
+      <c r="E176" t="s">
         <v>243</v>
-      </c>
-      <c r="C176" t="s">
-        <v>242</v>
-      </c>
-      <c r="D176" t="s">
-        <v>154</v>
-      </c>
-      <c r="E176" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B177" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C177" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D177" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E177" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="210" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B179" t="s">
+        <v>245</v>
+      </c>
+      <c r="C179" t="s">
+        <v>244</v>
+      </c>
+      <c r="D179" t="s">
+        <v>154</v>
+      </c>
+      <c r="E179" t="s">
         <v>246</v>
-      </c>
-      <c r="C179" t="s">
-        <v>245</v>
-      </c>
-      <c r="D179" t="s">
-        <v>155</v>
-      </c>
-      <c r="E179" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B180" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C180" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D180" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E180" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="225" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B182" t="s">
+        <v>247</v>
+      </c>
+      <c r="C182" t="s">
         <v>248</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
+        <v>155</v>
+      </c>
+      <c r="E182" t="s">
         <v>249</v>
-      </c>
-      <c r="D182" t="s">
-        <v>156</v>
-      </c>
-      <c r="E182" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B183" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C183" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D183" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E183" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="180" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>890</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>898</v>
-      </c>
       <c r="C184" s="2" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B185" t="s">
+        <v>251</v>
+      </c>
+      <c r="C185" t="s">
+        <v>250</v>
+      </c>
+      <c r="D185" t="s">
+        <v>156</v>
+      </c>
+      <c r="E185" t="s">
         <v>252</v>
-      </c>
-      <c r="C185" t="s">
-        <v>251</v>
-      </c>
-      <c r="D185" t="s">
-        <v>157</v>
-      </c>
-      <c r="E185" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B186" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C186" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D186" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E186" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="165" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B188" t="s">
+        <v>254</v>
+      </c>
+      <c r="C188" t="s">
+        <v>253</v>
+      </c>
+      <c r="D188" t="s">
+        <v>253</v>
+      </c>
+      <c r="E188" t="s">
         <v>255</v>
-      </c>
-      <c r="C188" t="s">
-        <v>254</v>
-      </c>
-      <c r="D188" t="s">
-        <v>254</v>
-      </c>
-      <c r="E188" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B189" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C189" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D189" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E189" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="165" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B191" t="s">
+        <v>256</v>
+      </c>
+      <c r="C191" t="s">
         <v>257</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
+        <v>157</v>
+      </c>
+      <c r="E191" t="s">
         <v>258</v>
-      </c>
-      <c r="D191" t="s">
-        <v>158</v>
-      </c>
-      <c r="E191" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B192" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C192" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D192" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E192" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="195" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B194" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C194" t="s">
+        <v>259</v>
+      </c>
+      <c r="D194" t="s">
+        <v>158</v>
+      </c>
+      <c r="E194" t="s">
         <v>260</v>
-      </c>
-      <c r="D194" t="s">
-        <v>159</v>
-      </c>
-      <c r="E194" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B195" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C195" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D195" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E195" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="195" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B197" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C197" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D197" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E197" t="s">
-        <v>264</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B198" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C198" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D198" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E198" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="171" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="180" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B200" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C200" t="s">
+        <v>264</v>
+      </c>
+      <c r="D200" t="s">
+        <v>160</v>
+      </c>
+      <c r="E200" t="s">
         <v>266</v>
-      </c>
-      <c r="D200" t="s">
-        <v>161</v>
-      </c>
-      <c r="E200" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B201" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C201" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D201" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E201" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="210" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B203" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C203" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D203" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E203" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B204" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C204" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D204" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E204" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="171" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="180" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B206" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C206" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D206" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E206" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B207" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C207" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D207" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E207" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="150" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B209" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C209" t="s">
+        <v>271</v>
+      </c>
+      <c r="D209" t="s">
+        <v>162</v>
+      </c>
+      <c r="E209" t="s">
         <v>273</v>
-      </c>
-      <c r="D209" t="s">
-        <v>163</v>
-      </c>
-      <c r="E209" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B210" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C210" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D210" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E210" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="165" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B212" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C212" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D212" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E212" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B213" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C213" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D213" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E213" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="210" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B215" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C215" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D215" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E215" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B216" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C216" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D216" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E216" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="165" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B218" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C218" t="s">
+        <v>278</v>
+      </c>
+      <c r="D218" t="s">
+        <v>165</v>
+      </c>
+      <c r="E218" t="s">
         <v>280</v>
-      </c>
-      <c r="D218" t="s">
-        <v>166</v>
-      </c>
-      <c r="E218" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B219" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C219" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D219" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E219" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="114" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="120" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B221" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C221" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D221" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E221" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B222" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C222" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D222" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E222" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="135" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B224" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C224" t="s">
+        <v>283</v>
+      </c>
+      <c r="D224" t="s">
+        <v>167</v>
+      </c>
+      <c r="E224" t="s">
         <v>285</v>
-      </c>
-      <c r="D224" t="s">
-        <v>168</v>
-      </c>
-      <c r="E224" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B225" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C225" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D225" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E225" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="165" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B227" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C227" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D227" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E227" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B228" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C228" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D228" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E228" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="225" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B230" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C230" t="s">
+        <v>288</v>
+      </c>
+      <c r="D230" t="s">
+        <v>169</v>
+      </c>
+      <c r="E230" t="s">
         <v>290</v>
-      </c>
-      <c r="D230" t="s">
-        <v>170</v>
-      </c>
-      <c r="E230" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B231" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C231" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D231" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E231" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="105" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B233" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C233" t="s">
+        <v>291</v>
+      </c>
+      <c r="D233" t="s">
+        <v>170</v>
+      </c>
+      <c r="E233" t="s">
         <v>293</v>
-      </c>
-      <c r="D233" t="s">
-        <v>171</v>
-      </c>
-      <c r="E233" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B234" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C234" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D234" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E234" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="105" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B236" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C236" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D236" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E236" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B237" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C237" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D237" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E237" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="135" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B239" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C239" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D239" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E239" t="s">
-        <v>300</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B240" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C240" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D240" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E240" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="195" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B242" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C242" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D242" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E242" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B243" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C243" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D243" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E243" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" ht="228" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B245" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C245" t="s">
         <v>66</v>
@@ -8391,534 +8549,670 @@
         <v>66</v>
       </c>
       <c r="E245" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B246" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C246" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D246" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E246" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="165" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B248" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C248" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D248" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E248" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B249" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C249" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D249" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E249" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="105" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B251" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C251" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D251" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E251" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B252" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C252" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D252" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E252" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B254" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C254" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D254" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E254" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B255" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C255" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D255" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E255" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="135" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B257" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C257" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D257" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E257" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B258" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C258" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D258" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E258" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="165" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B260" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C260" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D260" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E260" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B261" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C261" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D261" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E261" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="195" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B263" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C263" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D263" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E263" t="s">
-        <v>320</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B264" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C264" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D264" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E264" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="165" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B266" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C266" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D266" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E266" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B267" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C267" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D267" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E267" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="135" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B269" t="s">
+        <v>393</v>
+      </c>
+      <c r="C269" t="s">
+        <v>396</v>
+      </c>
+      <c r="D269" t="s">
         <v>397</v>
       </c>
-      <c r="C269" t="s">
-        <v>400</v>
-      </c>
-      <c r="D269" t="s">
-        <v>401</v>
-      </c>
       <c r="E269" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B270" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C270" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="D270" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="E270" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B271" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C271" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="D271" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E271" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
+        <v>631</v>
+      </c>
+      <c r="B272" t="s">
         <v>635</v>
       </c>
-      <c r="B272" t="s">
+      <c r="C272" t="s">
         <v>639</v>
       </c>
-      <c r="C272" t="s">
-        <v>643</v>
-      </c>
       <c r="D272" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E272" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
+        <v>632</v>
+      </c>
+      <c r="B273" t="s">
         <v>636</v>
       </c>
-      <c r="B273" t="s">
+      <c r="C273" t="s">
         <v>640</v>
       </c>
-      <c r="C273" t="s">
-        <v>644</v>
-      </c>
       <c r="D273" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E273" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
+        <v>633</v>
+      </c>
+      <c r="B274" t="s">
         <v>637</v>
       </c>
-      <c r="B274" t="s">
+      <c r="C274" t="s">
         <v>641</v>
       </c>
-      <c r="C274" t="s">
-        <v>645</v>
-      </c>
       <c r="D274" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E274" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
+        <v>634</v>
+      </c>
+      <c r="B275" t="s">
         <v>638</v>
       </c>
-      <c r="B275" t="s">
+      <c r="C275" t="s">
         <v>642</v>
       </c>
-      <c r="C275" t="s">
-        <v>646</v>
-      </c>
       <c r="D275" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E275" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D276" t="s">
         <v>1013</v>
       </c>
-      <c r="B276" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C276" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D276" t="s">
-        <v>1017</v>
-      </c>
       <c r="E276" t="s">
-        <v>1016</v>
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B277" t="s">
+        <v>478</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E277" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E278" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E279" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B280" t="s">
+        <v>263</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E280" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E281" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E283" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E284" t="s">
+        <v>1127</v>
       </c>
     </row>
   </sheetData>

--- a/template/Localization.xlsx
+++ b/template/Localization.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="1145">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3596,10 +3596,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>タップ　ザ　カッド</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>點擊卡片繼續</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4007,6 +4003,50 @@
   </si>
   <si>
     <t>拉卡伊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKNext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKBack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繼續</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次へ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press the Card to Continue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4373,10 +4413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E284"/>
+  <dimension ref="A1:E286"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" zoomScale="118" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D284" sqref="D284"/>
+      <selection activeCell="E279" sqref="E279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4500,7 +4540,7 @@
         <v>657</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>658</v>
@@ -4551,7 +4591,7 @@
         <v>661</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>662</v>
@@ -4602,7 +4642,7 @@
         <v>665</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>667</v>
@@ -4653,7 +4693,7 @@
         <v>669</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>671</v>
@@ -4704,7 +4744,7 @@
         <v>673</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>675</v>
@@ -4755,7 +4795,7 @@
         <v>677</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>679</v>
@@ -4806,7 +4846,7 @@
         <v>682</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>684</v>
@@ -4857,7 +4897,7 @@
         <v>686</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>689</v>
@@ -4908,7 +4948,7 @@
         <v>691</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>693</v>
@@ -5001,7 +5041,7 @@
     </row>
     <row r="37" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>650</v>
@@ -5010,7 +5050,7 @@
         <v>648</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>651</v>
@@ -5163,7 +5203,7 @@
         <v>710</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>711</v>
@@ -5214,7 +5254,7 @@
         <v>714</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>716</v>
@@ -5265,7 +5305,7 @@
         <v>718</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>720</v>
@@ -5316,7 +5356,7 @@
         <v>722</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>724</v>
@@ -5469,7 +5509,7 @@
         <v>735</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>737</v>
@@ -5520,7 +5560,7 @@
         <v>739</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>741</v>
@@ -5540,7 +5580,7 @@
         <v>96</v>
       </c>
       <c r="E68" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -5571,7 +5611,7 @@
         <v>743</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>745</v>
@@ -5622,7 +5662,7 @@
         <v>752</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>753</v>
@@ -5673,7 +5713,7 @@
         <v>748</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>749</v>
@@ -5724,7 +5764,7 @@
         <v>755</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>757</v>
@@ -5775,7 +5815,7 @@
         <v>759</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>761</v>
@@ -5826,7 +5866,7 @@
         <v>763</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>765</v>
@@ -5877,7 +5917,7 @@
         <v>767</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>768</v>
@@ -5928,7 +5968,7 @@
         <v>771</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>773</v>
@@ -5979,7 +6019,7 @@
         <v>748</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>749</v>
@@ -6030,7 +6070,7 @@
         <v>777</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>779</v>
@@ -6081,7 +6121,7 @@
         <v>748</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>749</v>
@@ -6132,7 +6172,7 @@
         <v>781</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>783</v>
@@ -6183,7 +6223,7 @@
         <v>785</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>786</v>
@@ -6234,7 +6274,7 @@
         <v>799</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>801</v>
@@ -6285,7 +6325,7 @@
         <v>802</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>804</v>
@@ -6336,7 +6376,7 @@
         <v>805</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>807</v>
@@ -6438,7 +6478,7 @@
         <v>810</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>814</v>
@@ -6489,7 +6529,7 @@
         <v>815</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>817</v>
@@ -6540,7 +6580,7 @@
         <v>818</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>820</v>
@@ -6591,7 +6631,7 @@
         <v>821</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>823</v>
@@ -6642,7 +6682,7 @@
         <v>824</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>826</v>
@@ -6693,7 +6733,7 @@
         <v>827</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>828</v>
@@ -6744,7 +6784,7 @@
         <v>830</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>832</v>
@@ -6795,7 +6835,7 @@
         <v>838</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>842</v>
@@ -6846,7 +6886,7 @@
         <v>839</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>844</v>
@@ -6897,7 +6937,7 @@
         <v>845</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>847</v>
@@ -6999,7 +7039,7 @@
         <v>851</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>859</v>
@@ -7050,7 +7090,7 @@
         <v>860</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>862</v>
@@ -7101,7 +7141,7 @@
         <v>863</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>865</v>
@@ -7152,7 +7192,7 @@
         <v>866</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>867</v>
@@ -7203,7 +7243,7 @@
         <v>869</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>871</v>
@@ -7254,7 +7294,7 @@
         <v>872</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>874</v>
@@ -7305,7 +7345,7 @@
         <v>875</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>877</v>
@@ -7356,7 +7396,7 @@
         <v>881</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>883</v>
@@ -7407,7 +7447,7 @@
         <v>884</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>886</v>
@@ -7458,7 +7498,7 @@
         <v>887</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>889</v>
@@ -7509,7 +7549,7 @@
         <v>895</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>896</v>
@@ -7560,7 +7600,7 @@
         <v>897</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>898</v>
@@ -7611,7 +7651,7 @@
         <v>900</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>902</v>
@@ -7662,7 +7702,7 @@
         <v>910</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>912</v>
@@ -7713,7 +7753,7 @@
         <v>913</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>915</v>
@@ -7733,7 +7773,7 @@
         <v>159</v>
       </c>
       <c r="E197" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -7764,7 +7804,7 @@
         <v>917</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>918</v>
@@ -7815,7 +7855,7 @@
         <v>920</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>922</v>
@@ -7866,7 +7906,7 @@
         <v>925</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>927</v>
@@ -7917,7 +7957,7 @@
         <v>928</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>930</v>
@@ -7968,7 +8008,7 @@
         <v>654</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>653</v>
@@ -8019,7 +8059,7 @@
         <v>950</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>952</v>
@@ -8070,7 +8110,7 @@
         <v>953</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>955</v>
@@ -8121,7 +8161,7 @@
         <v>956</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>958</v>
@@ -8172,7 +8212,7 @@
         <v>959</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>961</v>
@@ -8223,7 +8263,7 @@
         <v>962</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>963</v>
@@ -8274,7 +8314,7 @@
         <v>965</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>967</v>
@@ -8325,7 +8365,7 @@
         <v>968</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>969</v>
@@ -8376,7 +8416,7 @@
         <v>971</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>973</v>
@@ -8427,7 +8467,7 @@
         <v>974</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>975</v>
@@ -8447,7 +8487,7 @@
         <v>171</v>
       </c>
       <c r="E239" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -8478,7 +8518,7 @@
         <v>977</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>979</v>
@@ -8580,7 +8620,7 @@
         <v>984</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>986</v>
@@ -8631,7 +8671,7 @@
         <v>990</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>991</v>
@@ -8733,7 +8773,7 @@
         <v>994</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>996</v>
@@ -8784,7 +8824,7 @@
         <v>997</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>999</v>
@@ -8835,7 +8875,7 @@
         <v>1000</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>1002</v>
@@ -8855,7 +8895,7 @@
         <v>177</v>
       </c>
       <c r="E263" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
@@ -8872,7 +8912,7 @@
         <v>316</v>
       </c>
       <c r="E264" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="165" x14ac:dyDescent="0.2">
@@ -8886,7 +8926,7 @@
         <v>1006</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>1008</v>
@@ -8937,7 +8977,7 @@
         <v>1003</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>1005</v>
@@ -8945,7 +8985,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B269" t="s">
         <v>393</v>
@@ -9073,146 +9113,180 @@
         <v>1010</v>
       </c>
       <c r="D276" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E276" t="s">
-        <v>1012</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B277" t="s">
         <v>478</v>
       </c>
       <c r="C277" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D277" t="s">
         <v>1103</v>
       </c>
-      <c r="D277" t="s">
-        <v>1104</v>
-      </c>
       <c r="E277" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B278" t="s">
         <v>1093</v>
       </c>
-      <c r="B278" t="s">
+      <c r="C278" t="s">
         <v>1094</v>
       </c>
-      <c r="C278" t="s">
+      <c r="D278" t="s">
         <v>1095</v>
       </c>
-      <c r="D278" t="s">
+      <c r="E278" t="s">
         <v>1096</v>
-      </c>
-      <c r="E278" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B279" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C279" t="s">
         <v>1107</v>
       </c>
-      <c r="C279" t="s">
-        <v>1108</v>
-      </c>
       <c r="D279" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E279" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B280" t="s">
         <v>263</v>
       </c>
       <c r="C280" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D280" t="s">
         <v>1113</v>
       </c>
-      <c r="D280" t="s">
-        <v>1114</v>
-      </c>
       <c r="E280" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B281" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C281" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D281" t="s">
         <v>1117</v>
       </c>
-      <c r="D281" t="s">
-        <v>1118</v>
-      </c>
       <c r="E281" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B282" t="s">
         <v>1122</v>
       </c>
-      <c r="B282" t="s">
+      <c r="C282" t="s">
         <v>1123</v>
       </c>
-      <c r="C282" t="s">
+      <c r="D282" t="s">
         <v>1124</v>
       </c>
-      <c r="D282" t="s">
+      <c r="E282" t="s">
         <v>1125</v>
-      </c>
-      <c r="E282" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B283" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C283" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D283" t="s">
         <v>1129</v>
       </c>
-      <c r="D283" t="s">
-        <v>1130</v>
-      </c>
       <c r="E283" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B284" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C284" t="s">
         <v>1132</v>
       </c>
-      <c r="C284" t="s">
+      <c r="D284" t="s">
         <v>1133</v>
       </c>
-      <c r="D284" t="s">
+      <c r="E284" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
         <v>1134</v>
       </c>
-      <c r="E284" t="s">
-        <v>1127</v>
+      <c r="B285" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E285" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E286" t="s">
+        <v>1143</v>
       </c>
     </row>
   </sheetData>

--- a/template/Localization.xlsx
+++ b/template/Localization.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="1155">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4047,6 +4047,46 @@
   </si>
   <si>
     <t>Press the Card to Continue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKOK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKCancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いいえ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4413,10 +4453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E286"/>
+  <dimension ref="A1:E288"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" zoomScale="118" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E279" sqref="E279"/>
+      <selection activeCell="E288" sqref="E288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9289,6 +9329,40 @@
         <v>1143</v>
       </c>
     </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E287" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E288" t="s">
+        <v>1154</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
